--- a/banner_tracking_combined.xlsx
+++ b/banner_tracking_combined.xlsx
@@ -423,7 +423,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I579"/>
+  <dimension ref="A1:I809"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24338,6 +24338,9408 @@
         </is>
       </c>
       <c r="I579" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" t="inlineStr">
+        <is>
+          <t>ikon.mn</t>
+        </is>
+      </c>
+      <c r="B580" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+      <c r="C580" t="inlineStr">
+        <is>
+          <t>https://ikon.mn/ad/IKONMN_B1?1758182897</t>
+        </is>
+      </c>
+      <c r="D580" t="inlineStr">
+        <is>
+          <t>https://content.ikon.mn/raw/2025/9/8/18193/1._Ikon_copy_2.jpg</t>
+        </is>
+      </c>
+      <c r="E580" t="inlineStr">
+        <is>
+          <t>https://www.khanbank.com/personal/news/intelligence/7657/</t>
+        </is>
+      </c>
+      <c r="F580" s="1" t="inlineStr">
+        <is>
+          <t>ikon.mn/2025-09-18/ikon_banner_1758183309_7672bb7d80.jpg</t>
+        </is>
+      </c>
+      <c r="G580" t="inlineStr">
+        <is>
+          <t>1280</t>
+        </is>
+      </c>
+      <c r="H580" t="inlineStr">
+        <is>
+          <t>720</t>
+        </is>
+      </c>
+      <c r="I580" t="inlineStr"/>
+    </row>
+    <row r="581">
+      <c r="A581" t="inlineStr">
+        <is>
+          <t>ikon.mn</t>
+        </is>
+      </c>
+      <c r="B581" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+      <c r="C581" t="inlineStr">
+        <is>
+          <t>https://ikon.mn/ad/IKONMN_B1?1758182897</t>
+        </is>
+      </c>
+      <c r="D581" t="inlineStr">
+        <is>
+          <t>data:image/gif;base64,R0lGODlhAQABAAAAACwAAAAAAQABAAA=</t>
+        </is>
+      </c>
+      <c r="E581" t="inlineStr"/>
+      <c r="F581" t="inlineStr"/>
+      <c r="G581" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H581" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I581" t="inlineStr">
+        <is>
+          <t>download_timeout</t>
+        </is>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" t="inlineStr">
+        <is>
+          <t>ikon.mn</t>
+        </is>
+      </c>
+      <c r="B582" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+      <c r="C582" t="inlineStr">
+        <is>
+          <t>https://ikon.mn/ad/IKONMN_B1?1758182897</t>
+        </is>
+      </c>
+      <c r="D582" t="inlineStr">
+        <is>
+          <t>https://content.ikon.mn/raw/2025/9/8/18193/1._Ikon_copy_2.jpg</t>
+        </is>
+      </c>
+      <c r="E582" t="inlineStr"/>
+      <c r="F582" t="inlineStr"/>
+      <c r="G582" t="inlineStr">
+        <is>
+          <t>1280</t>
+        </is>
+      </c>
+      <c r="H582" t="inlineStr">
+        <is>
+          <t>720</t>
+        </is>
+      </c>
+      <c r="I582" t="inlineStr">
+        <is>
+          <t>duplicate_hash</t>
+        </is>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" t="inlineStr">
+        <is>
+          <t>ikon.mn</t>
+        </is>
+      </c>
+      <c r="B583" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+      <c r="C583" t="inlineStr">
+        <is>
+          <t>https://ikon.mn/ad/IKONMN_B1?1758182897</t>
+        </is>
+      </c>
+      <c r="D583" t="inlineStr">
+        <is>
+          <t>data:image/gif;base64,R0lGODlhAQABAAAAACwAAAAAAQABAAA=</t>
+        </is>
+      </c>
+      <c r="E583" t="inlineStr"/>
+      <c r="F583" t="inlineStr"/>
+      <c r="G583" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H583" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I583" t="inlineStr">
+        <is>
+          <t>download_timeout</t>
+        </is>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584" t="inlineStr">
+        <is>
+          <t>ikon.mn</t>
+        </is>
+      </c>
+      <c r="B584" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+      <c r="C584" t="inlineStr">
+        <is>
+          <t>https://ikon.mn/ad/IKONMN_B1?1758182897</t>
+        </is>
+      </c>
+      <c r="D584" t="inlineStr">
+        <is>
+          <t>https://content.ikon.mn/raw/2025/9/8/18193/1._Ikon_copy_2.jpg</t>
+        </is>
+      </c>
+      <c r="E584" t="inlineStr"/>
+      <c r="F584" t="inlineStr"/>
+      <c r="G584" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H584" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I584" t="inlineStr">
+        <is>
+          <t>duplicate_hash</t>
+        </is>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" t="inlineStr">
+        <is>
+          <t>ikon.mn</t>
+        </is>
+      </c>
+      <c r="B585" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+      <c r="C585" t="inlineStr">
+        <is>
+          <t>https://ikon.mn/ad/IKONMN_B1?1758182897</t>
+        </is>
+      </c>
+      <c r="D585" t="inlineStr">
+        <is>
+          <t>https://content.ikon.mn/raw/2025/9/16/18209/HS_Ikon_560x400.jpg</t>
+        </is>
+      </c>
+      <c r="E585" t="inlineStr">
+        <is>
+          <t>https://www.khanbank.com/personal/news/intelligence/7657/</t>
+        </is>
+      </c>
+      <c r="F585" s="1" t="inlineStr">
+        <is>
+          <t>ikon.mn/2025-09-18/ikon_banner_1758183319_f198d6a249.jpg</t>
+        </is>
+      </c>
+      <c r="G585" t="inlineStr">
+        <is>
+          <t>560</t>
+        </is>
+      </c>
+      <c r="H585" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="I585" t="inlineStr"/>
+    </row>
+    <row r="586">
+      <c r="A586" t="inlineStr">
+        <is>
+          <t>ikon.mn</t>
+        </is>
+      </c>
+      <c r="B586" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+      <c r="C586" t="inlineStr">
+        <is>
+          <t>https://ikon.mn/ad/IKONMN_B1?1758182897</t>
+        </is>
+      </c>
+      <c r="D586" t="inlineStr">
+        <is>
+          <t>https://content.ikon.mn/raw/2025/9/8/18193/1._Ikon_copy_2.jpg</t>
+        </is>
+      </c>
+      <c r="E586" t="inlineStr"/>
+      <c r="F586" t="inlineStr"/>
+      <c r="G586" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H586" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I586" t="inlineStr">
+        <is>
+          <t>duplicate_hash</t>
+        </is>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" t="inlineStr">
+        <is>
+          <t>ikon.mn</t>
+        </is>
+      </c>
+      <c r="B587" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+      <c r="C587" t="inlineStr">
+        <is>
+          <t>https://ikon.mn/ad/IKONMN_B1?1758182897</t>
+        </is>
+      </c>
+      <c r="D587" t="inlineStr">
+        <is>
+          <t>https://content.ikon.mn/raw/2025/9/16/18209/HS_Ikon_560x400.jpg</t>
+        </is>
+      </c>
+      <c r="E587" t="inlineStr"/>
+      <c r="F587" t="inlineStr"/>
+      <c r="G587" t="inlineStr">
+        <is>
+          <t>560</t>
+        </is>
+      </c>
+      <c r="H587" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="I587" t="inlineStr">
+        <is>
+          <t>duplicate_hash</t>
+        </is>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" t="inlineStr">
+        <is>
+          <t>ikon.mn</t>
+        </is>
+      </c>
+      <c r="B588" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+      <c r="C588" t="inlineStr">
+        <is>
+          <t>https://ikon.mn/ad/IKONMN_B1?1758182897</t>
+        </is>
+      </c>
+      <c r="D588" t="inlineStr">
+        <is>
+          <t>https://content.ikon.mn/raw/2025/9/8/18193/1._Ikon_copy_2.jpg</t>
+        </is>
+      </c>
+      <c r="E588" t="inlineStr"/>
+      <c r="F588" t="inlineStr"/>
+      <c r="G588" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H588" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I588" t="inlineStr">
+        <is>
+          <t>duplicate_hash</t>
+        </is>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" t="inlineStr">
+        <is>
+          <t>ikon.mn</t>
+        </is>
+      </c>
+      <c r="B589" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+      <c r="C589" t="inlineStr">
+        <is>
+          <t>https://ikon.mn/ad/IKONMN_B1?1758182897</t>
+        </is>
+      </c>
+      <c r="D589" t="inlineStr">
+        <is>
+          <t>https://content.ikon.mn/raw/2025/9/16/18209/HS_Ikon_560x400.jpg</t>
+        </is>
+      </c>
+      <c r="E589" t="inlineStr"/>
+      <c r="F589" t="inlineStr"/>
+      <c r="G589" t="inlineStr">
+        <is>
+          <t>560</t>
+        </is>
+      </c>
+      <c r="H589" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="I589" t="inlineStr">
+        <is>
+          <t>duplicate_hash</t>
+        </is>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" t="inlineStr">
+        <is>
+          <t>ikon.mn</t>
+        </is>
+      </c>
+      <c r="B590" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+      <c r="C590" t="inlineStr">
+        <is>
+          <t>https://ikon.mn/ad/IKONMN_B1?1758182897</t>
+        </is>
+      </c>
+      <c r="D590" t="inlineStr">
+        <is>
+          <t>https://content.ikon.mn/raw/2025/9/8/18193/1._Ikon_copy_2.jpg</t>
+        </is>
+      </c>
+      <c r="E590" t="inlineStr"/>
+      <c r="F590" t="inlineStr"/>
+      <c r="G590" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H590" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I590" t="inlineStr">
+        <is>
+          <t>duplicate_hash</t>
+        </is>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" t="inlineStr">
+        <is>
+          <t>ikon.mn</t>
+        </is>
+      </c>
+      <c r="B591" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+      <c r="C591" t="inlineStr">
+        <is>
+          <t>https://ikon.mn/ad/IKONMN_B1?1758182897</t>
+        </is>
+      </c>
+      <c r="D591" t="inlineStr">
+        <is>
+          <t>https://content.ikon.mn/raw/2025/9/16/18209/HS_Ikon_560x400.jpg</t>
+        </is>
+      </c>
+      <c r="E591" t="inlineStr"/>
+      <c r="F591" t="inlineStr"/>
+      <c r="G591" t="inlineStr">
+        <is>
+          <t>560</t>
+        </is>
+      </c>
+      <c r="H591" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="I591" t="inlineStr">
+        <is>
+          <t>duplicate_hash</t>
+        </is>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" t="inlineStr">
+        <is>
+          <t>ikon.mn</t>
+        </is>
+      </c>
+      <c r="B592" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+      <c r="C592" t="inlineStr">
+        <is>
+          <t>https://ikon.mn/ad/IKONMN_B1?1758182897</t>
+        </is>
+      </c>
+      <c r="D592" t="inlineStr">
+        <is>
+          <t>https://content.ikon.mn/raw/2025/9/8/18193/1._Ikon_copy_2.jpg</t>
+        </is>
+      </c>
+      <c r="E592" t="inlineStr"/>
+      <c r="F592" t="inlineStr"/>
+      <c r="G592" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H592" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I592" t="inlineStr">
+        <is>
+          <t>duplicate_hash</t>
+        </is>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" t="inlineStr">
+        <is>
+          <t>ikon.mn</t>
+        </is>
+      </c>
+      <c r="B593" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+      <c r="C593" t="inlineStr">
+        <is>
+          <t>https://ikon.mn/ad/IKONMN_B1?1758182897</t>
+        </is>
+      </c>
+      <c r="D593" t="inlineStr">
+        <is>
+          <t>https://content.ikon.mn/raw/2025/9/16/18209/HS_Ikon_560x400.jpg</t>
+        </is>
+      </c>
+      <c r="E593" t="inlineStr"/>
+      <c r="F593" t="inlineStr"/>
+      <c r="G593" t="inlineStr">
+        <is>
+          <t>560</t>
+        </is>
+      </c>
+      <c r="H593" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="I593" t="inlineStr">
+        <is>
+          <t>duplicate_hash</t>
+        </is>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" t="inlineStr">
+        <is>
+          <t>ikon.mn</t>
+        </is>
+      </c>
+      <c r="B594" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+      <c r="C594" t="inlineStr">
+        <is>
+          <t>https://ikon.mn/ad/IKONMN_B1?1758182897</t>
+        </is>
+      </c>
+      <c r="D594" t="inlineStr">
+        <is>
+          <t>data:image/gif;base64,R0lGODlhAQABAAAAACwAAAAAAQABAAA=</t>
+        </is>
+      </c>
+      <c r="E594" t="inlineStr"/>
+      <c r="F594" t="inlineStr"/>
+      <c r="G594" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H594" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I594" t="inlineStr">
+        <is>
+          <t>download_timeout</t>
+        </is>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" t="inlineStr">
+        <is>
+          <t>ikon.mn</t>
+        </is>
+      </c>
+      <c r="B595" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+      <c r="C595" t="inlineStr">
+        <is>
+          <t>https://ikon.mn/ad/IKONMN_B1?1758182897</t>
+        </is>
+      </c>
+      <c r="D595" t="inlineStr">
+        <is>
+          <t>https://content.ikon.mn/raw/2025/9/16/18209/HS_Ikon_560x400.jpg</t>
+        </is>
+      </c>
+      <c r="E595" t="inlineStr"/>
+      <c r="F595" t="inlineStr"/>
+      <c r="G595" t="inlineStr">
+        <is>
+          <t>560</t>
+        </is>
+      </c>
+      <c r="H595" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="I595" t="inlineStr">
+        <is>
+          <t>duplicate_hash</t>
+        </is>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" t="inlineStr">
+        <is>
+          <t>ikon.mn</t>
+        </is>
+      </c>
+      <c r="B596" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+      <c r="C596" t="inlineStr">
+        <is>
+          <t>https://ikon.mn/ad/IKONMN_B1?1758182897</t>
+        </is>
+      </c>
+      <c r="D596" t="inlineStr">
+        <is>
+          <t>data:image/gif;base64,R0lGODlhAQABAAAAACwAAAAAAQABAAA=</t>
+        </is>
+      </c>
+      <c r="E596" t="inlineStr"/>
+      <c r="F596" t="inlineStr"/>
+      <c r="G596" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H596" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I596" t="inlineStr">
+        <is>
+          <t>download_timeout</t>
+        </is>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" t="inlineStr">
+        <is>
+          <t>ikon.mn</t>
+        </is>
+      </c>
+      <c r="B597" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+      <c r="C597" t="inlineStr">
+        <is>
+          <t>https://ikon.mn/ad/IKONMN_B1?1758182897</t>
+        </is>
+      </c>
+      <c r="D597" t="inlineStr">
+        <is>
+          <t>https://content.ikon.mn/raw/2025/9/16/18209/HS_Ikon_560x400.jpg</t>
+        </is>
+      </c>
+      <c r="E597" t="inlineStr"/>
+      <c r="F597" t="inlineStr"/>
+      <c r="G597" t="inlineStr">
+        <is>
+          <t>560</t>
+        </is>
+      </c>
+      <c r="H597" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="I597" t="inlineStr">
+        <is>
+          <t>duplicate_hash</t>
+        </is>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" t="inlineStr">
+        <is>
+          <t>ikon.mn</t>
+        </is>
+      </c>
+      <c r="B598" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+      <c r="C598" t="inlineStr">
+        <is>
+          <t>https://ikon.mn/ad/IKONMN_B1?1758182897</t>
+        </is>
+      </c>
+      <c r="D598" t="inlineStr">
+        <is>
+          <t>data:image/gif;base64,R0lGODlhAQABAAAAACwAAAAAAQABAAA=</t>
+        </is>
+      </c>
+      <c r="E598" t="inlineStr"/>
+      <c r="F598" t="inlineStr"/>
+      <c r="G598" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H598" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I598" t="inlineStr">
+        <is>
+          <t>download_timeout</t>
+        </is>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" t="inlineStr">
+        <is>
+          <t>ikon.mn</t>
+        </is>
+      </c>
+      <c r="B599" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+      <c r="C599" t="inlineStr">
+        <is>
+          <t>https://ikon.mn/ad/IKONMN_B1?1758182897</t>
+        </is>
+      </c>
+      <c r="D599" t="inlineStr">
+        <is>
+          <t>https://content.ikon.mn/raw/2025/9/16/18209/HS_Ikon_560x400.jpg</t>
+        </is>
+      </c>
+      <c r="E599" t="inlineStr"/>
+      <c r="F599" t="inlineStr"/>
+      <c r="G599" t="inlineStr">
+        <is>
+          <t>560</t>
+        </is>
+      </c>
+      <c r="H599" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="I599" t="inlineStr">
+        <is>
+          <t>duplicate_hash</t>
+        </is>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" t="inlineStr">
+        <is>
+          <t>ikon.mn</t>
+        </is>
+      </c>
+      <c r="B600" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+      <c r="C600" t="inlineStr">
+        <is>
+          <t>https://ikon.mn/ad/IKONMN_B1?1758182897</t>
+        </is>
+      </c>
+      <c r="D600" t="inlineStr">
+        <is>
+          <t>data:image/gif;base64,R0lGODlhAQABAAAAACwAAAAAAQABAAA=</t>
+        </is>
+      </c>
+      <c r="E600" t="inlineStr"/>
+      <c r="F600" t="inlineStr"/>
+      <c r="G600" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H600" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I600" t="inlineStr">
+        <is>
+          <t>download_timeout</t>
+        </is>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" t="inlineStr">
+        <is>
+          <t>ikon.mn</t>
+        </is>
+      </c>
+      <c r="B601" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+      <c r="C601" t="inlineStr">
+        <is>
+          <t>https://ikon.mn/ad/IKONMN_B1?1758182897</t>
+        </is>
+      </c>
+      <c r="D601" t="inlineStr">
+        <is>
+          <t>https://content.ikon.mn/raw/2025/9/16/18209/HS_Ikon_560x400.jpg</t>
+        </is>
+      </c>
+      <c r="E601" t="inlineStr"/>
+      <c r="F601" t="inlineStr"/>
+      <c r="G601" t="inlineStr">
+        <is>
+          <t>560</t>
+        </is>
+      </c>
+      <c r="H601" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="I601" t="inlineStr">
+        <is>
+          <t>duplicate_hash</t>
+        </is>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" t="inlineStr">
+        <is>
+          <t>ikon.mn</t>
+        </is>
+      </c>
+      <c r="B602" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+      <c r="C602" t="inlineStr">
+        <is>
+          <t>https://ikon.mn/ad/IKONMN_B1?1758182897</t>
+        </is>
+      </c>
+      <c r="D602" t="inlineStr">
+        <is>
+          <t>data:image/gif;base64,R0lGODlhAQABAAAAACwAAAAAAQABAAA=</t>
+        </is>
+      </c>
+      <c r="E602" t="inlineStr"/>
+      <c r="F602" t="inlineStr"/>
+      <c r="G602" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H602" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I602" t="inlineStr">
+        <is>
+          <t>download_timeout</t>
+        </is>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603" t="inlineStr">
+        <is>
+          <t>ikon.mn</t>
+        </is>
+      </c>
+      <c r="B603" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+      <c r="C603" t="inlineStr">
+        <is>
+          <t>https://ikon.mn/ad/IKONMN_B1?1758182897</t>
+        </is>
+      </c>
+      <c r="D603" t="inlineStr">
+        <is>
+          <t>https://content.ikon.mn/raw/2025/9/16/18209/HS_Ikon_560x400.jpg</t>
+        </is>
+      </c>
+      <c r="E603" t="inlineStr"/>
+      <c r="F603" t="inlineStr"/>
+      <c r="G603" t="inlineStr">
+        <is>
+          <t>560</t>
+        </is>
+      </c>
+      <c r="H603" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="I603" t="inlineStr">
+        <is>
+          <t>duplicate_hash</t>
+        </is>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" t="inlineStr">
+        <is>
+          <t>ikon.mn</t>
+        </is>
+      </c>
+      <c r="B604" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+      <c r="C604" t="inlineStr">
+        <is>
+          <t>https://ikon.mn/ad/IKONMN_B1?1758182897</t>
+        </is>
+      </c>
+      <c r="D604" t="inlineStr">
+        <is>
+          <t>https://content.ikon.mn/raw/2025/9/8/18193/1._Ikon_copy_2.jpg</t>
+        </is>
+      </c>
+      <c r="E604" t="inlineStr"/>
+      <c r="F604" t="inlineStr"/>
+      <c r="G604" t="inlineStr">
+        <is>
+          <t>1280</t>
+        </is>
+      </c>
+      <c r="H604" t="inlineStr">
+        <is>
+          <t>720</t>
+        </is>
+      </c>
+      <c r="I604" t="inlineStr">
+        <is>
+          <t>duplicate_hash</t>
+        </is>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" t="inlineStr">
+        <is>
+          <t>ikon.mn</t>
+        </is>
+      </c>
+      <c r="B605" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+      <c r="C605" t="inlineStr">
+        <is>
+          <t>https://ikon.mn/ad/IKONMN_B1?1758182897</t>
+        </is>
+      </c>
+      <c r="D605" t="inlineStr">
+        <is>
+          <t>https://content.ikon.mn/raw/2025/9/16/18209/HS_Ikon_560x400.jpg</t>
+        </is>
+      </c>
+      <c r="E605" t="inlineStr"/>
+      <c r="F605" t="inlineStr"/>
+      <c r="G605" t="inlineStr">
+        <is>
+          <t>560</t>
+        </is>
+      </c>
+      <c r="H605" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="I605" t="inlineStr">
+        <is>
+          <t>duplicate_hash</t>
+        </is>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606" t="inlineStr">
+        <is>
+          <t>ikon.mn</t>
+        </is>
+      </c>
+      <c r="B606" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+      <c r="C606" t="inlineStr">
+        <is>
+          <t>https://ikon.mn/ad/IKONMN_B1?1758182897</t>
+        </is>
+      </c>
+      <c r="D606" t="inlineStr">
+        <is>
+          <t>https://content.ikon.mn/raw/2025/9/8/18193/1._Ikon_copy_2.jpg</t>
+        </is>
+      </c>
+      <c r="E606" t="inlineStr"/>
+      <c r="F606" t="inlineStr"/>
+      <c r="G606" t="inlineStr">
+        <is>
+          <t>1280</t>
+        </is>
+      </c>
+      <c r="H606" t="inlineStr">
+        <is>
+          <t>720</t>
+        </is>
+      </c>
+      <c r="I606" t="inlineStr">
+        <is>
+          <t>duplicate_hash</t>
+        </is>
+      </c>
+    </row>
+    <row r="607">
+      <c r="A607" t="inlineStr">
+        <is>
+          <t>ikon.mn</t>
+        </is>
+      </c>
+      <c r="B607" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+      <c r="C607" t="inlineStr">
+        <is>
+          <t>https://ikon.mn/ad/IKONMN_B1?1758182897</t>
+        </is>
+      </c>
+      <c r="D607" t="inlineStr">
+        <is>
+          <t>https://content.ikon.mn/raw/2025/9/16/18209/HS_Ikon_560x400.jpg</t>
+        </is>
+      </c>
+      <c r="E607" t="inlineStr"/>
+      <c r="F607" t="inlineStr"/>
+      <c r="G607" t="inlineStr">
+        <is>
+          <t>560</t>
+        </is>
+      </c>
+      <c r="H607" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="I607" t="inlineStr">
+        <is>
+          <t>duplicate_hash</t>
+        </is>
+      </c>
+    </row>
+    <row r="608">
+      <c r="A608" t="inlineStr">
+        <is>
+          <t>ikon.mn</t>
+        </is>
+      </c>
+      <c r="B608" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+      <c r="C608" t="inlineStr">
+        <is>
+          <t>https://ikon.mn/ad/IKONMN_B1?1758182897</t>
+        </is>
+      </c>
+      <c r="D608" t="inlineStr">
+        <is>
+          <t>https://content.ikon.mn/raw/2025/9/8/18193/1._Ikon_copy_2.jpg</t>
+        </is>
+      </c>
+      <c r="E608" t="inlineStr"/>
+      <c r="F608" t="inlineStr"/>
+      <c r="G608" t="inlineStr">
+        <is>
+          <t>1280</t>
+        </is>
+      </c>
+      <c r="H608" t="inlineStr">
+        <is>
+          <t>720</t>
+        </is>
+      </c>
+      <c r="I608" t="inlineStr">
+        <is>
+          <t>duplicate_hash</t>
+        </is>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" t="inlineStr">
+        <is>
+          <t>ikon.mn</t>
+        </is>
+      </c>
+      <c r="B609" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+      <c r="C609" t="inlineStr">
+        <is>
+          <t>https://ikon.mn/ad/IKONMN_B1?1758182897</t>
+        </is>
+      </c>
+      <c r="D609" t="inlineStr">
+        <is>
+          <t>https://content.ikon.mn/raw/2025/9/16/18209/HS_Ikon_560x400.jpg</t>
+        </is>
+      </c>
+      <c r="E609" t="inlineStr"/>
+      <c r="F609" t="inlineStr"/>
+      <c r="G609" t="inlineStr">
+        <is>
+          <t>560</t>
+        </is>
+      </c>
+      <c r="H609" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="I609" t="inlineStr">
+        <is>
+          <t>duplicate_hash</t>
+        </is>
+      </c>
+    </row>
+    <row r="610">
+      <c r="A610" t="inlineStr">
+        <is>
+          <t>ikon.mn</t>
+        </is>
+      </c>
+      <c r="B610" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+      <c r="C610" t="inlineStr">
+        <is>
+          <t>https://ikon.mn/ad/IKONMN_B1?1758182897</t>
+        </is>
+      </c>
+      <c r="D610" t="inlineStr">
+        <is>
+          <t>https://content.ikon.mn/raw/2025/9/8/18193/1._Ikon_copy_2.jpg</t>
+        </is>
+      </c>
+      <c r="E610" t="inlineStr"/>
+      <c r="F610" t="inlineStr"/>
+      <c r="G610" t="inlineStr">
+        <is>
+          <t>1280</t>
+        </is>
+      </c>
+      <c r="H610" t="inlineStr">
+        <is>
+          <t>720</t>
+        </is>
+      </c>
+      <c r="I610" t="inlineStr">
+        <is>
+          <t>duplicate_hash</t>
+        </is>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611" t="inlineStr">
+        <is>
+          <t>ikon.mn</t>
+        </is>
+      </c>
+      <c r="B611" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+      <c r="C611" t="inlineStr">
+        <is>
+          <t>https://ikon.mn/ad/IKONMN_B1?1758182897</t>
+        </is>
+      </c>
+      <c r="D611" t="inlineStr">
+        <is>
+          <t>https://content.ikon.mn/raw/2025/9/16/18209/HS_Ikon_560x400.jpg</t>
+        </is>
+      </c>
+      <c r="E611" t="inlineStr"/>
+      <c r="F611" t="inlineStr"/>
+      <c r="G611" t="inlineStr">
+        <is>
+          <t>560</t>
+        </is>
+      </c>
+      <c r="H611" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="I611" t="inlineStr">
+        <is>
+          <t>duplicate_hash</t>
+        </is>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612" t="inlineStr">
+        <is>
+          <t>ikon.mn</t>
+        </is>
+      </c>
+      <c r="B612" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+      <c r="C612" t="inlineStr">
+        <is>
+          <t>https://ikon.mn/ad/IKONMN_B1?1758182897</t>
+        </is>
+      </c>
+      <c r="D612" t="inlineStr">
+        <is>
+          <t>https://content.ikon.mn/raw/2025/9/8/18193/1._Ikon_copy_2.jpg</t>
+        </is>
+      </c>
+      <c r="E612" t="inlineStr"/>
+      <c r="F612" t="inlineStr"/>
+      <c r="G612" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H612" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I612" t="inlineStr">
+        <is>
+          <t>duplicate_hash</t>
+        </is>
+      </c>
+    </row>
+    <row r="613">
+      <c r="A613" t="inlineStr">
+        <is>
+          <t>ikon.mn</t>
+        </is>
+      </c>
+      <c r="B613" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+      <c r="C613" t="inlineStr">
+        <is>
+          <t>https://ikon.mn/ad/IKONMN_B1?1758182897</t>
+        </is>
+      </c>
+      <c r="D613" t="inlineStr">
+        <is>
+          <t>https://content.ikon.mn/raw/2025/9/16/18209/HS_Ikon_560x400.jpg</t>
+        </is>
+      </c>
+      <c r="E613" t="inlineStr"/>
+      <c r="F613" t="inlineStr"/>
+      <c r="G613" t="inlineStr">
+        <is>
+          <t>560</t>
+        </is>
+      </c>
+      <c r="H613" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="I613" t="inlineStr">
+        <is>
+          <t>duplicate_hash</t>
+        </is>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614" t="inlineStr">
+        <is>
+          <t>ikon.mn</t>
+        </is>
+      </c>
+      <c r="B614" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+      <c r="C614" t="inlineStr">
+        <is>
+          <t>https://ikon.mn/ad/IKONMN_B1?1758182897</t>
+        </is>
+      </c>
+      <c r="D614" t="inlineStr">
+        <is>
+          <t>https://content.ikon.mn/raw/2025/9/8/18193/1._Ikon_copy_2.jpg</t>
+        </is>
+      </c>
+      <c r="E614" t="inlineStr"/>
+      <c r="F614" t="inlineStr"/>
+      <c r="G614" t="inlineStr">
+        <is>
+          <t>1280</t>
+        </is>
+      </c>
+      <c r="H614" t="inlineStr">
+        <is>
+          <t>720</t>
+        </is>
+      </c>
+      <c r="I614" t="inlineStr">
+        <is>
+          <t>duplicate_hash</t>
+        </is>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" t="inlineStr">
+        <is>
+          <t>ikon.mn</t>
+        </is>
+      </c>
+      <c r="B615" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+      <c r="C615" t="inlineStr">
+        <is>
+          <t>https://ikon.mn/ad/IKONMN_B1?1758182897</t>
+        </is>
+      </c>
+      <c r="D615" t="inlineStr">
+        <is>
+          <t>data:image/gif;base64,R0lGODlhAQABAAAAACwAAAAAAQABAAA=</t>
+        </is>
+      </c>
+      <c r="E615" t="inlineStr"/>
+      <c r="F615" t="inlineStr"/>
+      <c r="G615" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H615" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I615" t="inlineStr">
+        <is>
+          <t>download_timeout</t>
+        </is>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" t="inlineStr">
+        <is>
+          <t>ikon.mn</t>
+        </is>
+      </c>
+      <c r="B616" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+      <c r="C616" t="inlineStr">
+        <is>
+          <t>https://ikon.mn/ad/IKONMN_B1?1758182897</t>
+        </is>
+      </c>
+      <c r="D616" t="inlineStr">
+        <is>
+          <t>https://content.ikon.mn/raw/2025/9/8/18193/1._Ikon_copy_2.jpg</t>
+        </is>
+      </c>
+      <c r="E616" t="inlineStr"/>
+      <c r="F616" t="inlineStr"/>
+      <c r="G616" t="inlineStr">
+        <is>
+          <t>1280</t>
+        </is>
+      </c>
+      <c r="H616" t="inlineStr">
+        <is>
+          <t>720</t>
+        </is>
+      </c>
+      <c r="I616" t="inlineStr">
+        <is>
+          <t>duplicate_hash</t>
+        </is>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" t="inlineStr">
+        <is>
+          <t>ikon.mn</t>
+        </is>
+      </c>
+      <c r="B617" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+      <c r="C617" t="inlineStr">
+        <is>
+          <t>https://ikon.mn/ad/IKONMN_B1?1758182897</t>
+        </is>
+      </c>
+      <c r="D617" t="inlineStr">
+        <is>
+          <t>data:image/gif;base64,R0lGODlhAQABAAAAACwAAAAAAQABAAA=</t>
+        </is>
+      </c>
+      <c r="E617" t="inlineStr"/>
+      <c r="F617" t="inlineStr"/>
+      <c r="G617" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H617" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I617" t="inlineStr">
+        <is>
+          <t>download_timeout</t>
+        </is>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" t="inlineStr">
+        <is>
+          <t>ikon.mn</t>
+        </is>
+      </c>
+      <c r="B618" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+      <c r="C618" t="inlineStr">
+        <is>
+          <t>https://ikon.mn/ad/IKONMN_B1?1758182897</t>
+        </is>
+      </c>
+      <c r="D618" t="inlineStr">
+        <is>
+          <t>https://content.ikon.mn/raw/2025/9/8/18193/1._Ikon_copy_2.jpg</t>
+        </is>
+      </c>
+      <c r="E618" t="inlineStr"/>
+      <c r="F618" t="inlineStr"/>
+      <c r="G618" t="inlineStr">
+        <is>
+          <t>1280</t>
+        </is>
+      </c>
+      <c r="H618" t="inlineStr">
+        <is>
+          <t>720</t>
+        </is>
+      </c>
+      <c r="I618" t="inlineStr">
+        <is>
+          <t>duplicate_hash</t>
+        </is>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" t="inlineStr">
+        <is>
+          <t>ikon.mn</t>
+        </is>
+      </c>
+      <c r="B619" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+      <c r="C619" t="inlineStr">
+        <is>
+          <t>https://ikon.mn/ad/IKONMN_B1?1758182897</t>
+        </is>
+      </c>
+      <c r="D619" t="inlineStr">
+        <is>
+          <t>data:image/gif;base64,R0lGODlhAQABAAAAACwAAAAAAQABAAA=</t>
+        </is>
+      </c>
+      <c r="E619" t="inlineStr"/>
+      <c r="F619" t="inlineStr"/>
+      <c r="G619" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H619" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I619" t="inlineStr">
+        <is>
+          <t>download_timeout</t>
+        </is>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" t="inlineStr">
+        <is>
+          <t>ikon.mn</t>
+        </is>
+      </c>
+      <c r="B620" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+      <c r="C620" t="inlineStr">
+        <is>
+          <t>https://ikon.mn/ad/IKONMN_B1?1758182897</t>
+        </is>
+      </c>
+      <c r="D620" t="inlineStr">
+        <is>
+          <t>https://content.ikon.mn/raw/2025/9/8/18193/1._Ikon_copy_2.jpg</t>
+        </is>
+      </c>
+      <c r="E620" t="inlineStr"/>
+      <c r="F620" t="inlineStr"/>
+      <c r="G620" t="inlineStr">
+        <is>
+          <t>1280</t>
+        </is>
+      </c>
+      <c r="H620" t="inlineStr">
+        <is>
+          <t>720</t>
+        </is>
+      </c>
+      <c r="I620" t="inlineStr">
+        <is>
+          <t>duplicate_hash</t>
+        </is>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" t="inlineStr">
+        <is>
+          <t>ikon.mn</t>
+        </is>
+      </c>
+      <c r="B621" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+      <c r="C621" t="inlineStr">
+        <is>
+          <t>https://ikon.mn/ad/IKONMN_B1?1758182897</t>
+        </is>
+      </c>
+      <c r="D621" t="inlineStr">
+        <is>
+          <t>data:image/gif;base64,R0lGODlhAQABAAAAACwAAAAAAQABAAA=</t>
+        </is>
+      </c>
+      <c r="E621" t="inlineStr"/>
+      <c r="F621" t="inlineStr"/>
+      <c r="G621" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H621" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I621" t="inlineStr">
+        <is>
+          <t>download_timeout</t>
+        </is>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" t="inlineStr">
+        <is>
+          <t>ikon.mn</t>
+        </is>
+      </c>
+      <c r="B622" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+      <c r="C622" t="inlineStr">
+        <is>
+          <t>https://ikon.mn/ad/IKONMN_B1?1758182897</t>
+        </is>
+      </c>
+      <c r="D622" t="inlineStr">
+        <is>
+          <t>https://content.ikon.mn/raw/2025/9/8/18193/1._Ikon_copy_2.jpg</t>
+        </is>
+      </c>
+      <c r="E622" t="inlineStr"/>
+      <c r="F622" t="inlineStr"/>
+      <c r="G622" t="inlineStr">
+        <is>
+          <t>1280</t>
+        </is>
+      </c>
+      <c r="H622" t="inlineStr">
+        <is>
+          <t>720</t>
+        </is>
+      </c>
+      <c r="I622" t="inlineStr">
+        <is>
+          <t>duplicate_hash</t>
+        </is>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" t="inlineStr">
+        <is>
+          <t>ikon.mn</t>
+        </is>
+      </c>
+      <c r="B623" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+      <c r="C623" t="inlineStr">
+        <is>
+          <t>https://ikon.mn/ad/IKONMN_B1?1758182897</t>
+        </is>
+      </c>
+      <c r="D623" t="inlineStr">
+        <is>
+          <t>data:image/gif;base64,R0lGODlhAQABAAAAACwAAAAAAQABAAA=</t>
+        </is>
+      </c>
+      <c r="E623" t="inlineStr"/>
+      <c r="F623" t="inlineStr"/>
+      <c r="G623" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H623" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I623" t="inlineStr">
+        <is>
+          <t>download_timeout</t>
+        </is>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624" t="inlineStr">
+        <is>
+          <t>ikon.mn</t>
+        </is>
+      </c>
+      <c r="B624" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+      <c r="C624" t="inlineStr">
+        <is>
+          <t>https://ikon.mn/ad/IKONMN_B1?1758182897</t>
+        </is>
+      </c>
+      <c r="D624" t="inlineStr">
+        <is>
+          <t>https://content.ikon.mn/raw/2025/9/8/18193/1._Ikon_copy_2.jpg</t>
+        </is>
+      </c>
+      <c r="E624" t="inlineStr"/>
+      <c r="F624" t="inlineStr"/>
+      <c r="G624" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H624" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I624" t="inlineStr">
+        <is>
+          <t>duplicate_hash</t>
+        </is>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" t="inlineStr">
+        <is>
+          <t>ikon.mn</t>
+        </is>
+      </c>
+      <c r="B625" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+      <c r="C625" t="inlineStr">
+        <is>
+          <t>https://ikon.mn/ad/IKONMN_B1?1758182897</t>
+        </is>
+      </c>
+      <c r="D625" t="inlineStr">
+        <is>
+          <t>https://content.ikon.mn/raw/2025/9/16/18209/HS_Ikon_560x400.jpg</t>
+        </is>
+      </c>
+      <c r="E625" t="inlineStr"/>
+      <c r="F625" t="inlineStr"/>
+      <c r="G625" t="inlineStr">
+        <is>
+          <t>560</t>
+        </is>
+      </c>
+      <c r="H625" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="I625" t="inlineStr">
+        <is>
+          <t>duplicate_hash</t>
+        </is>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626" t="inlineStr">
+        <is>
+          <t>ikon.mn</t>
+        </is>
+      </c>
+      <c r="B626" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+      <c r="C626" t="inlineStr">
+        <is>
+          <t>https://ikon.mn/ad/IKONMN_B1?1758182897</t>
+        </is>
+      </c>
+      <c r="D626" t="inlineStr">
+        <is>
+          <t>https://content.ikon.mn/raw/2025/9/8/18193/1._Ikon_copy_2.jpg</t>
+        </is>
+      </c>
+      <c r="E626" t="inlineStr"/>
+      <c r="F626" t="inlineStr"/>
+      <c r="G626" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H626" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I626" t="inlineStr">
+        <is>
+          <t>duplicate_hash</t>
+        </is>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" t="inlineStr">
+        <is>
+          <t>ikon.mn</t>
+        </is>
+      </c>
+      <c r="B627" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+      <c r="C627" t="inlineStr">
+        <is>
+          <t>https://ikon.mn/ad/IKONMN_B1?1758182897</t>
+        </is>
+      </c>
+      <c r="D627" t="inlineStr">
+        <is>
+          <t>https://content.ikon.mn/raw/2025/9/16/18209/HS_Ikon_560x400.jpg</t>
+        </is>
+      </c>
+      <c r="E627" t="inlineStr"/>
+      <c r="F627" t="inlineStr"/>
+      <c r="G627" t="inlineStr">
+        <is>
+          <t>560</t>
+        </is>
+      </c>
+      <c r="H627" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="I627" t="inlineStr">
+        <is>
+          <t>duplicate_hash</t>
+        </is>
+      </c>
+    </row>
+    <row r="628">
+      <c r="A628" t="inlineStr">
+        <is>
+          <t>ikon.mn</t>
+        </is>
+      </c>
+      <c r="B628" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+      <c r="C628" t="inlineStr">
+        <is>
+          <t>https://ikon.mn/ad/IKONMN_B1?1758182897</t>
+        </is>
+      </c>
+      <c r="D628" t="inlineStr">
+        <is>
+          <t>https://content.ikon.mn/raw/2025/9/8/18193/1._Ikon_copy_2.jpg</t>
+        </is>
+      </c>
+      <c r="E628" t="inlineStr"/>
+      <c r="F628" t="inlineStr"/>
+      <c r="G628" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H628" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I628" t="inlineStr">
+        <is>
+          <t>duplicate_hash</t>
+        </is>
+      </c>
+    </row>
+    <row r="629">
+      <c r="A629" t="inlineStr">
+        <is>
+          <t>ikon.mn</t>
+        </is>
+      </c>
+      <c r="B629" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+      <c r="C629" t="inlineStr">
+        <is>
+          <t>https://ikon.mn/ad/IKONMN_B1?1758182897</t>
+        </is>
+      </c>
+      <c r="D629" t="inlineStr">
+        <is>
+          <t>https://content.ikon.mn/raw/2025/9/16/18209/HS_Ikon_560x400.jpg</t>
+        </is>
+      </c>
+      <c r="E629" t="inlineStr"/>
+      <c r="F629" t="inlineStr"/>
+      <c r="G629" t="inlineStr">
+        <is>
+          <t>560</t>
+        </is>
+      </c>
+      <c r="H629" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="I629" t="inlineStr">
+        <is>
+          <t>duplicate_hash</t>
+        </is>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630" t="inlineStr">
+        <is>
+          <t>ikon.mn</t>
+        </is>
+      </c>
+      <c r="B630" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+      <c r="C630" t="inlineStr">
+        <is>
+          <t>https://ikon.mn/ad/IKONMN_B1?1758182897</t>
+        </is>
+      </c>
+      <c r="D630" t="inlineStr">
+        <is>
+          <t>https://content.ikon.mn/raw/2025/9/8/18193/1._Ikon_copy_2.jpg</t>
+        </is>
+      </c>
+      <c r="E630" t="inlineStr"/>
+      <c r="F630" t="inlineStr"/>
+      <c r="G630" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H630" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I630" t="inlineStr">
+        <is>
+          <t>duplicate_hash</t>
+        </is>
+      </c>
+    </row>
+    <row r="631">
+      <c r="A631" t="inlineStr">
+        <is>
+          <t>ikon.mn</t>
+        </is>
+      </c>
+      <c r="B631" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+      <c r="C631" t="inlineStr">
+        <is>
+          <t>https://ikon.mn/ad/IKONMN_B1?1758182897</t>
+        </is>
+      </c>
+      <c r="D631" t="inlineStr">
+        <is>
+          <t>https://content.ikon.mn/raw/2025/9/16/18209/HS_Ikon_560x400.jpg</t>
+        </is>
+      </c>
+      <c r="E631" t="inlineStr"/>
+      <c r="F631" t="inlineStr"/>
+      <c r="G631" t="inlineStr">
+        <is>
+          <t>560</t>
+        </is>
+      </c>
+      <c r="H631" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="I631" t="inlineStr">
+        <is>
+          <t>duplicate_hash</t>
+        </is>
+      </c>
+    </row>
+    <row r="632">
+      <c r="A632" t="inlineStr">
+        <is>
+          <t>ikon.mn</t>
+        </is>
+      </c>
+      <c r="B632" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+      <c r="C632" t="inlineStr">
+        <is>
+          <t>https://ikon.mn/ad/IKONMN_B1?1758182897</t>
+        </is>
+      </c>
+      <c r="D632" t="inlineStr">
+        <is>
+          <t>https://content.ikon.mn/raw/2025/9/8/18193/1._Ikon_copy_2.jpg</t>
+        </is>
+      </c>
+      <c r="E632" t="inlineStr"/>
+      <c r="F632" t="inlineStr"/>
+      <c r="G632" t="inlineStr">
+        <is>
+          <t>1280</t>
+        </is>
+      </c>
+      <c r="H632" t="inlineStr">
+        <is>
+          <t>720</t>
+        </is>
+      </c>
+      <c r="I632" t="inlineStr">
+        <is>
+          <t>duplicate_hash</t>
+        </is>
+      </c>
+    </row>
+    <row r="633">
+      <c r="A633" t="inlineStr">
+        <is>
+          <t>ikon.mn</t>
+        </is>
+      </c>
+      <c r="B633" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+      <c r="C633" t="inlineStr">
+        <is>
+          <t>https://ikon.mn/ad/IKONMN_B1?1758182897</t>
+        </is>
+      </c>
+      <c r="D633" t="inlineStr">
+        <is>
+          <t>https://content.ikon.mn/raw/2025/9/16/18209/HS_Ikon_560x400.jpg</t>
+        </is>
+      </c>
+      <c r="E633" t="inlineStr"/>
+      <c r="F633" t="inlineStr"/>
+      <c r="G633" t="inlineStr">
+        <is>
+          <t>560</t>
+        </is>
+      </c>
+      <c r="H633" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="I633" t="inlineStr">
+        <is>
+          <t>duplicate_hash</t>
+        </is>
+      </c>
+    </row>
+    <row r="634">
+      <c r="A634" t="inlineStr">
+        <is>
+          <t>ikon.mn</t>
+        </is>
+      </c>
+      <c r="B634" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+      <c r="C634" t="inlineStr">
+        <is>
+          <t>https://ikon.mn/ad/IKONMN_B1?1758182897</t>
+        </is>
+      </c>
+      <c r="D634" t="inlineStr">
+        <is>
+          <t>data:image/gif;base64,R0lGODlhAQABAAAAACwAAAAAAQABAAA=</t>
+        </is>
+      </c>
+      <c r="E634" t="inlineStr"/>
+      <c r="F634" t="inlineStr"/>
+      <c r="G634" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H634" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I634" t="inlineStr">
+        <is>
+          <t>download_timeout</t>
+        </is>
+      </c>
+    </row>
+    <row r="635">
+      <c r="A635" t="inlineStr">
+        <is>
+          <t>ikon.mn</t>
+        </is>
+      </c>
+      <c r="B635" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+      <c r="C635" t="inlineStr">
+        <is>
+          <t>https://ikon.mn/ad/IKONMN_B1?1758182897</t>
+        </is>
+      </c>
+      <c r="D635" t="inlineStr">
+        <is>
+          <t>https://content.ikon.mn/raw/2025/9/16/18209/HS_Ikon_560x400.jpg</t>
+        </is>
+      </c>
+      <c r="E635" t="inlineStr"/>
+      <c r="F635" t="inlineStr"/>
+      <c r="G635" t="inlineStr">
+        <is>
+          <t>560</t>
+        </is>
+      </c>
+      <c r="H635" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="I635" t="inlineStr">
+        <is>
+          <t>duplicate_hash</t>
+        </is>
+      </c>
+    </row>
+    <row r="636">
+      <c r="A636" t="inlineStr">
+        <is>
+          <t>ikon.mn</t>
+        </is>
+      </c>
+      <c r="B636" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+      <c r="C636" t="inlineStr">
+        <is>
+          <t>https://ikon.mn/ad/IKONMN_B1?1758182897</t>
+        </is>
+      </c>
+      <c r="D636" t="inlineStr">
+        <is>
+          <t>data:image/gif;base64,R0lGODlhAQABAAAAACwAAAAAAQABAAA=</t>
+        </is>
+      </c>
+      <c r="E636" t="inlineStr"/>
+      <c r="F636" t="inlineStr"/>
+      <c r="G636" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H636" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I636" t="inlineStr">
+        <is>
+          <t>download_timeout</t>
+        </is>
+      </c>
+    </row>
+    <row r="637">
+      <c r="A637" t="inlineStr">
+        <is>
+          <t>ikon.mn</t>
+        </is>
+      </c>
+      <c r="B637" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+      <c r="C637" t="inlineStr">
+        <is>
+          <t>https://ikon.mn/ad/IKONMN_B1?1758182897</t>
+        </is>
+      </c>
+      <c r="D637" t="inlineStr">
+        <is>
+          <t>https://content.ikon.mn/raw/2025/9/16/18209/HS_Ikon_560x400.jpg</t>
+        </is>
+      </c>
+      <c r="E637" t="inlineStr"/>
+      <c r="F637" t="inlineStr"/>
+      <c r="G637" t="inlineStr">
+        <is>
+          <t>560</t>
+        </is>
+      </c>
+      <c r="H637" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="I637" t="inlineStr">
+        <is>
+          <t>duplicate_hash</t>
+        </is>
+      </c>
+    </row>
+    <row r="638">
+      <c r="A638" t="inlineStr">
+        <is>
+          <t>ikon.mn</t>
+        </is>
+      </c>
+      <c r="B638" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+      <c r="C638" t="inlineStr">
+        <is>
+          <t>https://ikon.mn/ad/IKONMN_B1?1758182897</t>
+        </is>
+      </c>
+      <c r="D638" t="inlineStr">
+        <is>
+          <t>data:image/gif;base64,R0lGODlhAQABAAAAACwAAAAAAQABAAA=</t>
+        </is>
+      </c>
+      <c r="E638" t="inlineStr"/>
+      <c r="F638" t="inlineStr"/>
+      <c r="G638" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H638" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I638" t="inlineStr">
+        <is>
+          <t>download_timeout</t>
+        </is>
+      </c>
+    </row>
+    <row r="639">
+      <c r="A639" t="inlineStr">
+        <is>
+          <t>ikon.mn</t>
+        </is>
+      </c>
+      <c r="B639" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+      <c r="C639" t="inlineStr">
+        <is>
+          <t>https://ikon.mn/ad/IKONMN_B1?1758182897</t>
+        </is>
+      </c>
+      <c r="D639" t="inlineStr">
+        <is>
+          <t>https://content.ikon.mn/raw/2025/9/16/18209/HS_Ikon_560x400.jpg</t>
+        </is>
+      </c>
+      <c r="E639" t="inlineStr"/>
+      <c r="F639" t="inlineStr"/>
+      <c r="G639" t="inlineStr">
+        <is>
+          <t>560</t>
+        </is>
+      </c>
+      <c r="H639" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="I639" t="inlineStr">
+        <is>
+          <t>duplicate_hash</t>
+        </is>
+      </c>
+    </row>
+    <row r="640">
+      <c r="A640" t="inlineStr">
+        <is>
+          <t>ikon.mn</t>
+        </is>
+      </c>
+      <c r="B640" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+      <c r="C640" t="inlineStr">
+        <is>
+          <t>https://ikon.mn/ad/IKONMN_B1?1758182897</t>
+        </is>
+      </c>
+      <c r="D640" t="inlineStr">
+        <is>
+          <t>data:image/gif;base64,R0lGODlhAQABAAAAACwAAAAAAQABAAA=</t>
+        </is>
+      </c>
+      <c r="E640" t="inlineStr"/>
+      <c r="F640" t="inlineStr"/>
+      <c r="G640" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H640" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I640" t="inlineStr">
+        <is>
+          <t>download_timeout</t>
+        </is>
+      </c>
+    </row>
+    <row r="641">
+      <c r="A641" t="inlineStr">
+        <is>
+          <t>ikon.mn</t>
+        </is>
+      </c>
+      <c r="B641" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+      <c r="C641" t="inlineStr">
+        <is>
+          <t>https://ikon.mn/ad/IKONMN_B1?1758182897</t>
+        </is>
+      </c>
+      <c r="D641" t="inlineStr">
+        <is>
+          <t>https://content.ikon.mn/raw/2025/9/16/18209/HS_Ikon_560x400.jpg</t>
+        </is>
+      </c>
+      <c r="E641" t="inlineStr"/>
+      <c r="F641" t="inlineStr"/>
+      <c r="G641" t="inlineStr">
+        <is>
+          <t>560</t>
+        </is>
+      </c>
+      <c r="H641" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="I641" t="inlineStr">
+        <is>
+          <t>duplicate_hash</t>
+        </is>
+      </c>
+    </row>
+    <row r="642">
+      <c r="A642" t="inlineStr">
+        <is>
+          <t>ikon.mn</t>
+        </is>
+      </c>
+      <c r="B642" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+      <c r="C642" t="inlineStr">
+        <is>
+          <t>https://ikon.mn/ad/IKONMN_B1?1758182897</t>
+        </is>
+      </c>
+      <c r="D642" t="inlineStr">
+        <is>
+          <t>data:image/gif;base64,R0lGODlhAQABAAAAACwAAAAAAQABAAA=</t>
+        </is>
+      </c>
+      <c r="E642" t="inlineStr"/>
+      <c r="F642" t="inlineStr"/>
+      <c r="G642" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H642" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I642" t="inlineStr">
+        <is>
+          <t>download_timeout</t>
+        </is>
+      </c>
+    </row>
+    <row r="643">
+      <c r="A643" t="inlineStr">
+        <is>
+          <t>ikon.mn</t>
+        </is>
+      </c>
+      <c r="B643" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+      <c r="C643" t="inlineStr">
+        <is>
+          <t>https://ikon.mn/ad/IKONMN_B1?1758182897</t>
+        </is>
+      </c>
+      <c r="D643" t="inlineStr">
+        <is>
+          <t>https://content.ikon.mn/raw/2025/9/16/18209/HS_Ikon_560x400.jpg</t>
+        </is>
+      </c>
+      <c r="E643" t="inlineStr"/>
+      <c r="F643" t="inlineStr"/>
+      <c r="G643" t="inlineStr">
+        <is>
+          <t>560</t>
+        </is>
+      </c>
+      <c r="H643" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="I643" t="inlineStr">
+        <is>
+          <t>duplicate_hash</t>
+        </is>
+      </c>
+    </row>
+    <row r="644">
+      <c r="A644" t="inlineStr">
+        <is>
+          <t>ikon.mn</t>
+        </is>
+      </c>
+      <c r="B644" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+      <c r="C644" t="inlineStr">
+        <is>
+          <t>https://ikon.mn/ad/IKONMN_B1?1758182897</t>
+        </is>
+      </c>
+      <c r="D644" t="inlineStr">
+        <is>
+          <t>https://content.ikon.mn/raw/2025/9/8/18193/1._Ikon_copy_2.jpg</t>
+        </is>
+      </c>
+      <c r="E644" t="inlineStr"/>
+      <c r="F644" t="inlineStr"/>
+      <c r="G644" t="inlineStr">
+        <is>
+          <t>1280</t>
+        </is>
+      </c>
+      <c r="H644" t="inlineStr">
+        <is>
+          <t>720</t>
+        </is>
+      </c>
+      <c r="I644" t="inlineStr">
+        <is>
+          <t>duplicate_hash</t>
+        </is>
+      </c>
+    </row>
+    <row r="645">
+      <c r="A645" t="inlineStr">
+        <is>
+          <t>ikon.mn</t>
+        </is>
+      </c>
+      <c r="B645" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+      <c r="C645" t="inlineStr">
+        <is>
+          <t>https://ikon.mn/ad/IKONMN_B1?1758182897</t>
+        </is>
+      </c>
+      <c r="D645" t="inlineStr">
+        <is>
+          <t>https://content.ikon.mn/raw/2025/9/16/18209/HS_Ikon_560x400.jpg</t>
+        </is>
+      </c>
+      <c r="E645" t="inlineStr"/>
+      <c r="F645" t="inlineStr"/>
+      <c r="G645" t="inlineStr">
+        <is>
+          <t>560</t>
+        </is>
+      </c>
+      <c r="H645" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="I645" t="inlineStr">
+        <is>
+          <t>duplicate_hash</t>
+        </is>
+      </c>
+    </row>
+    <row r="646">
+      <c r="A646" t="inlineStr">
+        <is>
+          <t>ikon.mn</t>
+        </is>
+      </c>
+      <c r="B646" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+      <c r="C646" t="inlineStr">
+        <is>
+          <t>https://ikon.mn/ad/IKONMN_B1?1758182897</t>
+        </is>
+      </c>
+      <c r="D646" t="inlineStr">
+        <is>
+          <t>https://content.ikon.mn/raw/2025/9/8/18193/1._Ikon_copy_2.jpg</t>
+        </is>
+      </c>
+      <c r="E646" t="inlineStr"/>
+      <c r="F646" t="inlineStr"/>
+      <c r="G646" t="inlineStr">
+        <is>
+          <t>1280</t>
+        </is>
+      </c>
+      <c r="H646" t="inlineStr">
+        <is>
+          <t>720</t>
+        </is>
+      </c>
+      <c r="I646" t="inlineStr">
+        <is>
+          <t>duplicate_hash</t>
+        </is>
+      </c>
+    </row>
+    <row r="647">
+      <c r="A647" t="inlineStr">
+        <is>
+          <t>ikon.mn</t>
+        </is>
+      </c>
+      <c r="B647" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+      <c r="C647" t="inlineStr">
+        <is>
+          <t>https://ikon.mn/ad/IKONMN_B1?1758182897</t>
+        </is>
+      </c>
+      <c r="D647" t="inlineStr">
+        <is>
+          <t>https://content.ikon.mn/raw/2025/9/16/18209/HS_Ikon_560x400.jpg</t>
+        </is>
+      </c>
+      <c r="E647" t="inlineStr"/>
+      <c r="F647" t="inlineStr"/>
+      <c r="G647" t="inlineStr">
+        <is>
+          <t>560</t>
+        </is>
+      </c>
+      <c r="H647" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="I647" t="inlineStr">
+        <is>
+          <t>duplicate_hash</t>
+        </is>
+      </c>
+    </row>
+    <row r="648">
+      <c r="A648" t="inlineStr">
+        <is>
+          <t>ikon.mn</t>
+        </is>
+      </c>
+      <c r="B648" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+      <c r="C648" t="inlineStr">
+        <is>
+          <t>https://ikon.mn/ad/IKONMN_B1?1758182897</t>
+        </is>
+      </c>
+      <c r="D648" t="inlineStr">
+        <is>
+          <t>https://content.ikon.mn/raw/2025/9/8/18193/1._Ikon_copy_2.jpg</t>
+        </is>
+      </c>
+      <c r="E648" t="inlineStr"/>
+      <c r="F648" t="inlineStr"/>
+      <c r="G648" t="inlineStr">
+        <is>
+          <t>1280</t>
+        </is>
+      </c>
+      <c r="H648" t="inlineStr">
+        <is>
+          <t>720</t>
+        </is>
+      </c>
+      <c r="I648" t="inlineStr">
+        <is>
+          <t>duplicate_hash</t>
+        </is>
+      </c>
+    </row>
+    <row r="649">
+      <c r="A649" t="inlineStr">
+        <is>
+          <t>ikon.mn</t>
+        </is>
+      </c>
+      <c r="B649" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+      <c r="C649" t="inlineStr">
+        <is>
+          <t>https://ikon.mn/ad/IKONMN_B1?1758182897</t>
+        </is>
+      </c>
+      <c r="D649" t="inlineStr">
+        <is>
+          <t>https://content.ikon.mn/raw/2025/9/16/18209/HS_Ikon_560x400.jpg</t>
+        </is>
+      </c>
+      <c r="E649" t="inlineStr"/>
+      <c r="F649" t="inlineStr"/>
+      <c r="G649" t="inlineStr">
+        <is>
+          <t>560</t>
+        </is>
+      </c>
+      <c r="H649" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="I649" t="inlineStr">
+        <is>
+          <t>duplicate_hash</t>
+        </is>
+      </c>
+    </row>
+    <row r="650">
+      <c r="A650" t="inlineStr">
+        <is>
+          <t>ikon.mn</t>
+        </is>
+      </c>
+      <c r="B650" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+      <c r="C650" t="inlineStr">
+        <is>
+          <t>https://ikon.mn/ad/IKONMN_B1?1758182897</t>
+        </is>
+      </c>
+      <c r="D650" t="inlineStr">
+        <is>
+          <t>https://content.ikon.mn/raw/2025/9/8/18193/1._Ikon_copy_2.jpg</t>
+        </is>
+      </c>
+      <c r="E650" t="inlineStr"/>
+      <c r="F650" t="inlineStr"/>
+      <c r="G650" t="inlineStr">
+        <is>
+          <t>1280</t>
+        </is>
+      </c>
+      <c r="H650" t="inlineStr">
+        <is>
+          <t>720</t>
+        </is>
+      </c>
+      <c r="I650" t="inlineStr">
+        <is>
+          <t>duplicate_hash</t>
+        </is>
+      </c>
+    </row>
+    <row r="651">
+      <c r="A651" t="inlineStr">
+        <is>
+          <t>ikon.mn</t>
+        </is>
+      </c>
+      <c r="B651" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+      <c r="C651" t="inlineStr">
+        <is>
+          <t>https://ikon.mn/ad/IKONMN_B1?1758182897</t>
+        </is>
+      </c>
+      <c r="D651" t="inlineStr">
+        <is>
+          <t>https://content.ikon.mn/raw/2025/9/16/18209/HS_Ikon_560x400.jpg</t>
+        </is>
+      </c>
+      <c r="E651" t="inlineStr"/>
+      <c r="F651" t="inlineStr"/>
+      <c r="G651" t="inlineStr">
+        <is>
+          <t>560</t>
+        </is>
+      </c>
+      <c r="H651" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="I651" t="inlineStr">
+        <is>
+          <t>duplicate_hash</t>
+        </is>
+      </c>
+    </row>
+    <row r="652">
+      <c r="A652" t="inlineStr">
+        <is>
+          <t>ikon.mn</t>
+        </is>
+      </c>
+      <c r="B652" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+      <c r="C652" t="inlineStr">
+        <is>
+          <t>https://ikon.mn/ad/IKONMN_B1?1758182897</t>
+        </is>
+      </c>
+      <c r="D652" t="inlineStr">
+        <is>
+          <t>https://content.ikon.mn/raw/2025/9/8/18193/1._Ikon_copy_2.jpg</t>
+        </is>
+      </c>
+      <c r="E652" t="inlineStr"/>
+      <c r="F652" t="inlineStr"/>
+      <c r="G652" t="inlineStr">
+        <is>
+          <t>1280</t>
+        </is>
+      </c>
+      <c r="H652" t="inlineStr">
+        <is>
+          <t>720</t>
+        </is>
+      </c>
+      <c r="I652" t="inlineStr">
+        <is>
+          <t>duplicate_hash</t>
+        </is>
+      </c>
+    </row>
+    <row r="653">
+      <c r="A653" t="inlineStr">
+        <is>
+          <t>ikon.mn</t>
+        </is>
+      </c>
+      <c r="B653" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+      <c r="C653" t="inlineStr">
+        <is>
+          <t>https://ikon.mn/ad/IKONMN_B1?1758182897</t>
+        </is>
+      </c>
+      <c r="D653" t="inlineStr">
+        <is>
+          <t>https://content.ikon.mn/raw/2025/9/16/18209/HS_Ikon_560x400.jpg</t>
+        </is>
+      </c>
+      <c r="E653" t="inlineStr"/>
+      <c r="F653" t="inlineStr"/>
+      <c r="G653" t="inlineStr">
+        <is>
+          <t>560</t>
+        </is>
+      </c>
+      <c r="H653" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="I653" t="inlineStr">
+        <is>
+          <t>duplicate_hash</t>
+        </is>
+      </c>
+    </row>
+    <row r="654">
+      <c r="A654" t="inlineStr">
+        <is>
+          <t>ikon.mn</t>
+        </is>
+      </c>
+      <c r="B654" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+      <c r="C654" t="inlineStr">
+        <is>
+          <t>https://ikon.mn/ad/IKONMN_B2?1758183075</t>
+        </is>
+      </c>
+      <c r="D654" t="inlineStr">
+        <is>
+          <t>https://content.ikon.mn/raw/2025/9/17/18218/ikon.mn_-_560x400.png</t>
+        </is>
+      </c>
+      <c r="E654" t="inlineStr">
+        <is>
+          <t>https://www.golomtbank.com/news/49942</t>
+        </is>
+      </c>
+      <c r="F654" s="1" t="inlineStr">
+        <is>
+          <t>ikon.mn/2025-09-18/ikon_banner_1758183397_bfca16df08.png</t>
+        </is>
+      </c>
+      <c r="G654" t="inlineStr">
+        <is>
+          <t>560</t>
+        </is>
+      </c>
+      <c r="H654" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="I654" t="inlineStr"/>
+    </row>
+    <row r="655">
+      <c r="A655" t="inlineStr">
+        <is>
+          <t>ikon.mn</t>
+        </is>
+      </c>
+      <c r="B655" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+      <c r="C655" t="inlineStr">
+        <is>
+          <t>https://ikon.mn/ad/IKONMN_B2?1758183075</t>
+        </is>
+      </c>
+      <c r="D655" t="inlineStr">
+        <is>
+          <t>https://content.ikon.mn/raw/2025/9/17/18218/ikon.mn_-_560x400.png</t>
+        </is>
+      </c>
+      <c r="E655" t="inlineStr"/>
+      <c r="F655" t="inlineStr"/>
+      <c r="G655" t="inlineStr">
+        <is>
+          <t>560</t>
+        </is>
+      </c>
+      <c r="H655" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="I655" t="inlineStr">
+        <is>
+          <t>duplicate_hash</t>
+        </is>
+      </c>
+    </row>
+    <row r="656">
+      <c r="A656" t="inlineStr">
+        <is>
+          <t>ikon.mn</t>
+        </is>
+      </c>
+      <c r="B656" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+      <c r="C656" t="inlineStr">
+        <is>
+          <t>https://ikon.mn/ad/IKONMN_B2?1758183075</t>
+        </is>
+      </c>
+      <c r="D656" t="inlineStr">
+        <is>
+          <t>https://content.ikon.mn/raw/2025/9/17/18218/ikon.mn_-_560x400.png</t>
+        </is>
+      </c>
+      <c r="E656" t="inlineStr"/>
+      <c r="F656" t="inlineStr"/>
+      <c r="G656" t="inlineStr">
+        <is>
+          <t>560</t>
+        </is>
+      </c>
+      <c r="H656" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="I656" t="inlineStr">
+        <is>
+          <t>duplicate_hash</t>
+        </is>
+      </c>
+    </row>
+    <row r="657">
+      <c r="A657" t="inlineStr">
+        <is>
+          <t>ikon.mn</t>
+        </is>
+      </c>
+      <c r="B657" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+      <c r="C657" t="inlineStr">
+        <is>
+          <t>https://ikon.mn/ad/IKONMN_B2?1758183075</t>
+        </is>
+      </c>
+      <c r="D657" t="inlineStr">
+        <is>
+          <t>https://content.ikon.mn/raw/2025/9/17/18218/ikon.mn_-_560x400.png</t>
+        </is>
+      </c>
+      <c r="E657" t="inlineStr"/>
+      <c r="F657" t="inlineStr"/>
+      <c r="G657" t="inlineStr">
+        <is>
+          <t>560</t>
+        </is>
+      </c>
+      <c r="H657" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="I657" t="inlineStr">
+        <is>
+          <t>duplicate_hash</t>
+        </is>
+      </c>
+    </row>
+    <row r="658">
+      <c r="A658" t="inlineStr">
+        <is>
+          <t>ikon.mn</t>
+        </is>
+      </c>
+      <c r="B658" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+      <c r="C658" t="inlineStr">
+        <is>
+          <t>https://ikon.mn/ad/IKONMN_B2?1758183075</t>
+        </is>
+      </c>
+      <c r="D658" t="inlineStr">
+        <is>
+          <t>https://content.ikon.mn/raw/2025/9/17/18218/ikon.mn_-_560x400.png</t>
+        </is>
+      </c>
+      <c r="E658" t="inlineStr"/>
+      <c r="F658" t="inlineStr"/>
+      <c r="G658" t="inlineStr">
+        <is>
+          <t>560</t>
+        </is>
+      </c>
+      <c r="H658" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="I658" t="inlineStr">
+        <is>
+          <t>duplicate_hash</t>
+        </is>
+      </c>
+    </row>
+    <row r="659">
+      <c r="A659" t="inlineStr">
+        <is>
+          <t>ikon.mn</t>
+        </is>
+      </c>
+      <c r="B659" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+      <c r="C659" t="inlineStr">
+        <is>
+          <t>https://ikon.mn/ad/IKONMN_B2?1758183075</t>
+        </is>
+      </c>
+      <c r="D659" t="inlineStr">
+        <is>
+          <t>https://content.ikon.mn/raw/2025/9/17/18218/ikon.mn_-_560x400.png</t>
+        </is>
+      </c>
+      <c r="E659" t="inlineStr"/>
+      <c r="F659" t="inlineStr"/>
+      <c r="G659" t="inlineStr">
+        <is>
+          <t>560</t>
+        </is>
+      </c>
+      <c r="H659" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="I659" t="inlineStr">
+        <is>
+          <t>duplicate_hash</t>
+        </is>
+      </c>
+    </row>
+    <row r="660">
+      <c r="A660" t="inlineStr">
+        <is>
+          <t>ikon.mn</t>
+        </is>
+      </c>
+      <c r="B660" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+      <c r="C660" t="inlineStr">
+        <is>
+          <t>https://ikon.mn/ad/IKONMN_B2?1758183075</t>
+        </is>
+      </c>
+      <c r="D660" t="inlineStr">
+        <is>
+          <t>https://content.ikon.mn/raw/2025/9/17/18218/ikon.mn_-_560x400.png</t>
+        </is>
+      </c>
+      <c r="E660" t="inlineStr"/>
+      <c r="F660" t="inlineStr"/>
+      <c r="G660" t="inlineStr">
+        <is>
+          <t>560</t>
+        </is>
+      </c>
+      <c r="H660" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="I660" t="inlineStr">
+        <is>
+          <t>duplicate_hash</t>
+        </is>
+      </c>
+    </row>
+    <row r="661">
+      <c r="A661" t="inlineStr">
+        <is>
+          <t>ikon.mn</t>
+        </is>
+      </c>
+      <c r="B661" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+      <c r="C661" t="inlineStr">
+        <is>
+          <t>https://ikon.mn/ad/IKONMN_B2?1758183075</t>
+        </is>
+      </c>
+      <c r="D661" t="inlineStr">
+        <is>
+          <t>https://content.ikon.mn/raw/2025/9/17/18218/ikon.mn_-_560x400.png</t>
+        </is>
+      </c>
+      <c r="E661" t="inlineStr"/>
+      <c r="F661" t="inlineStr"/>
+      <c r="G661" t="inlineStr">
+        <is>
+          <t>560</t>
+        </is>
+      </c>
+      <c r="H661" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="I661" t="inlineStr">
+        <is>
+          <t>duplicate_hash</t>
+        </is>
+      </c>
+    </row>
+    <row r="662">
+      <c r="A662" t="inlineStr">
+        <is>
+          <t>ikon.mn</t>
+        </is>
+      </c>
+      <c r="B662" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+      <c r="C662" t="inlineStr">
+        <is>
+          <t>https://ikon.mn/ad/IKONMN_B2?1758183075</t>
+        </is>
+      </c>
+      <c r="D662" t="inlineStr">
+        <is>
+          <t>https://content.ikon.mn/raw/2025/9/17/18218/ikon.mn_-_560x400.png</t>
+        </is>
+      </c>
+      <c r="E662" t="inlineStr"/>
+      <c r="F662" t="inlineStr"/>
+      <c r="G662" t="inlineStr">
+        <is>
+          <t>560</t>
+        </is>
+      </c>
+      <c r="H662" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="I662" t="inlineStr">
+        <is>
+          <t>duplicate_hash</t>
+        </is>
+      </c>
+    </row>
+    <row r="663">
+      <c r="A663" t="inlineStr">
+        <is>
+          <t>ikon.mn</t>
+        </is>
+      </c>
+      <c r="B663" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+      <c r="C663" t="inlineStr">
+        <is>
+          <t>https://ikon.mn/ad/IKONMN_B2?1758183075</t>
+        </is>
+      </c>
+      <c r="D663" t="inlineStr">
+        <is>
+          <t>https://content.ikon.mn/raw/2025/9/17/18218/ikon.mn_-_560x400.png</t>
+        </is>
+      </c>
+      <c r="E663" t="inlineStr"/>
+      <c r="F663" t="inlineStr"/>
+      <c r="G663" t="inlineStr">
+        <is>
+          <t>560</t>
+        </is>
+      </c>
+      <c r="H663" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="I663" t="inlineStr">
+        <is>
+          <t>duplicate_hash</t>
+        </is>
+      </c>
+    </row>
+    <row r="664">
+      <c r="A664" t="inlineStr">
+        <is>
+          <t>ikon.mn</t>
+        </is>
+      </c>
+      <c r="B664" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+      <c r="C664" t="inlineStr">
+        <is>
+          <t>https://ikon.mn/ad/IKONMN_B2?1758183075</t>
+        </is>
+      </c>
+      <c r="D664" t="inlineStr">
+        <is>
+          <t>https://content.ikon.mn/raw/2025/9/17/18218/ikon.mn_-_560x400.png</t>
+        </is>
+      </c>
+      <c r="E664" t="inlineStr"/>
+      <c r="F664" t="inlineStr"/>
+      <c r="G664" t="inlineStr">
+        <is>
+          <t>560</t>
+        </is>
+      </c>
+      <c r="H664" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="I664" t="inlineStr">
+        <is>
+          <t>duplicate_hash</t>
+        </is>
+      </c>
+    </row>
+    <row r="665">
+      <c r="A665" t="inlineStr">
+        <is>
+          <t>ikon.mn</t>
+        </is>
+      </c>
+      <c r="B665" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+      <c r="C665" t="inlineStr">
+        <is>
+          <t>https://ikon.mn/ad/IKONMN_B2?1758183075</t>
+        </is>
+      </c>
+      <c r="D665" t="inlineStr">
+        <is>
+          <t>https://content.ikon.mn/raw/2025/9/17/18218/ikon.mn_-_560x400.png</t>
+        </is>
+      </c>
+      <c r="E665" t="inlineStr"/>
+      <c r="F665" t="inlineStr"/>
+      <c r="G665" t="inlineStr">
+        <is>
+          <t>560</t>
+        </is>
+      </c>
+      <c r="H665" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="I665" t="inlineStr">
+        <is>
+          <t>duplicate_hash</t>
+        </is>
+      </c>
+    </row>
+    <row r="666">
+      <c r="A666" t="inlineStr">
+        <is>
+          <t>ikon.mn</t>
+        </is>
+      </c>
+      <c r="B666" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+      <c r="C666" t="inlineStr">
+        <is>
+          <t>https://ikon.mn/ad/IKONMN_B2?1758183075</t>
+        </is>
+      </c>
+      <c r="D666" t="inlineStr">
+        <is>
+          <t>https://content.ikon.mn/raw/2025/9/17/18218/ikon.mn_-_560x400.png</t>
+        </is>
+      </c>
+      <c r="E666" t="inlineStr"/>
+      <c r="F666" t="inlineStr"/>
+      <c r="G666" t="inlineStr">
+        <is>
+          <t>560</t>
+        </is>
+      </c>
+      <c r="H666" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="I666" t="inlineStr">
+        <is>
+          <t>duplicate_hash</t>
+        </is>
+      </c>
+    </row>
+    <row r="667">
+      <c r="A667" t="inlineStr">
+        <is>
+          <t>ikon.mn</t>
+        </is>
+      </c>
+      <c r="B667" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+      <c r="C667" t="inlineStr">
+        <is>
+          <t>https://ikon.mn/ad/IKONMN_B2?1758183075</t>
+        </is>
+      </c>
+      <c r="D667" t="inlineStr">
+        <is>
+          <t>https://content.ikon.mn/raw/2025/9/17/18218/ikon.mn_-_560x400.png</t>
+        </is>
+      </c>
+      <c r="E667" t="inlineStr"/>
+      <c r="F667" t="inlineStr"/>
+      <c r="G667" t="inlineStr">
+        <is>
+          <t>560</t>
+        </is>
+      </c>
+      <c r="H667" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="I667" t="inlineStr">
+        <is>
+          <t>duplicate_hash</t>
+        </is>
+      </c>
+    </row>
+    <row r="668">
+      <c r="A668" t="inlineStr">
+        <is>
+          <t>ikon.mn</t>
+        </is>
+      </c>
+      <c r="B668" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+      <c r="C668" t="inlineStr">
+        <is>
+          <t>https://ikon.mn/ad/IKONMN_B2?1758183075</t>
+        </is>
+      </c>
+      <c r="D668" t="inlineStr">
+        <is>
+          <t>https://content.ikon.mn/raw/2025/9/17/18218/ikon.mn_-_560x400.png</t>
+        </is>
+      </c>
+      <c r="E668" t="inlineStr"/>
+      <c r="F668" t="inlineStr"/>
+      <c r="G668" t="inlineStr">
+        <is>
+          <t>560</t>
+        </is>
+      </c>
+      <c r="H668" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="I668" t="inlineStr">
+        <is>
+          <t>duplicate_hash</t>
+        </is>
+      </c>
+    </row>
+    <row r="669">
+      <c r="A669" t="inlineStr">
+        <is>
+          <t>ikon.mn</t>
+        </is>
+      </c>
+      <c r="B669" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+      <c r="C669" t="inlineStr">
+        <is>
+          <t>https://ikon.mn/ad/IKONMN_B2?1758183075</t>
+        </is>
+      </c>
+      <c r="D669" t="inlineStr">
+        <is>
+          <t>https://content.ikon.mn/raw/2025/9/17/18218/ikon.mn_-_560x400.png</t>
+        </is>
+      </c>
+      <c r="E669" t="inlineStr"/>
+      <c r="F669" t="inlineStr"/>
+      <c r="G669" t="inlineStr">
+        <is>
+          <t>560</t>
+        </is>
+      </c>
+      <c r="H669" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="I669" t="inlineStr">
+        <is>
+          <t>duplicate_hash</t>
+        </is>
+      </c>
+    </row>
+    <row r="670">
+      <c r="A670" t="inlineStr">
+        <is>
+          <t>ikon.mn</t>
+        </is>
+      </c>
+      <c r="B670" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+      <c r="C670" t="inlineStr">
+        <is>
+          <t>https://ikon.mn/ad/IKONMN_B2?1758183075</t>
+        </is>
+      </c>
+      <c r="D670" t="inlineStr">
+        <is>
+          <t>https://content.ikon.mn/raw/2025/9/17/18218/ikon.mn_-_560x400.png</t>
+        </is>
+      </c>
+      <c r="E670" t="inlineStr"/>
+      <c r="F670" t="inlineStr"/>
+      <c r="G670" t="inlineStr">
+        <is>
+          <t>560</t>
+        </is>
+      </c>
+      <c r="H670" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="I670" t="inlineStr">
+        <is>
+          <t>duplicate_hash</t>
+        </is>
+      </c>
+    </row>
+    <row r="671">
+      <c r="A671" t="inlineStr">
+        <is>
+          <t>ikon.mn</t>
+        </is>
+      </c>
+      <c r="B671" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+      <c r="C671" t="inlineStr">
+        <is>
+          <t>https://ikon.mn/ad/IKONMN_B2?1758183075</t>
+        </is>
+      </c>
+      <c r="D671" t="inlineStr">
+        <is>
+          <t>https://content.ikon.mn/raw/2025/9/17/18218/ikon.mn_-_560x400.png</t>
+        </is>
+      </c>
+      <c r="E671" t="inlineStr"/>
+      <c r="F671" t="inlineStr"/>
+      <c r="G671" t="inlineStr">
+        <is>
+          <t>560</t>
+        </is>
+      </c>
+      <c r="H671" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="I671" t="inlineStr">
+        <is>
+          <t>duplicate_hash</t>
+        </is>
+      </c>
+    </row>
+    <row r="672">
+      <c r="A672" t="inlineStr">
+        <is>
+          <t>ikon.mn</t>
+        </is>
+      </c>
+      <c r="B672" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+      <c r="C672" t="inlineStr">
+        <is>
+          <t>https://ikon.mn/ad/IKONMN_B2?1758183075</t>
+        </is>
+      </c>
+      <c r="D672" t="inlineStr">
+        <is>
+          <t>https://content.ikon.mn/raw/2025/9/17/18218/ikon.mn_-_560x400.png</t>
+        </is>
+      </c>
+      <c r="E672" t="inlineStr"/>
+      <c r="F672" t="inlineStr"/>
+      <c r="G672" t="inlineStr">
+        <is>
+          <t>560</t>
+        </is>
+      </c>
+      <c r="H672" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="I672" t="inlineStr">
+        <is>
+          <t>duplicate_hash</t>
+        </is>
+      </c>
+    </row>
+    <row r="673">
+      <c r="A673" t="inlineStr">
+        <is>
+          <t>ikon.mn</t>
+        </is>
+      </c>
+      <c r="B673" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+      <c r="C673" t="inlineStr">
+        <is>
+          <t>https://ikon.mn/ad/IKONMN_B2?1758183075</t>
+        </is>
+      </c>
+      <c r="D673" t="inlineStr">
+        <is>
+          <t>https://content.ikon.mn/raw/2025/9/17/18218/ikon.mn_-_560x400.png</t>
+        </is>
+      </c>
+      <c r="E673" t="inlineStr"/>
+      <c r="F673" t="inlineStr"/>
+      <c r="G673" t="inlineStr">
+        <is>
+          <t>560</t>
+        </is>
+      </c>
+      <c r="H673" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="I673" t="inlineStr">
+        <is>
+          <t>duplicate_hash</t>
+        </is>
+      </c>
+    </row>
+    <row r="674">
+      <c r="A674" t="inlineStr">
+        <is>
+          <t>ikon.mn</t>
+        </is>
+      </c>
+      <c r="B674" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+      <c r="C674" t="inlineStr">
+        <is>
+          <t>https://ikon.mn/ad/IKONMN_B2?1758183075</t>
+        </is>
+      </c>
+      <c r="D674" t="inlineStr">
+        <is>
+          <t>https://content.ikon.mn/raw/2025/9/17/18218/ikon.mn_-_560x400.png</t>
+        </is>
+      </c>
+      <c r="E674" t="inlineStr"/>
+      <c r="F674" t="inlineStr"/>
+      <c r="G674" t="inlineStr">
+        <is>
+          <t>560</t>
+        </is>
+      </c>
+      <c r="H674" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="I674" t="inlineStr">
+        <is>
+          <t>duplicate_hash</t>
+        </is>
+      </c>
+    </row>
+    <row r="675">
+      <c r="A675" t="inlineStr">
+        <is>
+          <t>ikon.mn</t>
+        </is>
+      </c>
+      <c r="B675" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+      <c r="C675" t="inlineStr">
+        <is>
+          <t>https://ikon.mn/ad/IKONMN_B2?1758183075</t>
+        </is>
+      </c>
+      <c r="D675" t="inlineStr">
+        <is>
+          <t>https://content.ikon.mn/raw/2025/9/17/18218/ikon.mn_-_560x400.png</t>
+        </is>
+      </c>
+      <c r="E675" t="inlineStr"/>
+      <c r="F675" t="inlineStr"/>
+      <c r="G675" t="inlineStr">
+        <is>
+          <t>560</t>
+        </is>
+      </c>
+      <c r="H675" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="I675" t="inlineStr">
+        <is>
+          <t>duplicate_hash</t>
+        </is>
+      </c>
+    </row>
+    <row r="676">
+      <c r="A676" t="inlineStr">
+        <is>
+          <t>ikon.mn</t>
+        </is>
+      </c>
+      <c r="B676" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+      <c r="C676" t="inlineStr">
+        <is>
+          <t>https://ikon.mn/ad/IKONMN_B2?1758183075</t>
+        </is>
+      </c>
+      <c r="D676" t="inlineStr">
+        <is>
+          <t>https://content.ikon.mn/raw/2025/9/17/18218/ikon.mn_-_560x400.png</t>
+        </is>
+      </c>
+      <c r="E676" t="inlineStr"/>
+      <c r="F676" t="inlineStr"/>
+      <c r="G676" t="inlineStr">
+        <is>
+          <t>560</t>
+        </is>
+      </c>
+      <c r="H676" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="I676" t="inlineStr">
+        <is>
+          <t>duplicate_hash</t>
+        </is>
+      </c>
+    </row>
+    <row r="677">
+      <c r="A677" t="inlineStr">
+        <is>
+          <t>ikon.mn</t>
+        </is>
+      </c>
+      <c r="B677" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+      <c r="C677" t="inlineStr">
+        <is>
+          <t>https://ikon.mn/ad/IKONMN_B2?1758183075</t>
+        </is>
+      </c>
+      <c r="D677" t="inlineStr">
+        <is>
+          <t>https://content.ikon.mn/raw/2025/9/17/18218/ikon.mn_-_560x400.png</t>
+        </is>
+      </c>
+      <c r="E677" t="inlineStr"/>
+      <c r="F677" t="inlineStr"/>
+      <c r="G677" t="inlineStr">
+        <is>
+          <t>560</t>
+        </is>
+      </c>
+      <c r="H677" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="I677" t="inlineStr">
+        <is>
+          <t>duplicate_hash</t>
+        </is>
+      </c>
+    </row>
+    <row r="678">
+      <c r="A678" t="inlineStr">
+        <is>
+          <t>ikon.mn</t>
+        </is>
+      </c>
+      <c r="B678" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+      <c r="C678" t="inlineStr">
+        <is>
+          <t>https://ikon.mn/ad/IKONMN_B2?1758183075</t>
+        </is>
+      </c>
+      <c r="D678" t="inlineStr">
+        <is>
+          <t>https://content.ikon.mn/raw/2025/9/17/18218/ikon.mn_-_560x400.png</t>
+        </is>
+      </c>
+      <c r="E678" t="inlineStr"/>
+      <c r="F678" t="inlineStr"/>
+      <c r="G678" t="inlineStr">
+        <is>
+          <t>560</t>
+        </is>
+      </c>
+      <c r="H678" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="I678" t="inlineStr">
+        <is>
+          <t>duplicate_hash</t>
+        </is>
+      </c>
+    </row>
+    <row r="679">
+      <c r="A679" t="inlineStr">
+        <is>
+          <t>ikon.mn</t>
+        </is>
+      </c>
+      <c r="B679" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+      <c r="C679" t="inlineStr">
+        <is>
+          <t>https://ikon.mn/ad/IKONMN_B2?1758183075</t>
+        </is>
+      </c>
+      <c r="D679" t="inlineStr">
+        <is>
+          <t>https://content.ikon.mn/raw/2025/9/17/18218/ikon.mn_-_560x400.png</t>
+        </is>
+      </c>
+      <c r="E679" t="inlineStr"/>
+      <c r="F679" t="inlineStr"/>
+      <c r="G679" t="inlineStr">
+        <is>
+          <t>560</t>
+        </is>
+      </c>
+      <c r="H679" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="I679" t="inlineStr">
+        <is>
+          <t>duplicate_hash</t>
+        </is>
+      </c>
+    </row>
+    <row r="680">
+      <c r="A680" t="inlineStr">
+        <is>
+          <t>ikon.mn</t>
+        </is>
+      </c>
+      <c r="B680" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+      <c r="C680" t="inlineStr">
+        <is>
+          <t>https://ikon.mn/ad/IKONMN_B2?1758183075</t>
+        </is>
+      </c>
+      <c r="D680" t="inlineStr">
+        <is>
+          <t>https://content.ikon.mn/raw/2025/9/17/18218/ikon.mn_-_560x400.png</t>
+        </is>
+      </c>
+      <c r="E680" t="inlineStr"/>
+      <c r="F680" t="inlineStr"/>
+      <c r="G680" t="inlineStr">
+        <is>
+          <t>560</t>
+        </is>
+      </c>
+      <c r="H680" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="I680" t="inlineStr">
+        <is>
+          <t>duplicate_hash</t>
+        </is>
+      </c>
+    </row>
+    <row r="681">
+      <c r="A681" t="inlineStr">
+        <is>
+          <t>ikon.mn</t>
+        </is>
+      </c>
+      <c r="B681" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+      <c r="C681" t="inlineStr">
+        <is>
+          <t>https://ikon.mn/ad/IKONMN_B2?1758183075</t>
+        </is>
+      </c>
+      <c r="D681" t="inlineStr">
+        <is>
+          <t>https://content.ikon.mn/raw/2025/9/17/18218/ikon.mn_-_560x400.png</t>
+        </is>
+      </c>
+      <c r="E681" t="inlineStr"/>
+      <c r="F681" t="inlineStr"/>
+      <c r="G681" t="inlineStr">
+        <is>
+          <t>560</t>
+        </is>
+      </c>
+      <c r="H681" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="I681" t="inlineStr">
+        <is>
+          <t>duplicate_hash</t>
+        </is>
+      </c>
+    </row>
+    <row r="682">
+      <c r="A682" t="inlineStr">
+        <is>
+          <t>ikon.mn</t>
+        </is>
+      </c>
+      <c r="B682" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+      <c r="C682" t="inlineStr">
+        <is>
+          <t>https://ikon.mn/ad/IKONMN_B2?1758183075</t>
+        </is>
+      </c>
+      <c r="D682" t="inlineStr">
+        <is>
+          <t>https://content.ikon.mn/raw/2025/9/17/18218/ikon.mn_-_560x400.png</t>
+        </is>
+      </c>
+      <c r="E682" t="inlineStr"/>
+      <c r="F682" t="inlineStr"/>
+      <c r="G682" t="inlineStr">
+        <is>
+          <t>560</t>
+        </is>
+      </c>
+      <c r="H682" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="I682" t="inlineStr">
+        <is>
+          <t>duplicate_hash</t>
+        </is>
+      </c>
+    </row>
+    <row r="683">
+      <c r="A683" t="inlineStr">
+        <is>
+          <t>ikon.mn</t>
+        </is>
+      </c>
+      <c r="B683" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+      <c r="C683" t="inlineStr">
+        <is>
+          <t>https://ikon.mn/ad/IKONMN_B2?1758183075</t>
+        </is>
+      </c>
+      <c r="D683" t="inlineStr">
+        <is>
+          <t>https://content.ikon.mn/raw/2025/9/17/18218/ikon.mn_-_560x400.png</t>
+        </is>
+      </c>
+      <c r="E683" t="inlineStr"/>
+      <c r="F683" t="inlineStr"/>
+      <c r="G683" t="inlineStr">
+        <is>
+          <t>560</t>
+        </is>
+      </c>
+      <c r="H683" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="I683" t="inlineStr">
+        <is>
+          <t>duplicate_hash</t>
+        </is>
+      </c>
+    </row>
+    <row r="684">
+      <c r="A684" t="inlineStr">
+        <is>
+          <t>ikon.mn</t>
+        </is>
+      </c>
+      <c r="B684" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+      <c r="C684" t="inlineStr">
+        <is>
+          <t>https://ikon.mn/ad/IKONMN_B2?1758183075</t>
+        </is>
+      </c>
+      <c r="D684" t="inlineStr">
+        <is>
+          <t>https://content.ikon.mn/raw/2025/9/17/18218/ikon.mn_-_560x400.png</t>
+        </is>
+      </c>
+      <c r="E684" t="inlineStr"/>
+      <c r="F684" t="inlineStr"/>
+      <c r="G684" t="inlineStr">
+        <is>
+          <t>560</t>
+        </is>
+      </c>
+      <c r="H684" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="I684" t="inlineStr">
+        <is>
+          <t>duplicate_hash</t>
+        </is>
+      </c>
+    </row>
+    <row r="685">
+      <c r="A685" t="inlineStr">
+        <is>
+          <t>ikon.mn</t>
+        </is>
+      </c>
+      <c r="B685" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+      <c r="C685" t="inlineStr">
+        <is>
+          <t>https://ikon.mn/ad/IKONMN_B2?1758183075</t>
+        </is>
+      </c>
+      <c r="D685" t="inlineStr">
+        <is>
+          <t>https://content.ikon.mn/raw/2025/9/17/18218/ikon.mn_-_560x400.png</t>
+        </is>
+      </c>
+      <c r="E685" t="inlineStr"/>
+      <c r="F685" t="inlineStr"/>
+      <c r="G685" t="inlineStr">
+        <is>
+          <t>560</t>
+        </is>
+      </c>
+      <c r="H685" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="I685" t="inlineStr">
+        <is>
+          <t>duplicate_hash</t>
+        </is>
+      </c>
+    </row>
+    <row r="686">
+      <c r="A686" t="inlineStr">
+        <is>
+          <t>ikon.mn</t>
+        </is>
+      </c>
+      <c r="B686" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+      <c r="C686" t="inlineStr">
+        <is>
+          <t>https://ikon.mn/ad/IKONMN_B2?1758183075</t>
+        </is>
+      </c>
+      <c r="D686" t="inlineStr">
+        <is>
+          <t>https://content.ikon.mn/raw/2025/9/17/18218/ikon.mn_-_560x400.png</t>
+        </is>
+      </c>
+      <c r="E686" t="inlineStr"/>
+      <c r="F686" t="inlineStr"/>
+      <c r="G686" t="inlineStr">
+        <is>
+          <t>560</t>
+        </is>
+      </c>
+      <c r="H686" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="I686" t="inlineStr">
+        <is>
+          <t>duplicate_hash</t>
+        </is>
+      </c>
+    </row>
+    <row r="687">
+      <c r="A687" t="inlineStr">
+        <is>
+          <t>ikon.mn</t>
+        </is>
+      </c>
+      <c r="B687" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+      <c r="C687" t="inlineStr">
+        <is>
+          <t>https://ikon.mn/ad/IKONMN_B2?1758183075</t>
+        </is>
+      </c>
+      <c r="D687" t="inlineStr">
+        <is>
+          <t>https://content.ikon.mn/raw/2025/9/17/18218/ikon.mn_-_560x400.png</t>
+        </is>
+      </c>
+      <c r="E687" t="inlineStr"/>
+      <c r="F687" t="inlineStr"/>
+      <c r="G687" t="inlineStr">
+        <is>
+          <t>560</t>
+        </is>
+      </c>
+      <c r="H687" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="I687" t="inlineStr">
+        <is>
+          <t>duplicate_hash</t>
+        </is>
+      </c>
+    </row>
+    <row r="688">
+      <c r="A688" t="inlineStr">
+        <is>
+          <t>ikon.mn</t>
+        </is>
+      </c>
+      <c r="B688" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+      <c r="C688" t="inlineStr">
+        <is>
+          <t>https://ikon.mn/ad/IKONMN_B2?1758183075</t>
+        </is>
+      </c>
+      <c r="D688" t="inlineStr">
+        <is>
+          <t>https://content.ikon.mn/raw/2025/9/17/18218/ikon.mn_-_560x400.png</t>
+        </is>
+      </c>
+      <c r="E688" t="inlineStr"/>
+      <c r="F688" t="inlineStr"/>
+      <c r="G688" t="inlineStr">
+        <is>
+          <t>560</t>
+        </is>
+      </c>
+      <c r="H688" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="I688" t="inlineStr">
+        <is>
+          <t>duplicate_hash</t>
+        </is>
+      </c>
+    </row>
+    <row r="689">
+      <c r="A689" t="inlineStr">
+        <is>
+          <t>ikon.mn</t>
+        </is>
+      </c>
+      <c r="B689" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+      <c r="C689" t="inlineStr">
+        <is>
+          <t>https://ikon.mn/ad/IKONMN_B2?1758183075</t>
+        </is>
+      </c>
+      <c r="D689" t="inlineStr">
+        <is>
+          <t>https://content.ikon.mn/raw/2025/9/17/18218/ikon.mn_-_560x400.png</t>
+        </is>
+      </c>
+      <c r="E689" t="inlineStr"/>
+      <c r="F689" t="inlineStr"/>
+      <c r="G689" t="inlineStr">
+        <is>
+          <t>560</t>
+        </is>
+      </c>
+      <c r="H689" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="I689" t="inlineStr">
+        <is>
+          <t>duplicate_hash</t>
+        </is>
+      </c>
+    </row>
+    <row r="690">
+      <c r="A690" t="inlineStr">
+        <is>
+          <t>ikon.mn</t>
+        </is>
+      </c>
+      <c r="B690" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+      <c r="C690" t="inlineStr">
+        <is>
+          <t>https://ikon.mn/ad/IKONMN_B2?1758183075</t>
+        </is>
+      </c>
+      <c r="D690" t="inlineStr">
+        <is>
+          <t>https://content.ikon.mn/raw/2025/9/17/18218/ikon.mn_-_560x400.png</t>
+        </is>
+      </c>
+      <c r="E690" t="inlineStr"/>
+      <c r="F690" t="inlineStr"/>
+      <c r="G690" t="inlineStr">
+        <is>
+          <t>560</t>
+        </is>
+      </c>
+      <c r="H690" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="I690" t="inlineStr">
+        <is>
+          <t>duplicate_hash</t>
+        </is>
+      </c>
+    </row>
+    <row r="691">
+      <c r="A691" t="inlineStr">
+        <is>
+          <t>ikon.mn</t>
+        </is>
+      </c>
+      <c r="B691" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+      <c r="C691" t="inlineStr">
+        <is>
+          <t>https://ikon.mn/ad/IKONMN_B2?1758183075</t>
+        </is>
+      </c>
+      <c r="D691" t="inlineStr">
+        <is>
+          <t>https://content.ikon.mn/raw/2025/9/17/18218/ikon.mn_-_560x400.png</t>
+        </is>
+      </c>
+      <c r="E691" t="inlineStr"/>
+      <c r="F691" t="inlineStr"/>
+      <c r="G691" t="inlineStr">
+        <is>
+          <t>560</t>
+        </is>
+      </c>
+      <c r="H691" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="I691" t="inlineStr">
+        <is>
+          <t>duplicate_hash</t>
+        </is>
+      </c>
+    </row>
+    <row r="692">
+      <c r="A692" t="inlineStr">
+        <is>
+          <t>ikon.mn</t>
+        </is>
+      </c>
+      <c r="B692" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+      <c r="C692" t="inlineStr">
+        <is>
+          <t>https://ikon.mn/ad/IKONMN_B2?1758183075</t>
+        </is>
+      </c>
+      <c r="D692" t="inlineStr">
+        <is>
+          <t>https://content.ikon.mn/raw/2025/9/17/18218/ikon.mn_-_560x400.png</t>
+        </is>
+      </c>
+      <c r="E692" t="inlineStr"/>
+      <c r="F692" t="inlineStr"/>
+      <c r="G692" t="inlineStr">
+        <is>
+          <t>560</t>
+        </is>
+      </c>
+      <c r="H692" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="I692" t="inlineStr">
+        <is>
+          <t>duplicate_hash</t>
+        </is>
+      </c>
+    </row>
+    <row r="693">
+      <c r="A693" t="inlineStr">
+        <is>
+          <t>ikon.mn</t>
+        </is>
+      </c>
+      <c r="B693" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+      <c r="C693" t="inlineStr">
+        <is>
+          <t>https://ikon.mn/ad/IKONMN_B2?1758183075</t>
+        </is>
+      </c>
+      <c r="D693" t="inlineStr">
+        <is>
+          <t>https://content.ikon.mn/raw/2025/9/17/18218/ikon.mn_-_560x400.png</t>
+        </is>
+      </c>
+      <c r="E693" t="inlineStr"/>
+      <c r="F693" t="inlineStr"/>
+      <c r="G693" t="inlineStr">
+        <is>
+          <t>560</t>
+        </is>
+      </c>
+      <c r="H693" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="I693" t="inlineStr">
+        <is>
+          <t>duplicate_hash</t>
+        </is>
+      </c>
+    </row>
+    <row r="694">
+      <c r="A694" t="inlineStr">
+        <is>
+          <t>gogo.mn</t>
+        </is>
+      </c>
+      <c r="B694" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+      <c r="C694" t="inlineStr">
+        <is>
+          <t>https://gogo.mn/</t>
+        </is>
+      </c>
+      <c r="D694" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E694" t="inlineStr">
+        <is>
+          <t>https://edge.boost.mn/67e3d390bbe407d318e482f1/creative_converted/7424e65a-4a2f-421b-b0af-234409514d5a/68ba3ae4f067562fb0b6a40a_compressed.webp</t>
+        </is>
+      </c>
+      <c r="F694" s="1" t="inlineStr">
+        <is>
+          <t>../https:/gogo.mn</t>
+        </is>
+      </c>
+      <c r="G694" t="inlineStr"/>
+      <c r="H694" t="inlineStr">
+        <is>
+          <t>C:\Users\tuguldur.kh\Downloads\adscraper-full-code\banner_screenshots\gogo.mn\2025-09-18\gogo_boost_1758183504_aff40ab66b.webp</t>
+        </is>
+      </c>
+      <c r="I694" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="695">
+      <c r="A695" t="inlineStr">
+        <is>
+          <t>gogo.mn</t>
+        </is>
+      </c>
+      <c r="B695" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+      <c r="C695" t="inlineStr">
+        <is>
+          <t>https://gogo.mn/</t>
+        </is>
+      </c>
+      <c r="D695" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E695" t="inlineStr">
+        <is>
+          <t>https://edge.boost.mn/67e3d390bbe407d318e482f1/creative_converted/0d02ea74-8043-46ce-83f6-1ee77c5ff921/68b80376f067562fb0b6a3f7_compressed.webp</t>
+        </is>
+      </c>
+      <c r="F695" s="1" t="inlineStr">
+        <is>
+          <t>../https:/gogo.mn</t>
+        </is>
+      </c>
+      <c r="G695" t="inlineStr"/>
+      <c r="H695" t="inlineStr">
+        <is>
+          <t>C:\Users\tuguldur.kh\Downloads\adscraper-full-code\banner_screenshots\gogo.mn\2025-09-18\gogo_boost_1758183527_a1626cc53b.webp</t>
+        </is>
+      </c>
+      <c r="I695" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="696">
+      <c r="A696" t="inlineStr">
+        <is>
+          <t>gogo.mn</t>
+        </is>
+      </c>
+      <c r="B696" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+      <c r="C696" t="inlineStr">
+        <is>
+          <t>https://gogo.mn/</t>
+        </is>
+      </c>
+      <c r="D696" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E696" t="inlineStr">
+        <is>
+          <t>https://edge.boost.mn/67e3d390bbe407d318e482f1/creative_converted/473b116a-bce4-49c2-aea6-04a24444bba2/68ba4e1bf067562fb0b6a413_compressed.webp</t>
+        </is>
+      </c>
+      <c r="F696" s="1" t="inlineStr">
+        <is>
+          <t>../https:/gogo.mn</t>
+        </is>
+      </c>
+      <c r="G696" t="inlineStr"/>
+      <c r="H696" t="inlineStr">
+        <is>
+          <t>C:\Users\tuguldur.kh\Downloads\adscraper-full-code\banner_screenshots\gogo.mn\2025-09-18\gogo_boost_1758183527_ba402249d0.webp</t>
+        </is>
+      </c>
+      <c r="I696" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="697">
+      <c r="A697" t="inlineStr">
+        <is>
+          <t>gogo.mn</t>
+        </is>
+      </c>
+      <c r="B697" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+      <c r="C697" t="inlineStr">
+        <is>
+          <t>https://gogo.mn/</t>
+        </is>
+      </c>
+      <c r="D697" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E697" t="inlineStr">
+        <is>
+          <t>https://edge.boost.mn/67e3d390bbe407d318e482f1/creative_converted/603f66e1-d2f6-4a58-8a28-ed8d1a943f8a/68ba3d43f067562fb0b6a410_compressed.webp</t>
+        </is>
+      </c>
+      <c r="F697" s="1" t="inlineStr">
+        <is>
+          <t>../https:/gogo.mn</t>
+        </is>
+      </c>
+      <c r="G697" t="inlineStr"/>
+      <c r="H697" t="inlineStr">
+        <is>
+          <t>C:\Users\tuguldur.kh\Downloads\adscraper-full-code\banner_screenshots\gogo.mn\2025-09-18\gogo_boost_1758183528_371807dfd7.webp</t>
+        </is>
+      </c>
+      <c r="I697" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="698">
+      <c r="A698" t="inlineStr">
+        <is>
+          <t>gogo.mn</t>
+        </is>
+      </c>
+      <c r="B698" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+      <c r="C698" t="inlineStr">
+        <is>
+          <t>https://gogo.mn/</t>
+        </is>
+      </c>
+      <c r="D698" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E698" t="inlineStr">
+        <is>
+          <t>https://edge.boost.mn/67e3d390bbe407d318e482f1/creative_converted/ac979e6a-9179-4f49-9f66-e1b3128a9c21/68c0d96eed515da17275eb24_compressed.webp</t>
+        </is>
+      </c>
+      <c r="F698" s="1" t="inlineStr">
+        <is>
+          <t>../https:/gogo.mn</t>
+        </is>
+      </c>
+      <c r="G698" t="inlineStr"/>
+      <c r="H698" t="inlineStr">
+        <is>
+          <t>C:\Users\tuguldur.kh\Downloads\adscraper-full-code\banner_screenshots\gogo.mn\2025-09-18\gogo_boost_1758183528_af3ba72442.webp</t>
+        </is>
+      </c>
+      <c r="I698" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="699">
+      <c r="A699" t="inlineStr">
+        <is>
+          <t>gogo.mn</t>
+        </is>
+      </c>
+      <c r="B699" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+      <c r="C699" t="inlineStr">
+        <is>
+          <t>https://gogo.mn/</t>
+        </is>
+      </c>
+      <c r="D699" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E699" t="inlineStr">
+        <is>
+          <t>https://edge.boost.mn/67e3d390bbe407d318e482f1/creative_converted/c8c21448-8561-4525-88c4-16e7251f6373/68ba3a9bf067562fb0b6a409_compressed.webp</t>
+        </is>
+      </c>
+      <c r="F699" s="1" t="inlineStr">
+        <is>
+          <t>../https:/gogo.mn</t>
+        </is>
+      </c>
+      <c r="G699" t="inlineStr"/>
+      <c r="H699" t="inlineStr">
+        <is>
+          <t>C:\Users\tuguldur.kh\Downloads\adscraper-full-code\banner_screenshots\gogo.mn\2025-09-18\gogo_boost_1758183528_bf4e4a14d8.webp</t>
+        </is>
+      </c>
+      <c r="I699" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="700">
+      <c r="A700" t="inlineStr">
+        <is>
+          <t>gogo.mn</t>
+        </is>
+      </c>
+      <c r="B700" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+      <c r="C700" t="inlineStr">
+        <is>
+          <t>https://gogo.mn/</t>
+        </is>
+      </c>
+      <c r="D700" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E700" t="inlineStr">
+        <is>
+          <t>https://edge.boost.mn/67e3d390bbe407d318e482f1/creative_converted/e2d7598a-66ee-41db-8095-7e15370d44fd/68c8abca5354a679a0e142fa_compressed.webp</t>
+        </is>
+      </c>
+      <c r="F700" s="1" t="inlineStr">
+        <is>
+          <t>../https:/gogo.mn</t>
+        </is>
+      </c>
+      <c r="G700" t="inlineStr"/>
+      <c r="H700" t="inlineStr">
+        <is>
+          <t>C:\Users\tuguldur.kh\Downloads\adscraper-full-code\banner_screenshots\gogo.mn\2025-09-18\gogo_boost_1758183528_0f3b81fbf5.webp</t>
+        </is>
+      </c>
+      <c r="I700" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="701">
+      <c r="A701" t="inlineStr">
+        <is>
+          <t>gogo.mn</t>
+        </is>
+      </c>
+      <c r="B701" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+      <c r="C701" t="inlineStr">
+        <is>
+          <t>https://gogo.mn/</t>
+        </is>
+      </c>
+      <c r="D701" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E701" t="inlineStr">
+        <is>
+          <t>https://edge.boost.mn/67e3d390bbe407d318e482f1/creative_converted/e7c0b9b8-c1d9-4b8c-8870-0237e279f6c2/68c3a8c8861dec86a871e6fe_compressed.webp</t>
+        </is>
+      </c>
+      <c r="F701" s="1" t="inlineStr">
+        <is>
+          <t>../https:/gogo.mn</t>
+        </is>
+      </c>
+      <c r="G701" t="inlineStr"/>
+      <c r="H701" t="inlineStr">
+        <is>
+          <t>C:\Users\tuguldur.kh\Downloads\adscraper-full-code\banner_screenshots\gogo.mn\2025-09-18\gogo_boost_1758183528_b436737b1d.webp</t>
+        </is>
+      </c>
+      <c r="I701" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="702">
+      <c r="A702" t="inlineStr">
+        <is>
+          <t>gogo.mn</t>
+        </is>
+      </c>
+      <c r="B702" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+      <c r="C702" t="inlineStr">
+        <is>
+          <t>https://gogo.mn/</t>
+        </is>
+      </c>
+      <c r="D702" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E702" t="inlineStr">
+        <is>
+          <t>https://edge.boost.mn/67e3d390bbe407d318e482f1/creative_converted/7424e65a-4a2f-421b-b0af-234409514d5a/68ba3ae4f067562fb0b6a40a_compressed.webp</t>
+        </is>
+      </c>
+      <c r="F702" s="1" t="inlineStr">
+        <is>
+          <t>../https:/gogo.mn</t>
+        </is>
+      </c>
+      <c r="G702" t="inlineStr"/>
+      <c r="H702" t="inlineStr"/>
+      <c r="I702" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="703">
+      <c r="A703" t="inlineStr">
+        <is>
+          <t>gogo.mn</t>
+        </is>
+      </c>
+      <c r="B703" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+      <c r="C703" t="inlineStr">
+        <is>
+          <t>https://gogo.mn/</t>
+        </is>
+      </c>
+      <c r="D703" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E703" t="inlineStr">
+        <is>
+          <t>https://edge.boost.mn/67e3d390bbe407d318e482f1/creative_converted/0d02ea74-8043-46ce-83f6-1ee77c5ff921/68b80376f067562fb0b6a3f7_compressed.webp</t>
+        </is>
+      </c>
+      <c r="F703" s="1" t="inlineStr">
+        <is>
+          <t>../https:/gogo.mn</t>
+        </is>
+      </c>
+      <c r="G703" t="inlineStr"/>
+      <c r="H703" t="inlineStr"/>
+      <c r="I703" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="704">
+      <c r="A704" t="inlineStr">
+        <is>
+          <t>gogo.mn</t>
+        </is>
+      </c>
+      <c r="B704" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+      <c r="C704" t="inlineStr">
+        <is>
+          <t>https://gogo.mn/</t>
+        </is>
+      </c>
+      <c r="D704" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E704" t="inlineStr">
+        <is>
+          <t>https://edge.boost.mn/67e3d390bbe407d318e482f1/creative_converted/473b116a-bce4-49c2-aea6-04a24444bba2/68ba4e1bf067562fb0b6a413_compressed.webp</t>
+        </is>
+      </c>
+      <c r="F704" s="1" t="inlineStr">
+        <is>
+          <t>../https:/gogo.mn</t>
+        </is>
+      </c>
+      <c r="G704" t="inlineStr"/>
+      <c r="H704" t="inlineStr"/>
+      <c r="I704" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="705">
+      <c r="A705" t="inlineStr">
+        <is>
+          <t>gogo.mn</t>
+        </is>
+      </c>
+      <c r="B705" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+      <c r="C705" t="inlineStr">
+        <is>
+          <t>https://gogo.mn/</t>
+        </is>
+      </c>
+      <c r="D705" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E705" t="inlineStr">
+        <is>
+          <t>https://edge.boost.mn/67e3d390bbe407d318e482f1/creative_converted/603f66e1-d2f6-4a58-8a28-ed8d1a943f8a/68ba3d43f067562fb0b6a410_compressed.webp</t>
+        </is>
+      </c>
+      <c r="F705" s="1" t="inlineStr">
+        <is>
+          <t>../https:/gogo.mn</t>
+        </is>
+      </c>
+      <c r="G705" t="inlineStr"/>
+      <c r="H705" t="inlineStr"/>
+      <c r="I705" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="706">
+      <c r="A706" t="inlineStr">
+        <is>
+          <t>gogo.mn</t>
+        </is>
+      </c>
+      <c r="B706" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+      <c r="C706" t="inlineStr">
+        <is>
+          <t>https://gogo.mn/</t>
+        </is>
+      </c>
+      <c r="D706" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E706" t="inlineStr">
+        <is>
+          <t>https://edge.boost.mn/67e3d390bbe407d318e482f1/creative_converted/8b6ef511-34d8-467f-b7c3-b0580f52b569/68ca72a75354a679a0e1430a_compressed.webp</t>
+        </is>
+      </c>
+      <c r="F706" s="1" t="inlineStr">
+        <is>
+          <t>../https:/gogo.mn</t>
+        </is>
+      </c>
+      <c r="G706" t="inlineStr"/>
+      <c r="H706" t="inlineStr">
+        <is>
+          <t>C:\Users\tuguldur.kh\Downloads\adscraper-full-code\banner_screenshots\gogo.mn\2025-09-18\gogo_boost_1758183573_fefdb344c2.webp</t>
+        </is>
+      </c>
+      <c r="I706" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="707">
+      <c r="A707" t="inlineStr">
+        <is>
+          <t>gogo.mn</t>
+        </is>
+      </c>
+      <c r="B707" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+      <c r="C707" t="inlineStr">
+        <is>
+          <t>https://gogo.mn/</t>
+        </is>
+      </c>
+      <c r="D707" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E707" t="inlineStr">
+        <is>
+          <t>https://edge.boost.mn/67e3d390bbe407d318e482f1/creative_converted/ac979e6a-9179-4f49-9f66-e1b3128a9c21/68c0d96eed515da17275eb24_compressed.webp</t>
+        </is>
+      </c>
+      <c r="F707" s="1" t="inlineStr">
+        <is>
+          <t>../https:/gogo.mn</t>
+        </is>
+      </c>
+      <c r="G707" t="inlineStr"/>
+      <c r="H707" t="inlineStr"/>
+      <c r="I707" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="708">
+      <c r="A708" t="inlineStr">
+        <is>
+          <t>gogo.mn</t>
+        </is>
+      </c>
+      <c r="B708" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+      <c r="C708" t="inlineStr">
+        <is>
+          <t>https://gogo.mn/</t>
+        </is>
+      </c>
+      <c r="D708" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E708" t="inlineStr">
+        <is>
+          <t>https://edge.boost.mn/67e3d390bbe407d318e482f1/creative_converted/c8c21448-8561-4525-88c4-16e7251f6373/68ba3a9bf067562fb0b6a409_compressed.webp</t>
+        </is>
+      </c>
+      <c r="F708" s="1" t="inlineStr">
+        <is>
+          <t>../https:/gogo.mn</t>
+        </is>
+      </c>
+      <c r="G708" t="inlineStr"/>
+      <c r="H708" t="inlineStr"/>
+      <c r="I708" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="709">
+      <c r="A709" t="inlineStr">
+        <is>
+          <t>gogo.mn</t>
+        </is>
+      </c>
+      <c r="B709" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+      <c r="C709" t="inlineStr">
+        <is>
+          <t>https://gogo.mn/</t>
+        </is>
+      </c>
+      <c r="D709" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E709" t="inlineStr">
+        <is>
+          <t>https://edge.boost.mn/67e3d390bbe407d318e482f1/creative_converted/e2d7598a-66ee-41db-8095-7e15370d44fd/68c8abca5354a679a0e142fa_compressed.webp</t>
+        </is>
+      </c>
+      <c r="F709" s="1" t="inlineStr">
+        <is>
+          <t>../https:/gogo.mn</t>
+        </is>
+      </c>
+      <c r="G709" t="inlineStr"/>
+      <c r="H709" t="inlineStr"/>
+      <c r="I709" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="710">
+      <c r="A710" t="inlineStr">
+        <is>
+          <t>gogo.mn</t>
+        </is>
+      </c>
+      <c r="B710" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+      <c r="C710" t="inlineStr">
+        <is>
+          <t>https://gogo.mn/</t>
+        </is>
+      </c>
+      <c r="D710" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E710" t="inlineStr">
+        <is>
+          <t>https://edge.boost.mn/67e3d390bbe407d318e482f1/creative_converted/e7c0b9b8-c1d9-4b8c-8870-0237e279f6c2/68c3a8c8861dec86a871e6fe_compressed.webp</t>
+        </is>
+      </c>
+      <c r="F710" s="1" t="inlineStr">
+        <is>
+          <t>../https:/gogo.mn</t>
+        </is>
+      </c>
+      <c r="G710" t="inlineStr"/>
+      <c r="H710" t="inlineStr"/>
+      <c r="I710" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="711">
+      <c r="A711" t="inlineStr">
+        <is>
+          <t>gogo.mn</t>
+        </is>
+      </c>
+      <c r="B711" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+      <c r="C711" t="inlineStr">
+        <is>
+          <t>https://gogo.mn/</t>
+        </is>
+      </c>
+      <c r="D711" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E711" t="inlineStr">
+        <is>
+          <t>https://edge.boost.mn/67e3d390bbe407d318e482f1/creative_converted/7424e65a-4a2f-421b-b0af-234409514d5a/68ba3ae4f067562fb0b6a40a_compressed.webp</t>
+        </is>
+      </c>
+      <c r="F711" s="1" t="inlineStr">
+        <is>
+          <t>../https:/gogo.mn</t>
+        </is>
+      </c>
+      <c r="G711" t="inlineStr"/>
+      <c r="H711" t="inlineStr"/>
+      <c r="I711" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="712">
+      <c r="A712" t="inlineStr">
+        <is>
+          <t>gogo.mn</t>
+        </is>
+      </c>
+      <c r="B712" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+      <c r="C712" t="inlineStr">
+        <is>
+          <t>https://gogo.mn/</t>
+        </is>
+      </c>
+      <c r="D712" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E712" t="inlineStr">
+        <is>
+          <t>https://edge.boost.mn/67e3d390bbe407d318e482f1/creative_converted/0d02ea74-8043-46ce-83f6-1ee77c5ff921/68b80376f067562fb0b6a3f7_compressed.webp</t>
+        </is>
+      </c>
+      <c r="F712" s="1" t="inlineStr">
+        <is>
+          <t>../https:/gogo.mn</t>
+        </is>
+      </c>
+      <c r="G712" t="inlineStr"/>
+      <c r="H712" t="inlineStr"/>
+      <c r="I712" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="713">
+      <c r="A713" t="inlineStr">
+        <is>
+          <t>gogo.mn</t>
+        </is>
+      </c>
+      <c r="B713" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+      <c r="C713" t="inlineStr">
+        <is>
+          <t>https://gogo.mn/</t>
+        </is>
+      </c>
+      <c r="D713" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E713" t="inlineStr">
+        <is>
+          <t>https://edge.boost.mn/67e3d390bbe407d318e482f1/creative_converted/473b116a-bce4-49c2-aea6-04a24444bba2/68ba4e1bf067562fb0b6a413_compressed.webp</t>
+        </is>
+      </c>
+      <c r="F713" s="1" t="inlineStr">
+        <is>
+          <t>../https:/gogo.mn</t>
+        </is>
+      </c>
+      <c r="G713" t="inlineStr"/>
+      <c r="H713" t="inlineStr"/>
+      <c r="I713" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="714">
+      <c r="A714" t="inlineStr">
+        <is>
+          <t>gogo.mn</t>
+        </is>
+      </c>
+      <c r="B714" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+      <c r="C714" t="inlineStr">
+        <is>
+          <t>https://gogo.mn/</t>
+        </is>
+      </c>
+      <c r="D714" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E714" t="inlineStr">
+        <is>
+          <t>https://edge.boost.mn/67e3d390bbe407d318e482f1/creative_converted/603f66e1-d2f6-4a58-8a28-ed8d1a943f8a/68ba3d43f067562fb0b6a410_compressed.webp</t>
+        </is>
+      </c>
+      <c r="F714" s="1" t="inlineStr">
+        <is>
+          <t>../https:/gogo.mn</t>
+        </is>
+      </c>
+      <c r="G714" t="inlineStr"/>
+      <c r="H714" t="inlineStr"/>
+      <c r="I714" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="715">
+      <c r="A715" t="inlineStr">
+        <is>
+          <t>gogo.mn</t>
+        </is>
+      </c>
+      <c r="B715" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+      <c r="C715" t="inlineStr">
+        <is>
+          <t>https://gogo.mn/</t>
+        </is>
+      </c>
+      <c r="D715" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E715" t="inlineStr">
+        <is>
+          <t>https://edge.boost.mn/67e3d390bbe407d318e482f1/creative_converted/8b6ef511-34d8-467f-b7c3-b0580f52b569/68ca72a75354a679a0e1430a_compressed.webp</t>
+        </is>
+      </c>
+      <c r="F715" s="1" t="inlineStr">
+        <is>
+          <t>../https:/gogo.mn</t>
+        </is>
+      </c>
+      <c r="G715" t="inlineStr"/>
+      <c r="H715" t="inlineStr"/>
+      <c r="I715" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="716">
+      <c r="A716" t="inlineStr">
+        <is>
+          <t>gogo.mn</t>
+        </is>
+      </c>
+      <c r="B716" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+      <c r="C716" t="inlineStr">
+        <is>
+          <t>https://gogo.mn/</t>
+        </is>
+      </c>
+      <c r="D716" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E716" t="inlineStr">
+        <is>
+          <t>https://edge.boost.mn/67e3d390bbe407d318e482f1/creative_converted/ac979e6a-9179-4f49-9f66-e1b3128a9c21/68c0d96eed515da17275eb24_compressed.webp</t>
+        </is>
+      </c>
+      <c r="F716" s="1" t="inlineStr">
+        <is>
+          <t>../https:/gogo.mn</t>
+        </is>
+      </c>
+      <c r="G716" t="inlineStr"/>
+      <c r="H716" t="inlineStr"/>
+      <c r="I716" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="717">
+      <c r="A717" t="inlineStr">
+        <is>
+          <t>gogo.mn</t>
+        </is>
+      </c>
+      <c r="B717" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+      <c r="C717" t="inlineStr">
+        <is>
+          <t>https://gogo.mn/</t>
+        </is>
+      </c>
+      <c r="D717" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E717" t="inlineStr">
+        <is>
+          <t>https://edge.boost.mn/67e3d390bbe407d318e482f1/creative_converted/c8c21448-8561-4525-88c4-16e7251f6373/68ba3a9bf067562fb0b6a409_compressed.webp</t>
+        </is>
+      </c>
+      <c r="F717" s="1" t="inlineStr">
+        <is>
+          <t>../https:/gogo.mn</t>
+        </is>
+      </c>
+      <c r="G717" t="inlineStr"/>
+      <c r="H717" t="inlineStr"/>
+      <c r="I717" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="718">
+      <c r="A718" t="inlineStr">
+        <is>
+          <t>gogo.mn</t>
+        </is>
+      </c>
+      <c r="B718" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+      <c r="C718" t="inlineStr">
+        <is>
+          <t>https://gogo.mn/</t>
+        </is>
+      </c>
+      <c r="D718" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E718" t="inlineStr">
+        <is>
+          <t>https://edge.boost.mn/67e3d390bbe407d318e482f1/creative_converted/e2d7598a-66ee-41db-8095-7e15370d44fd/68c8abca5354a679a0e142fa_compressed.webp</t>
+        </is>
+      </c>
+      <c r="F718" s="1" t="inlineStr">
+        <is>
+          <t>../https:/gogo.mn</t>
+        </is>
+      </c>
+      <c r="G718" t="inlineStr"/>
+      <c r="H718" t="inlineStr"/>
+      <c r="I718" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="719">
+      <c r="A719" t="inlineStr">
+        <is>
+          <t>gogo.mn</t>
+        </is>
+      </c>
+      <c r="B719" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+      <c r="C719" t="inlineStr">
+        <is>
+          <t>https://gogo.mn/</t>
+        </is>
+      </c>
+      <c r="D719" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E719" t="inlineStr">
+        <is>
+          <t>https://edge.boost.mn/67e3d390bbe407d318e482f1/creative_converted/e7c0b9b8-c1d9-4b8c-8870-0237e279f6c2/68c3a8c8861dec86a871e6fe_compressed.webp</t>
+        </is>
+      </c>
+      <c r="F719" s="1" t="inlineStr">
+        <is>
+          <t>../https:/gogo.mn</t>
+        </is>
+      </c>
+      <c r="G719" t="inlineStr"/>
+      <c r="H719" t="inlineStr"/>
+      <c r="I719" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="720">
+      <c r="A720" t="inlineStr">
+        <is>
+          <t>news.mn</t>
+        </is>
+      </c>
+      <c r="B720" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+      <c r="C720" t="inlineStr">
+        <is>
+          <t>https://news.mn/</t>
+        </is>
+      </c>
+      <c r="D720" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E720" t="inlineStr">
+        <is>
+          <t>https://news.mn/wp-content/uploads/2025/09/dyson-1-scaled.jpg</t>
+        </is>
+      </c>
+      <c r="F720" s="1" t="inlineStr">
+        <is>
+          <t>../https:/www.facebook.com/PCMallOfficial/posts/pfbid02n94s7a1HLmeM1u97NELbdxW28wEC5cJ3VV4VtdxAPqsgfYRmyBMJyAeKe6P2H6iel</t>
+        </is>
+      </c>
+      <c r="G720" t="inlineStr">
+        <is>
+          <t>C:\Users\tuguldur.kh\Downloads\adscraper-full-code\banner_screenshots\news.mn\2025-09-18\news_banner_1758183624_182a52c8df.jpg</t>
+        </is>
+      </c>
+      <c r="H720" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I720" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="721">
+      <c r="A721" t="inlineStr">
+        <is>
+          <t>news.mn</t>
+        </is>
+      </c>
+      <c r="B721" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+      <c r="C721" t="inlineStr">
+        <is>
+          <t>https://news.mn/</t>
+        </is>
+      </c>
+      <c r="D721" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E721" t="inlineStr">
+        <is>
+          <t>https://news.mn/wp-content/uploads/2025/09/Promotion-BANNER-SEP-scaled.jpg</t>
+        </is>
+      </c>
+      <c r="F721" s="1" t="inlineStr">
+        <is>
+          <t>../https:/www.koreanair.com/contents/promotion/list/2025/ULN250901EN?pageNum=1</t>
+        </is>
+      </c>
+      <c r="G721" t="inlineStr">
+        <is>
+          <t>C:\Users\tuguldur.kh\Downloads\adscraper-full-code\banner_screenshots\news.mn\2025-09-18\news_banner_1758183624_30033c76a9.jpg</t>
+        </is>
+      </c>
+      <c r="H721" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I721" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="722">
+      <c r="A722" t="inlineStr">
+        <is>
+          <t>news.mn</t>
+        </is>
+      </c>
+      <c r="B722" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+      <c r="C722" t="inlineStr">
+        <is>
+          <t>https://news.mn/</t>
+        </is>
+      </c>
+      <c r="D722" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E722" t="inlineStr">
+        <is>
+          <t>https://news.mn/wp-content/uploads/2025/08/news-1-scaled.jpg</t>
+        </is>
+      </c>
+      <c r="F722" s="1" t="inlineStr">
+        <is>
+          <t>../https:/www.khanbank.com/personal/news/intelligence/7647</t>
+        </is>
+      </c>
+      <c r="G722" t="inlineStr">
+        <is>
+          <t>C:\Users\tuguldur.kh\Downloads\adscraper-full-code\banner_screenshots\news.mn\2025-09-18\news_banner_1758183624_8bb4eaa01d.jpg</t>
+        </is>
+      </c>
+      <c r="H722" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I722" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="723">
+      <c r="A723" t="inlineStr">
+        <is>
+          <t>news.mn</t>
+        </is>
+      </c>
+      <c r="B723" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+      <c r="C723" t="inlineStr">
+        <is>
+          <t>https://news.mn/</t>
+        </is>
+      </c>
+      <c r="D723" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E723" t="inlineStr">
+        <is>
+          <t>https://news.mn/wp-content/uploads/2025/09/2.-News-copy.jpg</t>
+        </is>
+      </c>
+      <c r="F723" s="1" t="inlineStr">
+        <is>
+          <t>../https:/www.khanbank.com/personal/news/intelligence/7657</t>
+        </is>
+      </c>
+      <c r="G723" t="inlineStr">
+        <is>
+          <t>C:\Users\tuguldur.kh\Downloads\adscraper-full-code\banner_screenshots\news.mn\2025-09-18\news_banner_1758183625_219001ac25.jpg</t>
+        </is>
+      </c>
+      <c r="H723" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I723" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="724">
+      <c r="A724" t="inlineStr">
+        <is>
+          <t>news.mn</t>
+        </is>
+      </c>
+      <c r="B724" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+      <c r="C724" t="inlineStr">
+        <is>
+          <t>https://news.mn/</t>
+        </is>
+      </c>
+      <c r="D724" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E724" t="inlineStr">
+        <is>
+          <t>https://news.mn/wp-content/uploads/2025/09/britto-News.mn-300x245-1.jpg</t>
+        </is>
+      </c>
+      <c r="F724" s="1" t="inlineStr">
+        <is>
+          <t>../https:/www.tdbm.mn/mn/news/brittobeleg</t>
+        </is>
+      </c>
+      <c r="G724" t="inlineStr">
+        <is>
+          <t>C:\Users\tuguldur.kh\Downloads\adscraper-full-code\banner_screenshots\news.mn\2025-09-18\news_banner_1758183625_d92e731fb1.jpg</t>
+        </is>
+      </c>
+      <c r="H724" t="inlineStr">
+        <is>
+          <t>300</t>
+        </is>
+      </c>
+      <c r="I724" t="inlineStr">
+        <is>
+          <t>245</t>
+        </is>
+      </c>
+    </row>
+    <row r="725">
+      <c r="A725" t="inlineStr">
+        <is>
+          <t>news.mn</t>
+        </is>
+      </c>
+      <c r="B725" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+      <c r="C725" t="inlineStr">
+        <is>
+          <t>https://news.mn/</t>
+        </is>
+      </c>
+      <c r="D725" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E725" t="inlineStr">
+        <is>
+          <t>https://news.mn/wp-content/uploads/2025/09/news.mn-300x250-1.png</t>
+        </is>
+      </c>
+      <c r="F725" s="1" t="inlineStr">
+        <is>
+          <t>../https:/www.golomtbank.com/news/49942</t>
+        </is>
+      </c>
+      <c r="G725" t="inlineStr">
+        <is>
+          <t>C:\Users\tuguldur.kh\Downloads\adscraper-full-code\banner_screenshots\news.mn\2025-09-18\news_banner_1758183625_05f2ffa0ec.png</t>
+        </is>
+      </c>
+      <c r="H725" t="inlineStr">
+        <is>
+          <t>300</t>
+        </is>
+      </c>
+      <c r="I725" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+    </row>
+    <row r="726">
+      <c r="A726" t="inlineStr">
+        <is>
+          <t>news.mn</t>
+        </is>
+      </c>
+      <c r="B726" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+      <c r="C726" t="inlineStr">
+        <is>
+          <t>https://news.mn/</t>
+        </is>
+      </c>
+      <c r="D726" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E726" t="inlineStr">
+        <is>
+          <t>https://news.mn/wp-content/uploads/2025/09/dyson-1-scaled.jpg</t>
+        </is>
+      </c>
+      <c r="F726" s="1" t="inlineStr">
+        <is>
+          <t>../https:/www.facebook.com/PCMallOfficial/posts/pfbid02n94s7a1HLmeM1u97NELbdxW28wEC5cJ3VV4VtdxAPqsgfYRmyBMJyAeKe6P2H6iel</t>
+        </is>
+      </c>
+      <c r="G726" t="inlineStr"/>
+      <c r="H726" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I726" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="727">
+      <c r="A727" t="inlineStr">
+        <is>
+          <t>news.mn</t>
+        </is>
+      </c>
+      <c r="B727" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+      <c r="C727" t="inlineStr">
+        <is>
+          <t>https://news.mn/</t>
+        </is>
+      </c>
+      <c r="D727" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E727" t="inlineStr">
+        <is>
+          <t>https://news.mn/wp-content/uploads/2025/09/Promotion-BANNER-SEP-scaled.jpg</t>
+        </is>
+      </c>
+      <c r="F727" s="1" t="inlineStr">
+        <is>
+          <t>../https:/www.koreanair.com/contents/promotion/list/2025/ULN250901EN?pageNum=1</t>
+        </is>
+      </c>
+      <c r="G727" t="inlineStr"/>
+      <c r="H727" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I727" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="728">
+      <c r="A728" t="inlineStr">
+        <is>
+          <t>news.mn</t>
+        </is>
+      </c>
+      <c r="B728" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+      <c r="C728" t="inlineStr">
+        <is>
+          <t>https://news.mn/</t>
+        </is>
+      </c>
+      <c r="D728" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E728" t="inlineStr">
+        <is>
+          <t>https://news.mn/wp-content/uploads/2025/08/news-1-scaled.jpg</t>
+        </is>
+      </c>
+      <c r="F728" s="1" t="inlineStr">
+        <is>
+          <t>../https:/www.khanbank.com/personal/news/intelligence/7647</t>
+        </is>
+      </c>
+      <c r="G728" t="inlineStr"/>
+      <c r="H728" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I728" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="729">
+      <c r="A729" t="inlineStr">
+        <is>
+          <t>news.mn</t>
+        </is>
+      </c>
+      <c r="B729" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+      <c r="C729" t="inlineStr">
+        <is>
+          <t>https://news.mn/</t>
+        </is>
+      </c>
+      <c r="D729" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E729" t="inlineStr">
+        <is>
+          <t>https://news.mn/wp-content/uploads/2025/09/2.-News-copy.jpg</t>
+        </is>
+      </c>
+      <c r="F729" s="1" t="inlineStr">
+        <is>
+          <t>../https:/www.khanbank.com/personal/news/intelligence/7657</t>
+        </is>
+      </c>
+      <c r="G729" t="inlineStr"/>
+      <c r="H729" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I729" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="730">
+      <c r="A730" t="inlineStr">
+        <is>
+          <t>news.mn</t>
+        </is>
+      </c>
+      <c r="B730" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+      <c r="C730" t="inlineStr">
+        <is>
+          <t>https://news.mn/</t>
+        </is>
+      </c>
+      <c r="D730" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E730" t="inlineStr">
+        <is>
+          <t>https://news.mn/wp-content/uploads/2025/09/britto-News.mn-300x245-1.jpg</t>
+        </is>
+      </c>
+      <c r="F730" s="1" t="inlineStr">
+        <is>
+          <t>../https:/www.tdbm.mn/mn/news/brittobeleg</t>
+        </is>
+      </c>
+      <c r="G730" t="inlineStr"/>
+      <c r="H730" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I730" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="731">
+      <c r="A731" t="inlineStr">
+        <is>
+          <t>news.mn</t>
+        </is>
+      </c>
+      <c r="B731" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+      <c r="C731" t="inlineStr">
+        <is>
+          <t>https://news.mn/</t>
+        </is>
+      </c>
+      <c r="D731" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E731" t="inlineStr">
+        <is>
+          <t>https://news.mn/wp-content/uploads/2025/09/news.mn-300x250-1.png</t>
+        </is>
+      </c>
+      <c r="F731" s="1" t="inlineStr">
+        <is>
+          <t>../https:/www.golomtbank.com/news/49942</t>
+        </is>
+      </c>
+      <c r="G731" t="inlineStr"/>
+      <c r="H731" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I731" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="732">
+      <c r="A732" t="inlineStr">
+        <is>
+          <t>news.mn</t>
+        </is>
+      </c>
+      <c r="B732" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+      <c r="C732" t="inlineStr">
+        <is>
+          <t>https://news.mn/</t>
+        </is>
+      </c>
+      <c r="D732" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E732" t="inlineStr">
+        <is>
+          <t>https://news.mn/wp-content/uploads/2025/09/dyson-1-scaled.jpg</t>
+        </is>
+      </c>
+      <c r="F732" s="1" t="inlineStr">
+        <is>
+          <t>../https:/www.facebook.com/PCMallOfficial/posts/pfbid02n94s7a1HLmeM1u97NELbdxW28wEC5cJ3VV4VtdxAPqsgfYRmyBMJyAeKe6P2H6iel</t>
+        </is>
+      </c>
+      <c r="G732" t="inlineStr"/>
+      <c r="H732" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I732" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="733">
+      <c r="A733" t="inlineStr">
+        <is>
+          <t>news.mn</t>
+        </is>
+      </c>
+      <c r="B733" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+      <c r="C733" t="inlineStr">
+        <is>
+          <t>https://news.mn/</t>
+        </is>
+      </c>
+      <c r="D733" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E733" t="inlineStr">
+        <is>
+          <t>https://news.mn/wp-content/uploads/2025/09/Promotion-BANNER-SEP-scaled.jpg</t>
+        </is>
+      </c>
+      <c r="F733" s="1" t="inlineStr">
+        <is>
+          <t>../https:/www.koreanair.com/contents/promotion/list/2025/ULN250901EN?pageNum=1</t>
+        </is>
+      </c>
+      <c r="G733" t="inlineStr"/>
+      <c r="H733" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I733" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="734">
+      <c r="A734" t="inlineStr">
+        <is>
+          <t>news.mn</t>
+        </is>
+      </c>
+      <c r="B734" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+      <c r="C734" t="inlineStr">
+        <is>
+          <t>https://news.mn/</t>
+        </is>
+      </c>
+      <c r="D734" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E734" t="inlineStr">
+        <is>
+          <t>https://news.mn/wp-content/uploads/2025/08/news-1-scaled.jpg</t>
+        </is>
+      </c>
+      <c r="F734" s="1" t="inlineStr">
+        <is>
+          <t>../https:/www.khanbank.com/personal/news/intelligence/7647</t>
+        </is>
+      </c>
+      <c r="G734" t="inlineStr"/>
+      <c r="H734" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I734" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="735">
+      <c r="A735" t="inlineStr">
+        <is>
+          <t>news.mn</t>
+        </is>
+      </c>
+      <c r="B735" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+      <c r="C735" t="inlineStr">
+        <is>
+          <t>https://news.mn/</t>
+        </is>
+      </c>
+      <c r="D735" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E735" t="inlineStr">
+        <is>
+          <t>https://news.mn/wp-content/uploads/2025/09/2.-News-copy.jpg</t>
+        </is>
+      </c>
+      <c r="F735" s="1" t="inlineStr">
+        <is>
+          <t>../https:/www.khanbank.com/personal/news/intelligence/7657</t>
+        </is>
+      </c>
+      <c r="G735" t="inlineStr"/>
+      <c r="H735" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I735" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="736">
+      <c r="A736" t="inlineStr">
+        <is>
+          <t>news.mn</t>
+        </is>
+      </c>
+      <c r="B736" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+      <c r="C736" t="inlineStr">
+        <is>
+          <t>https://news.mn/</t>
+        </is>
+      </c>
+      <c r="D736" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E736" t="inlineStr">
+        <is>
+          <t>https://news.mn/wp-content/uploads/2025/09/britto-News.mn-300x245-1.jpg</t>
+        </is>
+      </c>
+      <c r="F736" s="1" t="inlineStr">
+        <is>
+          <t>../https:/www.tdbm.mn/mn/news/brittobeleg</t>
+        </is>
+      </c>
+      <c r="G736" t="inlineStr"/>
+      <c r="H736" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I736" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="737">
+      <c r="A737" t="inlineStr">
+        <is>
+          <t>news.mn</t>
+        </is>
+      </c>
+      <c r="B737" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+      <c r="C737" t="inlineStr">
+        <is>
+          <t>https://news.mn/</t>
+        </is>
+      </c>
+      <c r="D737" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E737" t="inlineStr">
+        <is>
+          <t>https://news.mn/wp-content/uploads/2025/09/news.mn-300x250-1.png</t>
+        </is>
+      </c>
+      <c r="F737" s="1" t="inlineStr">
+        <is>
+          <t>../https:/www.golomtbank.com/news/49942</t>
+        </is>
+      </c>
+      <c r="G737" t="inlineStr"/>
+      <c r="H737" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I737" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="738">
+      <c r="A738" t="inlineStr">
+        <is>
+          <t>news.mn</t>
+        </is>
+      </c>
+      <c r="B738" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+      <c r="C738" t="inlineStr">
+        <is>
+          <t>https://news.mn/</t>
+        </is>
+      </c>
+      <c r="D738" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E738" t="inlineStr">
+        <is>
+          <t>https://news.mn/wp-content/uploads/2025/09/dyson-1-scaled.jpg</t>
+        </is>
+      </c>
+      <c r="F738" s="1" t="inlineStr">
+        <is>
+          <t>../https:/www.facebook.com/PCMallOfficial/posts/pfbid02n94s7a1HLmeM1u97NELbdxW28wEC5cJ3VV4VtdxAPqsgfYRmyBMJyAeKe6P2H6iel</t>
+        </is>
+      </c>
+      <c r="G738" t="inlineStr"/>
+      <c r="H738" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I738" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="739">
+      <c r="A739" t="inlineStr">
+        <is>
+          <t>news.mn</t>
+        </is>
+      </c>
+      <c r="B739" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+      <c r="C739" t="inlineStr">
+        <is>
+          <t>https://news.mn/</t>
+        </is>
+      </c>
+      <c r="D739" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E739" t="inlineStr">
+        <is>
+          <t>https://news.mn/wp-content/uploads/2025/09/Promotion-BANNER-SEP-scaled.jpg</t>
+        </is>
+      </c>
+      <c r="F739" s="1" t="inlineStr">
+        <is>
+          <t>../https:/www.koreanair.com/contents/promotion/list/2025/ULN250901EN?pageNum=1</t>
+        </is>
+      </c>
+      <c r="G739" t="inlineStr"/>
+      <c r="H739" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I739" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="740">
+      <c r="A740" t="inlineStr">
+        <is>
+          <t>news.mn</t>
+        </is>
+      </c>
+      <c r="B740" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+      <c r="C740" t="inlineStr">
+        <is>
+          <t>https://news.mn/</t>
+        </is>
+      </c>
+      <c r="D740" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E740" t="inlineStr">
+        <is>
+          <t>https://news.mn/wp-content/uploads/2025/08/news-1-scaled.jpg</t>
+        </is>
+      </c>
+      <c r="F740" s="1" t="inlineStr">
+        <is>
+          <t>../https:/www.khanbank.com/personal/news/intelligence/7647</t>
+        </is>
+      </c>
+      <c r="G740" t="inlineStr"/>
+      <c r="H740" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I740" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="741">
+      <c r="A741" t="inlineStr">
+        <is>
+          <t>news.mn</t>
+        </is>
+      </c>
+      <c r="B741" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+      <c r="C741" t="inlineStr">
+        <is>
+          <t>https://news.mn/</t>
+        </is>
+      </c>
+      <c r="D741" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E741" t="inlineStr">
+        <is>
+          <t>https://news.mn/wp-content/uploads/2025/09/2.-News-copy.jpg</t>
+        </is>
+      </c>
+      <c r="F741" s="1" t="inlineStr">
+        <is>
+          <t>../https:/www.khanbank.com/personal/news/intelligence/7657</t>
+        </is>
+      </c>
+      <c r="G741" t="inlineStr"/>
+      <c r="H741" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I741" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="742">
+      <c r="A742" t="inlineStr">
+        <is>
+          <t>news.mn</t>
+        </is>
+      </c>
+      <c r="B742" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+      <c r="C742" t="inlineStr">
+        <is>
+          <t>https://news.mn/</t>
+        </is>
+      </c>
+      <c r="D742" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E742" t="inlineStr">
+        <is>
+          <t>https://news.mn/wp-content/uploads/2025/09/britto-News.mn-300x245-1.jpg</t>
+        </is>
+      </c>
+      <c r="F742" s="1" t="inlineStr">
+        <is>
+          <t>../https:/www.tdbm.mn/mn/news/brittobeleg</t>
+        </is>
+      </c>
+      <c r="G742" t="inlineStr"/>
+      <c r="H742" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I742" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="743">
+      <c r="A743" t="inlineStr">
+        <is>
+          <t>news.mn</t>
+        </is>
+      </c>
+      <c r="B743" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+      <c r="C743" t="inlineStr">
+        <is>
+          <t>https://news.mn/</t>
+        </is>
+      </c>
+      <c r="D743" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E743" t="inlineStr">
+        <is>
+          <t>https://news.mn/wp-content/uploads/2025/09/news.mn-300x250-1.png</t>
+        </is>
+      </c>
+      <c r="F743" s="1" t="inlineStr">
+        <is>
+          <t>../https:/www.golomtbank.com/news/49942</t>
+        </is>
+      </c>
+      <c r="G743" t="inlineStr"/>
+      <c r="H743" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I743" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="744">
+      <c r="A744" t="inlineStr">
+        <is>
+          <t>news.mn</t>
+        </is>
+      </c>
+      <c r="B744" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+      <c r="C744" t="inlineStr">
+        <is>
+          <t>https://news.mn/</t>
+        </is>
+      </c>
+      <c r="D744" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E744" t="inlineStr">
+        <is>
+          <t>https://news.mn/wp-content/uploads/2025/09/dyson-1-scaled.jpg</t>
+        </is>
+      </c>
+      <c r="F744" s="1" t="inlineStr">
+        <is>
+          <t>../https:/www.facebook.com/PCMallOfficial/posts/pfbid02n94s7a1HLmeM1u97NELbdxW28wEC5cJ3VV4VtdxAPqsgfYRmyBMJyAeKe6P2H6iel</t>
+        </is>
+      </c>
+      <c r="G744" t="inlineStr"/>
+      <c r="H744" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I744" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="745">
+      <c r="A745" t="inlineStr">
+        <is>
+          <t>news.mn</t>
+        </is>
+      </c>
+      <c r="B745" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+      <c r="C745" t="inlineStr">
+        <is>
+          <t>https://news.mn/</t>
+        </is>
+      </c>
+      <c r="D745" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E745" t="inlineStr">
+        <is>
+          <t>https://news.mn/wp-content/uploads/2025/09/Promotion-BANNER-SEP-scaled.jpg</t>
+        </is>
+      </c>
+      <c r="F745" s="1" t="inlineStr">
+        <is>
+          <t>../https:/www.koreanair.com/contents/promotion/list/2025/ULN250901EN?pageNum=1</t>
+        </is>
+      </c>
+      <c r="G745" t="inlineStr"/>
+      <c r="H745" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I745" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="746">
+      <c r="A746" t="inlineStr">
+        <is>
+          <t>news.mn</t>
+        </is>
+      </c>
+      <c r="B746" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+      <c r="C746" t="inlineStr">
+        <is>
+          <t>https://news.mn/</t>
+        </is>
+      </c>
+      <c r="D746" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E746" t="inlineStr">
+        <is>
+          <t>https://news.mn/wp-content/uploads/2025/08/news-1-scaled.jpg</t>
+        </is>
+      </c>
+      <c r="F746" s="1" t="inlineStr">
+        <is>
+          <t>../https:/www.khanbank.com/personal/news/intelligence/7647</t>
+        </is>
+      </c>
+      <c r="G746" t="inlineStr"/>
+      <c r="H746" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I746" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="747">
+      <c r="A747" t="inlineStr">
+        <is>
+          <t>news.mn</t>
+        </is>
+      </c>
+      <c r="B747" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+      <c r="C747" t="inlineStr">
+        <is>
+          <t>https://news.mn/</t>
+        </is>
+      </c>
+      <c r="D747" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E747" t="inlineStr">
+        <is>
+          <t>https://news.mn/wp-content/uploads/2025/09/2.-News-copy.jpg</t>
+        </is>
+      </c>
+      <c r="F747" s="1" t="inlineStr">
+        <is>
+          <t>../https:/www.khanbank.com/personal/news/intelligence/7657</t>
+        </is>
+      </c>
+      <c r="G747" t="inlineStr"/>
+      <c r="H747" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I747" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="748">
+      <c r="A748" t="inlineStr">
+        <is>
+          <t>news.mn</t>
+        </is>
+      </c>
+      <c r="B748" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+      <c r="C748" t="inlineStr">
+        <is>
+          <t>https://news.mn/</t>
+        </is>
+      </c>
+      <c r="D748" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E748" t="inlineStr">
+        <is>
+          <t>https://news.mn/wp-content/uploads/2025/09/britto-News.mn-300x245-1.jpg</t>
+        </is>
+      </c>
+      <c r="F748" s="1" t="inlineStr">
+        <is>
+          <t>../https:/www.tdbm.mn/mn/news/brittobeleg</t>
+        </is>
+      </c>
+      <c r="G748" t="inlineStr"/>
+      <c r="H748" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I748" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="749">
+      <c r="A749" t="inlineStr">
+        <is>
+          <t>news.mn</t>
+        </is>
+      </c>
+      <c r="B749" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+      <c r="C749" t="inlineStr">
+        <is>
+          <t>https://news.mn/</t>
+        </is>
+      </c>
+      <c r="D749" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E749" t="inlineStr">
+        <is>
+          <t>https://news.mn/wp-content/uploads/2025/09/news.mn-300x250-1.png</t>
+        </is>
+      </c>
+      <c r="F749" s="1" t="inlineStr">
+        <is>
+          <t>../https:/www.golomtbank.com/news/49942</t>
+        </is>
+      </c>
+      <c r="G749" t="inlineStr"/>
+      <c r="H749" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I749" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="750">
+      <c r="A750" t="inlineStr">
+        <is>
+          <t>news.mn</t>
+        </is>
+      </c>
+      <c r="B750" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+      <c r="C750" t="inlineStr">
+        <is>
+          <t>https://news.mn/</t>
+        </is>
+      </c>
+      <c r="D750" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E750" t="inlineStr">
+        <is>
+          <t>https://news.mn/wp-content/uploads/2025/09/dyson-1-scaled.jpg</t>
+        </is>
+      </c>
+      <c r="F750" s="1" t="inlineStr">
+        <is>
+          <t>../https:/www.facebook.com/PCMallOfficial/posts/pfbid02n94s7a1HLmeM1u97NELbdxW28wEC5cJ3VV4VtdxAPqsgfYRmyBMJyAeKe6P2H6iel</t>
+        </is>
+      </c>
+      <c r="G750" t="inlineStr"/>
+      <c r="H750" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I750" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="751">
+      <c r="A751" t="inlineStr">
+        <is>
+          <t>news.mn</t>
+        </is>
+      </c>
+      <c r="B751" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+      <c r="C751" t="inlineStr">
+        <is>
+          <t>https://news.mn/</t>
+        </is>
+      </c>
+      <c r="D751" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E751" t="inlineStr">
+        <is>
+          <t>https://news.mn/wp-content/uploads/2025/09/Promotion-BANNER-SEP-scaled.jpg</t>
+        </is>
+      </c>
+      <c r="F751" s="1" t="inlineStr">
+        <is>
+          <t>../https:/www.koreanair.com/contents/promotion/list/2025/ULN250901EN?pageNum=1</t>
+        </is>
+      </c>
+      <c r="G751" t="inlineStr"/>
+      <c r="H751" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I751" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="752">
+      <c r="A752" t="inlineStr">
+        <is>
+          <t>news.mn</t>
+        </is>
+      </c>
+      <c r="B752" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+      <c r="C752" t="inlineStr">
+        <is>
+          <t>https://news.mn/</t>
+        </is>
+      </c>
+      <c r="D752" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E752" t="inlineStr">
+        <is>
+          <t>https://news.mn/wp-content/uploads/2025/08/news-1-scaled.jpg</t>
+        </is>
+      </c>
+      <c r="F752" s="1" t="inlineStr">
+        <is>
+          <t>../https:/www.khanbank.com/personal/news/intelligence/7647</t>
+        </is>
+      </c>
+      <c r="G752" t="inlineStr"/>
+      <c r="H752" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I752" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="753">
+      <c r="A753" t="inlineStr">
+        <is>
+          <t>news.mn</t>
+        </is>
+      </c>
+      <c r="B753" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+      <c r="C753" t="inlineStr">
+        <is>
+          <t>https://news.mn/</t>
+        </is>
+      </c>
+      <c r="D753" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E753" t="inlineStr">
+        <is>
+          <t>https://news.mn/wp-content/uploads/2025/09/2.-News-copy.jpg</t>
+        </is>
+      </c>
+      <c r="F753" s="1" t="inlineStr">
+        <is>
+          <t>../https:/www.khanbank.com/personal/news/intelligence/7657</t>
+        </is>
+      </c>
+      <c r="G753" t="inlineStr"/>
+      <c r="H753" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I753" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="754">
+      <c r="A754" t="inlineStr">
+        <is>
+          <t>news.mn</t>
+        </is>
+      </c>
+      <c r="B754" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+      <c r="C754" t="inlineStr">
+        <is>
+          <t>https://news.mn/</t>
+        </is>
+      </c>
+      <c r="D754" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E754" t="inlineStr">
+        <is>
+          <t>https://news.mn/wp-content/uploads/2025/09/britto-News.mn-300x245-1.jpg</t>
+        </is>
+      </c>
+      <c r="F754" s="1" t="inlineStr">
+        <is>
+          <t>../https:/www.tdbm.mn/mn/news/brittobeleg</t>
+        </is>
+      </c>
+      <c r="G754" t="inlineStr"/>
+      <c r="H754" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I754" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="755">
+      <c r="A755" t="inlineStr">
+        <is>
+          <t>news.mn</t>
+        </is>
+      </c>
+      <c r="B755" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+      <c r="C755" t="inlineStr">
+        <is>
+          <t>https://news.mn/</t>
+        </is>
+      </c>
+      <c r="D755" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E755" t="inlineStr">
+        <is>
+          <t>https://news.mn/wp-content/uploads/2025/09/news.mn-300x250-1.png</t>
+        </is>
+      </c>
+      <c r="F755" s="1" t="inlineStr">
+        <is>
+          <t>../https:/www.golomtbank.com/news/49942</t>
+        </is>
+      </c>
+      <c r="G755" t="inlineStr"/>
+      <c r="H755" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I755" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="756">
+      <c r="A756" t="inlineStr">
+        <is>
+          <t>news.mn</t>
+        </is>
+      </c>
+      <c r="B756" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+      <c r="C756" t="inlineStr">
+        <is>
+          <t>https://news.mn/</t>
+        </is>
+      </c>
+      <c r="D756" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E756" t="inlineStr">
+        <is>
+          <t>https://news.mn/wp-content/uploads/2025/09/dyson-1-scaled.jpg</t>
+        </is>
+      </c>
+      <c r="F756" s="1" t="inlineStr">
+        <is>
+          <t>../https:/www.facebook.com/PCMallOfficial/posts/pfbid02n94s7a1HLmeM1u97NELbdxW28wEC5cJ3VV4VtdxAPqsgfYRmyBMJyAeKe6P2H6iel</t>
+        </is>
+      </c>
+      <c r="G756" t="inlineStr"/>
+      <c r="H756" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I756" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="757">
+      <c r="A757" t="inlineStr">
+        <is>
+          <t>news.mn</t>
+        </is>
+      </c>
+      <c r="B757" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+      <c r="C757" t="inlineStr">
+        <is>
+          <t>https://news.mn/</t>
+        </is>
+      </c>
+      <c r="D757" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E757" t="inlineStr">
+        <is>
+          <t>https://news.mn/wp-content/uploads/2025/09/Promotion-BANNER-SEP-scaled.jpg</t>
+        </is>
+      </c>
+      <c r="F757" s="1" t="inlineStr">
+        <is>
+          <t>../https:/www.koreanair.com/contents/promotion/list/2025/ULN250901EN?pageNum=1</t>
+        </is>
+      </c>
+      <c r="G757" t="inlineStr"/>
+      <c r="H757" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I757" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="758">
+      <c r="A758" t="inlineStr">
+        <is>
+          <t>news.mn</t>
+        </is>
+      </c>
+      <c r="B758" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+      <c r="C758" t="inlineStr">
+        <is>
+          <t>https://news.mn/</t>
+        </is>
+      </c>
+      <c r="D758" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E758" t="inlineStr">
+        <is>
+          <t>https://news.mn/wp-content/uploads/2025/08/news-1-scaled.jpg</t>
+        </is>
+      </c>
+      <c r="F758" s="1" t="inlineStr">
+        <is>
+          <t>../https:/www.khanbank.com/personal/news/intelligence/7647</t>
+        </is>
+      </c>
+      <c r="G758" t="inlineStr"/>
+      <c r="H758" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I758" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="759">
+      <c r="A759" t="inlineStr">
+        <is>
+          <t>news.mn</t>
+        </is>
+      </c>
+      <c r="B759" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+      <c r="C759" t="inlineStr">
+        <is>
+          <t>https://news.mn/</t>
+        </is>
+      </c>
+      <c r="D759" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E759" t="inlineStr">
+        <is>
+          <t>https://news.mn/wp-content/uploads/2025/09/2.-News-copy.jpg</t>
+        </is>
+      </c>
+      <c r="F759" s="1" t="inlineStr">
+        <is>
+          <t>../https:/www.khanbank.com/personal/news/intelligence/7657</t>
+        </is>
+      </c>
+      <c r="G759" t="inlineStr"/>
+      <c r="H759" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I759" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="760">
+      <c r="A760" t="inlineStr">
+        <is>
+          <t>news.mn</t>
+        </is>
+      </c>
+      <c r="B760" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+      <c r="C760" t="inlineStr">
+        <is>
+          <t>https://news.mn/</t>
+        </is>
+      </c>
+      <c r="D760" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E760" t="inlineStr">
+        <is>
+          <t>https://news.mn/wp-content/uploads/2025/09/britto-News.mn-300x245-1.jpg</t>
+        </is>
+      </c>
+      <c r="F760" s="1" t="inlineStr">
+        <is>
+          <t>../https:/www.tdbm.mn/mn/news/brittobeleg</t>
+        </is>
+      </c>
+      <c r="G760" t="inlineStr"/>
+      <c r="H760" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I760" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="761">
+      <c r="A761" t="inlineStr">
+        <is>
+          <t>news.mn</t>
+        </is>
+      </c>
+      <c r="B761" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+      <c r="C761" t="inlineStr">
+        <is>
+          <t>https://news.mn/</t>
+        </is>
+      </c>
+      <c r="D761" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E761" t="inlineStr">
+        <is>
+          <t>https://news.mn/wp-content/uploads/2025/09/news.mn-300x250-1.png</t>
+        </is>
+      </c>
+      <c r="F761" s="1" t="inlineStr">
+        <is>
+          <t>../https:/www.golomtbank.com/news/49942</t>
+        </is>
+      </c>
+      <c r="G761" t="inlineStr"/>
+      <c r="H761" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I761" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="762">
+      <c r="A762" t="inlineStr">
+        <is>
+          <t>news.mn</t>
+        </is>
+      </c>
+      <c r="B762" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+      <c r="C762" t="inlineStr">
+        <is>
+          <t>https://news.mn/</t>
+        </is>
+      </c>
+      <c r="D762" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E762" t="inlineStr">
+        <is>
+          <t>https://news.mn/wp-content/uploads/2025/09/dyson-1-scaled.jpg</t>
+        </is>
+      </c>
+      <c r="F762" s="1" t="inlineStr">
+        <is>
+          <t>../https:/www.facebook.com/PCMallOfficial/posts/pfbid02n94s7a1HLmeM1u97NELbdxW28wEC5cJ3VV4VtdxAPqsgfYRmyBMJyAeKe6P2H6iel</t>
+        </is>
+      </c>
+      <c r="G762" t="inlineStr"/>
+      <c r="H762" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I762" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="763">
+      <c r="A763" t="inlineStr">
+        <is>
+          <t>news.mn</t>
+        </is>
+      </c>
+      <c r="B763" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+      <c r="C763" t="inlineStr">
+        <is>
+          <t>https://news.mn/</t>
+        </is>
+      </c>
+      <c r="D763" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E763" t="inlineStr">
+        <is>
+          <t>https://news.mn/wp-content/uploads/2025/09/Promotion-BANNER-SEP-scaled.jpg</t>
+        </is>
+      </c>
+      <c r="F763" s="1" t="inlineStr">
+        <is>
+          <t>../https:/www.koreanair.com/contents/promotion/list/2025/ULN250901EN?pageNum=1</t>
+        </is>
+      </c>
+      <c r="G763" t="inlineStr"/>
+      <c r="H763" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I763" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="764">
+      <c r="A764" t="inlineStr">
+        <is>
+          <t>news.mn</t>
+        </is>
+      </c>
+      <c r="B764" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+      <c r="C764" t="inlineStr">
+        <is>
+          <t>https://news.mn/</t>
+        </is>
+      </c>
+      <c r="D764" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E764" t="inlineStr">
+        <is>
+          <t>https://news.mn/wp-content/uploads/2025/08/news-1-scaled.jpg</t>
+        </is>
+      </c>
+      <c r="F764" s="1" t="inlineStr">
+        <is>
+          <t>../https:/www.khanbank.com/personal/news/intelligence/7647</t>
+        </is>
+      </c>
+      <c r="G764" t="inlineStr"/>
+      <c r="H764" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I764" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="765">
+      <c r="A765" t="inlineStr">
+        <is>
+          <t>news.mn</t>
+        </is>
+      </c>
+      <c r="B765" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+      <c r="C765" t="inlineStr">
+        <is>
+          <t>https://news.mn/</t>
+        </is>
+      </c>
+      <c r="D765" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E765" t="inlineStr">
+        <is>
+          <t>https://news.mn/wp-content/uploads/2025/09/2.-News-copy.jpg</t>
+        </is>
+      </c>
+      <c r="F765" s="1" t="inlineStr">
+        <is>
+          <t>../https:/www.khanbank.com/personal/news/intelligence/7657</t>
+        </is>
+      </c>
+      <c r="G765" t="inlineStr"/>
+      <c r="H765" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I765" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="766">
+      <c r="A766" t="inlineStr">
+        <is>
+          <t>news.mn</t>
+        </is>
+      </c>
+      <c r="B766" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+      <c r="C766" t="inlineStr">
+        <is>
+          <t>https://news.mn/</t>
+        </is>
+      </c>
+      <c r="D766" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E766" t="inlineStr">
+        <is>
+          <t>https://news.mn/wp-content/uploads/2025/09/britto-News.mn-300x245-1.jpg</t>
+        </is>
+      </c>
+      <c r="F766" s="1" t="inlineStr">
+        <is>
+          <t>../https:/www.tdbm.mn/mn/news/brittobeleg</t>
+        </is>
+      </c>
+      <c r="G766" t="inlineStr"/>
+      <c r="H766" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I766" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="767">
+      <c r="A767" t="inlineStr">
+        <is>
+          <t>news.mn</t>
+        </is>
+      </c>
+      <c r="B767" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+      <c r="C767" t="inlineStr">
+        <is>
+          <t>https://news.mn/</t>
+        </is>
+      </c>
+      <c r="D767" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E767" t="inlineStr">
+        <is>
+          <t>https://news.mn/wp-content/uploads/2025/09/news.mn-300x250-1.png</t>
+        </is>
+      </c>
+      <c r="F767" s="1" t="inlineStr">
+        <is>
+          <t>../https:/www.golomtbank.com/news/49942</t>
+        </is>
+      </c>
+      <c r="G767" t="inlineStr"/>
+      <c r="H767" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I767" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="768">
+      <c r="A768" t="inlineStr">
+        <is>
+          <t>news.mn</t>
+        </is>
+      </c>
+      <c r="B768" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+      <c r="C768" t="inlineStr">
+        <is>
+          <t>https://news.mn/</t>
+        </is>
+      </c>
+      <c r="D768" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E768" t="inlineStr">
+        <is>
+          <t>https://news.mn/wp-content/uploads/2025/09/dyson-1-scaled.jpg</t>
+        </is>
+      </c>
+      <c r="F768" s="1" t="inlineStr">
+        <is>
+          <t>../https:/www.facebook.com/PCMallOfficial/posts/pfbid02n94s7a1HLmeM1u97NELbdxW28wEC5cJ3VV4VtdxAPqsgfYRmyBMJyAeKe6P2H6iel</t>
+        </is>
+      </c>
+      <c r="G768" t="inlineStr"/>
+      <c r="H768" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I768" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="769">
+      <c r="A769" t="inlineStr">
+        <is>
+          <t>news.mn</t>
+        </is>
+      </c>
+      <c r="B769" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+      <c r="C769" t="inlineStr">
+        <is>
+          <t>https://news.mn/</t>
+        </is>
+      </c>
+      <c r="D769" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E769" t="inlineStr">
+        <is>
+          <t>https://news.mn/wp-content/uploads/2025/09/Promotion-BANNER-SEP-scaled.jpg</t>
+        </is>
+      </c>
+      <c r="F769" s="1" t="inlineStr">
+        <is>
+          <t>../https:/www.koreanair.com/contents/promotion/list/2025/ULN250901EN?pageNum=1</t>
+        </is>
+      </c>
+      <c r="G769" t="inlineStr"/>
+      <c r="H769" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I769" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="770">
+      <c r="A770" t="inlineStr">
+        <is>
+          <t>news.mn</t>
+        </is>
+      </c>
+      <c r="B770" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+      <c r="C770" t="inlineStr">
+        <is>
+          <t>https://news.mn/</t>
+        </is>
+      </c>
+      <c r="D770" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E770" t="inlineStr">
+        <is>
+          <t>https://news.mn/wp-content/uploads/2025/08/news-1-scaled.jpg</t>
+        </is>
+      </c>
+      <c r="F770" s="1" t="inlineStr">
+        <is>
+          <t>../https:/www.khanbank.com/personal/news/intelligence/7647</t>
+        </is>
+      </c>
+      <c r="G770" t="inlineStr"/>
+      <c r="H770" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I770" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="771">
+      <c r="A771" t="inlineStr">
+        <is>
+          <t>news.mn</t>
+        </is>
+      </c>
+      <c r="B771" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+      <c r="C771" t="inlineStr">
+        <is>
+          <t>https://news.mn/</t>
+        </is>
+      </c>
+      <c r="D771" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E771" t="inlineStr">
+        <is>
+          <t>https://news.mn/wp-content/uploads/2025/09/2.-News-copy.jpg</t>
+        </is>
+      </c>
+      <c r="F771" s="1" t="inlineStr">
+        <is>
+          <t>../https:/www.khanbank.com/personal/news/intelligence/7657</t>
+        </is>
+      </c>
+      <c r="G771" t="inlineStr"/>
+      <c r="H771" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I771" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="772">
+      <c r="A772" t="inlineStr">
+        <is>
+          <t>news.mn</t>
+        </is>
+      </c>
+      <c r="B772" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+      <c r="C772" t="inlineStr">
+        <is>
+          <t>https://news.mn/</t>
+        </is>
+      </c>
+      <c r="D772" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E772" t="inlineStr">
+        <is>
+          <t>https://news.mn/wp-content/uploads/2025/09/britto-News.mn-300x245-1.jpg</t>
+        </is>
+      </c>
+      <c r="F772" s="1" t="inlineStr">
+        <is>
+          <t>../https:/www.tdbm.mn/mn/news/brittobeleg</t>
+        </is>
+      </c>
+      <c r="G772" t="inlineStr"/>
+      <c r="H772" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I772" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="773">
+      <c r="A773" t="inlineStr">
+        <is>
+          <t>news.mn</t>
+        </is>
+      </c>
+      <c r="B773" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+      <c r="C773" t="inlineStr">
+        <is>
+          <t>https://news.mn/</t>
+        </is>
+      </c>
+      <c r="D773" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E773" t="inlineStr">
+        <is>
+          <t>https://news.mn/wp-content/uploads/2025/09/news.mn-300x250-1.png</t>
+        </is>
+      </c>
+      <c r="F773" s="1" t="inlineStr">
+        <is>
+          <t>../https:/www.golomtbank.com/news/49942</t>
+        </is>
+      </c>
+      <c r="G773" t="inlineStr"/>
+      <c r="H773" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I773" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="774">
+      <c r="A774" t="inlineStr">
+        <is>
+          <t>news.mn</t>
+        </is>
+      </c>
+      <c r="B774" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+      <c r="C774" t="inlineStr">
+        <is>
+          <t>https://news.mn/</t>
+        </is>
+      </c>
+      <c r="D774" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E774" t="inlineStr">
+        <is>
+          <t>https://news.mn/wp-content/uploads/2025/09/dyson-1-scaled.jpg</t>
+        </is>
+      </c>
+      <c r="F774" s="1" t="inlineStr">
+        <is>
+          <t>../https:/www.facebook.com/PCMallOfficial/posts/pfbid02n94s7a1HLmeM1u97NELbdxW28wEC5cJ3VV4VtdxAPqsgfYRmyBMJyAeKe6P2H6iel</t>
+        </is>
+      </c>
+      <c r="G774" t="inlineStr"/>
+      <c r="H774" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I774" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="775">
+      <c r="A775" t="inlineStr">
+        <is>
+          <t>news.mn</t>
+        </is>
+      </c>
+      <c r="B775" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+      <c r="C775" t="inlineStr">
+        <is>
+          <t>https://news.mn/</t>
+        </is>
+      </c>
+      <c r="D775" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E775" t="inlineStr">
+        <is>
+          <t>https://news.mn/wp-content/uploads/2025/09/Promotion-BANNER-SEP-scaled.jpg</t>
+        </is>
+      </c>
+      <c r="F775" s="1" t="inlineStr">
+        <is>
+          <t>../https:/www.koreanair.com/contents/promotion/list/2025/ULN250901EN?pageNum=1</t>
+        </is>
+      </c>
+      <c r="G775" t="inlineStr"/>
+      <c r="H775" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I775" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="776">
+      <c r="A776" t="inlineStr">
+        <is>
+          <t>news.mn</t>
+        </is>
+      </c>
+      <c r="B776" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+      <c r="C776" t="inlineStr">
+        <is>
+          <t>https://news.mn/</t>
+        </is>
+      </c>
+      <c r="D776" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E776" t="inlineStr">
+        <is>
+          <t>https://news.mn/wp-content/uploads/2025/08/news-1-scaled.jpg</t>
+        </is>
+      </c>
+      <c r="F776" s="1" t="inlineStr">
+        <is>
+          <t>../https:/www.khanbank.com/personal/news/intelligence/7647</t>
+        </is>
+      </c>
+      <c r="G776" t="inlineStr"/>
+      <c r="H776" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I776" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="777">
+      <c r="A777" t="inlineStr">
+        <is>
+          <t>news.mn</t>
+        </is>
+      </c>
+      <c r="B777" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+      <c r="C777" t="inlineStr">
+        <is>
+          <t>https://news.mn/</t>
+        </is>
+      </c>
+      <c r="D777" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E777" t="inlineStr">
+        <is>
+          <t>https://news.mn/wp-content/uploads/2025/09/2.-News-copy.jpg</t>
+        </is>
+      </c>
+      <c r="F777" s="1" t="inlineStr">
+        <is>
+          <t>../https:/www.khanbank.com/personal/news/intelligence/7657</t>
+        </is>
+      </c>
+      <c r="G777" t="inlineStr"/>
+      <c r="H777" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I777" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="778">
+      <c r="A778" t="inlineStr">
+        <is>
+          <t>news.mn</t>
+        </is>
+      </c>
+      <c r="B778" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+      <c r="C778" t="inlineStr">
+        <is>
+          <t>https://news.mn/</t>
+        </is>
+      </c>
+      <c r="D778" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E778" t="inlineStr">
+        <is>
+          <t>https://news.mn/wp-content/uploads/2025/09/britto-News.mn-300x245-1.jpg</t>
+        </is>
+      </c>
+      <c r="F778" s="1" t="inlineStr">
+        <is>
+          <t>../https:/www.tdbm.mn/mn/news/brittobeleg</t>
+        </is>
+      </c>
+      <c r="G778" t="inlineStr"/>
+      <c r="H778" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I778" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="779">
+      <c r="A779" t="inlineStr">
+        <is>
+          <t>news.mn</t>
+        </is>
+      </c>
+      <c r="B779" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+      <c r="C779" t="inlineStr">
+        <is>
+          <t>https://news.mn/</t>
+        </is>
+      </c>
+      <c r="D779" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E779" t="inlineStr">
+        <is>
+          <t>https://news.mn/wp-content/uploads/2025/09/news.mn-300x250-1.png</t>
+        </is>
+      </c>
+      <c r="F779" s="1" t="inlineStr">
+        <is>
+          <t>../https:/www.golomtbank.com/news/49942</t>
+        </is>
+      </c>
+      <c r="G779" t="inlineStr"/>
+      <c r="H779" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I779" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="780">
+      <c r="A780" t="inlineStr">
+        <is>
+          <t>news.mn</t>
+        </is>
+      </c>
+      <c r="B780" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+      <c r="C780" t="inlineStr">
+        <is>
+          <t>https://news.mn/</t>
+        </is>
+      </c>
+      <c r="D780" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E780" t="inlineStr">
+        <is>
+          <t>https://news.mn/wp-content/uploads/2025/09/dyson-1-scaled.jpg</t>
+        </is>
+      </c>
+      <c r="F780" s="1" t="inlineStr">
+        <is>
+          <t>../https:/www.facebook.com/PCMallOfficial/posts/pfbid02n94s7a1HLmeM1u97NELbdxW28wEC5cJ3VV4VtdxAPqsgfYRmyBMJyAeKe6P2H6iel</t>
+        </is>
+      </c>
+      <c r="G780" t="inlineStr"/>
+      <c r="H780" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I780" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="781">
+      <c r="A781" t="inlineStr">
+        <is>
+          <t>news.mn</t>
+        </is>
+      </c>
+      <c r="B781" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+      <c r="C781" t="inlineStr">
+        <is>
+          <t>https://news.mn/</t>
+        </is>
+      </c>
+      <c r="D781" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E781" t="inlineStr">
+        <is>
+          <t>https://news.mn/wp-content/uploads/2025/09/Promotion-BANNER-SEP-scaled.jpg</t>
+        </is>
+      </c>
+      <c r="F781" s="1" t="inlineStr">
+        <is>
+          <t>../https:/www.koreanair.com/contents/promotion/list/2025/ULN250901EN?pageNum=1</t>
+        </is>
+      </c>
+      <c r="G781" t="inlineStr"/>
+      <c r="H781" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I781" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="782">
+      <c r="A782" t="inlineStr">
+        <is>
+          <t>news.mn</t>
+        </is>
+      </c>
+      <c r="B782" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+      <c r="C782" t="inlineStr">
+        <is>
+          <t>https://news.mn/</t>
+        </is>
+      </c>
+      <c r="D782" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E782" t="inlineStr">
+        <is>
+          <t>https://news.mn/wp-content/uploads/2025/08/news-1-scaled.jpg</t>
+        </is>
+      </c>
+      <c r="F782" s="1" t="inlineStr">
+        <is>
+          <t>../https:/www.khanbank.com/personal/news/intelligence/7647</t>
+        </is>
+      </c>
+      <c r="G782" t="inlineStr"/>
+      <c r="H782" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I782" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="783">
+      <c r="A783" t="inlineStr">
+        <is>
+          <t>news.mn</t>
+        </is>
+      </c>
+      <c r="B783" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+      <c r="C783" t="inlineStr">
+        <is>
+          <t>https://news.mn/</t>
+        </is>
+      </c>
+      <c r="D783" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E783" t="inlineStr">
+        <is>
+          <t>https://news.mn/wp-content/uploads/2025/09/2.-News-copy.jpg</t>
+        </is>
+      </c>
+      <c r="F783" s="1" t="inlineStr">
+        <is>
+          <t>../https:/www.khanbank.com/personal/news/intelligence/7657</t>
+        </is>
+      </c>
+      <c r="G783" t="inlineStr"/>
+      <c r="H783" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I783" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="784">
+      <c r="A784" t="inlineStr">
+        <is>
+          <t>news.mn</t>
+        </is>
+      </c>
+      <c r="B784" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+      <c r="C784" t="inlineStr">
+        <is>
+          <t>https://news.mn/</t>
+        </is>
+      </c>
+      <c r="D784" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E784" t="inlineStr">
+        <is>
+          <t>https://news.mn/wp-content/uploads/2025/09/britto-News.mn-300x245-1.jpg</t>
+        </is>
+      </c>
+      <c r="F784" s="1" t="inlineStr">
+        <is>
+          <t>../https:/www.tdbm.mn/mn/news/brittobeleg</t>
+        </is>
+      </c>
+      <c r="G784" t="inlineStr"/>
+      <c r="H784" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I784" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="785">
+      <c r="A785" t="inlineStr">
+        <is>
+          <t>news.mn</t>
+        </is>
+      </c>
+      <c r="B785" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+      <c r="C785" t="inlineStr">
+        <is>
+          <t>https://news.mn/</t>
+        </is>
+      </c>
+      <c r="D785" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E785" t="inlineStr">
+        <is>
+          <t>https://news.mn/wp-content/uploads/2025/09/news.mn-300x250-1.png</t>
+        </is>
+      </c>
+      <c r="F785" s="1" t="inlineStr">
+        <is>
+          <t>../https:/www.golomtbank.com/news/49942</t>
+        </is>
+      </c>
+      <c r="G785" t="inlineStr"/>
+      <c r="H785" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I785" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="786">
+      <c r="A786" t="inlineStr">
+        <is>
+          <t>news.mn</t>
+        </is>
+      </c>
+      <c r="B786" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+      <c r="C786" t="inlineStr">
+        <is>
+          <t>https://news.mn/</t>
+        </is>
+      </c>
+      <c r="D786" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E786" t="inlineStr">
+        <is>
+          <t>https://news.mn/wp-content/uploads/2025/09/dyson-1-scaled.jpg</t>
+        </is>
+      </c>
+      <c r="F786" s="1" t="inlineStr">
+        <is>
+          <t>../https:/www.facebook.com/PCMallOfficial/posts/pfbid02n94s7a1HLmeM1u97NELbdxW28wEC5cJ3VV4VtdxAPqsgfYRmyBMJyAeKe6P2H6iel</t>
+        </is>
+      </c>
+      <c r="G786" t="inlineStr"/>
+      <c r="H786" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I786" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="787">
+      <c r="A787" t="inlineStr">
+        <is>
+          <t>news.mn</t>
+        </is>
+      </c>
+      <c r="B787" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+      <c r="C787" t="inlineStr">
+        <is>
+          <t>https://news.mn/</t>
+        </is>
+      </c>
+      <c r="D787" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E787" t="inlineStr">
+        <is>
+          <t>https://news.mn/wp-content/uploads/2025/09/Promotion-BANNER-SEP-scaled.jpg</t>
+        </is>
+      </c>
+      <c r="F787" s="1" t="inlineStr">
+        <is>
+          <t>../https:/www.koreanair.com/contents/promotion/list/2025/ULN250901EN?pageNum=1</t>
+        </is>
+      </c>
+      <c r="G787" t="inlineStr"/>
+      <c r="H787" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I787" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="788">
+      <c r="A788" t="inlineStr">
+        <is>
+          <t>news.mn</t>
+        </is>
+      </c>
+      <c r="B788" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+      <c r="C788" t="inlineStr">
+        <is>
+          <t>https://news.mn/</t>
+        </is>
+      </c>
+      <c r="D788" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E788" t="inlineStr">
+        <is>
+          <t>https://news.mn/wp-content/uploads/2025/08/news-1-scaled.jpg</t>
+        </is>
+      </c>
+      <c r="F788" s="1" t="inlineStr">
+        <is>
+          <t>../https:/www.khanbank.com/personal/news/intelligence/7647</t>
+        </is>
+      </c>
+      <c r="G788" t="inlineStr"/>
+      <c r="H788" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I788" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="789">
+      <c r="A789" t="inlineStr">
+        <is>
+          <t>news.mn</t>
+        </is>
+      </c>
+      <c r="B789" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+      <c r="C789" t="inlineStr">
+        <is>
+          <t>https://news.mn/</t>
+        </is>
+      </c>
+      <c r="D789" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E789" t="inlineStr">
+        <is>
+          <t>https://news.mn/wp-content/uploads/2025/09/2.-News-copy.jpg</t>
+        </is>
+      </c>
+      <c r="F789" s="1" t="inlineStr">
+        <is>
+          <t>../https:/www.khanbank.com/personal/news/intelligence/7657</t>
+        </is>
+      </c>
+      <c r="G789" t="inlineStr"/>
+      <c r="H789" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I789" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="790">
+      <c r="A790" t="inlineStr">
+        <is>
+          <t>news.mn</t>
+        </is>
+      </c>
+      <c r="B790" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+      <c r="C790" t="inlineStr">
+        <is>
+          <t>https://news.mn/</t>
+        </is>
+      </c>
+      <c r="D790" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E790" t="inlineStr">
+        <is>
+          <t>https://news.mn/wp-content/uploads/2025/09/britto-News.mn-300x245-1.jpg</t>
+        </is>
+      </c>
+      <c r="F790" s="1" t="inlineStr">
+        <is>
+          <t>../https:/www.tdbm.mn/mn/news/brittobeleg</t>
+        </is>
+      </c>
+      <c r="G790" t="inlineStr"/>
+      <c r="H790" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I790" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="791">
+      <c r="A791" t="inlineStr">
+        <is>
+          <t>news.mn</t>
+        </is>
+      </c>
+      <c r="B791" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+      <c r="C791" t="inlineStr">
+        <is>
+          <t>https://news.mn/</t>
+        </is>
+      </c>
+      <c r="D791" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E791" t="inlineStr">
+        <is>
+          <t>https://news.mn/wp-content/uploads/2025/09/news.mn-300x250-1.png</t>
+        </is>
+      </c>
+      <c r="F791" s="1" t="inlineStr">
+        <is>
+          <t>../https:/www.golomtbank.com/news/49942</t>
+        </is>
+      </c>
+      <c r="G791" t="inlineStr"/>
+      <c r="H791" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I791" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="792">
+      <c r="A792" t="inlineStr">
+        <is>
+          <t>news.mn</t>
+        </is>
+      </c>
+      <c r="B792" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+      <c r="C792" t="inlineStr">
+        <is>
+          <t>https://news.mn/</t>
+        </is>
+      </c>
+      <c r="D792" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E792" t="inlineStr">
+        <is>
+          <t>https://news.mn/wp-content/uploads/2025/09/dyson-1-scaled.jpg</t>
+        </is>
+      </c>
+      <c r="F792" s="1" t="inlineStr">
+        <is>
+          <t>../https:/www.facebook.com/PCMallOfficial/posts/pfbid02n94s7a1HLmeM1u97NELbdxW28wEC5cJ3VV4VtdxAPqsgfYRmyBMJyAeKe6P2H6iel</t>
+        </is>
+      </c>
+      <c r="G792" t="inlineStr"/>
+      <c r="H792" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I792" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="793">
+      <c r="A793" t="inlineStr">
+        <is>
+          <t>news.mn</t>
+        </is>
+      </c>
+      <c r="B793" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+      <c r="C793" t="inlineStr">
+        <is>
+          <t>https://news.mn/</t>
+        </is>
+      </c>
+      <c r="D793" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E793" t="inlineStr">
+        <is>
+          <t>https://news.mn/wp-content/uploads/2025/09/Promotion-BANNER-SEP-scaled.jpg</t>
+        </is>
+      </c>
+      <c r="F793" s="1" t="inlineStr">
+        <is>
+          <t>../https:/www.koreanair.com/contents/promotion/list/2025/ULN250901EN?pageNum=1</t>
+        </is>
+      </c>
+      <c r="G793" t="inlineStr"/>
+      <c r="H793" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I793" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="794">
+      <c r="A794" t="inlineStr">
+        <is>
+          <t>news.mn</t>
+        </is>
+      </c>
+      <c r="B794" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+      <c r="C794" t="inlineStr">
+        <is>
+          <t>https://news.mn/</t>
+        </is>
+      </c>
+      <c r="D794" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E794" t="inlineStr">
+        <is>
+          <t>https://news.mn/wp-content/uploads/2025/08/news-1-scaled.jpg</t>
+        </is>
+      </c>
+      <c r="F794" s="1" t="inlineStr">
+        <is>
+          <t>../https:/www.khanbank.com/personal/news/intelligence/7647</t>
+        </is>
+      </c>
+      <c r="G794" t="inlineStr"/>
+      <c r="H794" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I794" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="795">
+      <c r="A795" t="inlineStr">
+        <is>
+          <t>news.mn</t>
+        </is>
+      </c>
+      <c r="B795" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+      <c r="C795" t="inlineStr">
+        <is>
+          <t>https://news.mn/</t>
+        </is>
+      </c>
+      <c r="D795" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E795" t="inlineStr">
+        <is>
+          <t>https://news.mn/wp-content/uploads/2025/09/2.-News-copy.jpg</t>
+        </is>
+      </c>
+      <c r="F795" s="1" t="inlineStr">
+        <is>
+          <t>../https:/www.khanbank.com/personal/news/intelligence/7657</t>
+        </is>
+      </c>
+      <c r="G795" t="inlineStr"/>
+      <c r="H795" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I795" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="796">
+      <c r="A796" t="inlineStr">
+        <is>
+          <t>news.mn</t>
+        </is>
+      </c>
+      <c r="B796" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+      <c r="C796" t="inlineStr">
+        <is>
+          <t>https://news.mn/</t>
+        </is>
+      </c>
+      <c r="D796" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E796" t="inlineStr">
+        <is>
+          <t>https://news.mn/wp-content/uploads/2025/09/britto-News.mn-300x245-1.jpg</t>
+        </is>
+      </c>
+      <c r="F796" s="1" t="inlineStr">
+        <is>
+          <t>../https:/www.tdbm.mn/mn/news/brittobeleg</t>
+        </is>
+      </c>
+      <c r="G796" t="inlineStr"/>
+      <c r="H796" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I796" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="797">
+      <c r="A797" t="inlineStr">
+        <is>
+          <t>news.mn</t>
+        </is>
+      </c>
+      <c r="B797" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+      <c r="C797" t="inlineStr">
+        <is>
+          <t>https://news.mn/</t>
+        </is>
+      </c>
+      <c r="D797" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E797" t="inlineStr">
+        <is>
+          <t>https://news.mn/wp-content/uploads/2025/09/news.mn-300x250-1.png</t>
+        </is>
+      </c>
+      <c r="F797" s="1" t="inlineStr">
+        <is>
+          <t>../https:/www.golomtbank.com/news/49942</t>
+        </is>
+      </c>
+      <c r="G797" t="inlineStr"/>
+      <c r="H797" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I797" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="798">
+      <c r="A798" t="inlineStr">
+        <is>
+          <t>news.mn</t>
+        </is>
+      </c>
+      <c r="B798" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+      <c r="C798" t="inlineStr">
+        <is>
+          <t>https://news.mn/</t>
+        </is>
+      </c>
+      <c r="D798" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E798" t="inlineStr">
+        <is>
+          <t>https://news.mn/wp-content/uploads/2025/09/dyson-1-scaled.jpg</t>
+        </is>
+      </c>
+      <c r="F798" s="1" t="inlineStr">
+        <is>
+          <t>../https:/www.facebook.com/PCMallOfficial/posts/pfbid02n94s7a1HLmeM1u97NELbdxW28wEC5cJ3VV4VtdxAPqsgfYRmyBMJyAeKe6P2H6iel</t>
+        </is>
+      </c>
+      <c r="G798" t="inlineStr"/>
+      <c r="H798" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I798" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="799">
+      <c r="A799" t="inlineStr">
+        <is>
+          <t>news.mn</t>
+        </is>
+      </c>
+      <c r="B799" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+      <c r="C799" t="inlineStr">
+        <is>
+          <t>https://news.mn/</t>
+        </is>
+      </c>
+      <c r="D799" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E799" t="inlineStr">
+        <is>
+          <t>https://news.mn/wp-content/uploads/2025/09/Promotion-BANNER-SEP-scaled.jpg</t>
+        </is>
+      </c>
+      <c r="F799" s="1" t="inlineStr">
+        <is>
+          <t>../https:/www.koreanair.com/contents/promotion/list/2025/ULN250901EN?pageNum=1</t>
+        </is>
+      </c>
+      <c r="G799" t="inlineStr"/>
+      <c r="H799" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I799" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="800">
+      <c r="A800" t="inlineStr">
+        <is>
+          <t>news.mn</t>
+        </is>
+      </c>
+      <c r="B800" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+      <c r="C800" t="inlineStr">
+        <is>
+          <t>https://news.mn/</t>
+        </is>
+      </c>
+      <c r="D800" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E800" t="inlineStr">
+        <is>
+          <t>https://news.mn/wp-content/uploads/2025/08/news-1-scaled.jpg</t>
+        </is>
+      </c>
+      <c r="F800" s="1" t="inlineStr">
+        <is>
+          <t>../https:/www.khanbank.com/personal/news/intelligence/7647</t>
+        </is>
+      </c>
+      <c r="G800" t="inlineStr"/>
+      <c r="H800" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I800" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="801">
+      <c r="A801" t="inlineStr">
+        <is>
+          <t>news.mn</t>
+        </is>
+      </c>
+      <c r="B801" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+      <c r="C801" t="inlineStr">
+        <is>
+          <t>https://news.mn/</t>
+        </is>
+      </c>
+      <c r="D801" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E801" t="inlineStr">
+        <is>
+          <t>https://news.mn/wp-content/uploads/2025/09/2.-News-copy.jpg</t>
+        </is>
+      </c>
+      <c r="F801" s="1" t="inlineStr">
+        <is>
+          <t>../https:/www.khanbank.com/personal/news/intelligence/7657</t>
+        </is>
+      </c>
+      <c r="G801" t="inlineStr"/>
+      <c r="H801" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I801" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="802">
+      <c r="A802" t="inlineStr">
+        <is>
+          <t>news.mn</t>
+        </is>
+      </c>
+      <c r="B802" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+      <c r="C802" t="inlineStr">
+        <is>
+          <t>https://news.mn/</t>
+        </is>
+      </c>
+      <c r="D802" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E802" t="inlineStr">
+        <is>
+          <t>https://news.mn/wp-content/uploads/2025/09/britto-News.mn-300x245-1.jpg</t>
+        </is>
+      </c>
+      <c r="F802" s="1" t="inlineStr">
+        <is>
+          <t>../https:/www.tdbm.mn/mn/news/brittobeleg</t>
+        </is>
+      </c>
+      <c r="G802" t="inlineStr"/>
+      <c r="H802" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I802" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="803">
+      <c r="A803" t="inlineStr">
+        <is>
+          <t>news.mn</t>
+        </is>
+      </c>
+      <c r="B803" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+      <c r="C803" t="inlineStr">
+        <is>
+          <t>https://news.mn/</t>
+        </is>
+      </c>
+      <c r="D803" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E803" t="inlineStr">
+        <is>
+          <t>https://news.mn/wp-content/uploads/2025/09/news.mn-300x250-1.png</t>
+        </is>
+      </c>
+      <c r="F803" s="1" t="inlineStr">
+        <is>
+          <t>../https:/www.golomtbank.com/news/49942</t>
+        </is>
+      </c>
+      <c r="G803" t="inlineStr"/>
+      <c r="H803" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I803" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="804">
+      <c r="A804" t="inlineStr">
+        <is>
+          <t>news.mn</t>
+        </is>
+      </c>
+      <c r="B804" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+      <c r="C804" t="inlineStr">
+        <is>
+          <t>https://news.mn/</t>
+        </is>
+      </c>
+      <c r="D804" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E804" t="inlineStr">
+        <is>
+          <t>https://news.mn/wp-content/uploads/2025/09/dyson-1-scaled.jpg</t>
+        </is>
+      </c>
+      <c r="F804" s="1" t="inlineStr">
+        <is>
+          <t>../https:/www.facebook.com/PCMallOfficial/posts/pfbid02n94s7a1HLmeM1u97NELbdxW28wEC5cJ3VV4VtdxAPqsgfYRmyBMJyAeKe6P2H6iel</t>
+        </is>
+      </c>
+      <c r="G804" t="inlineStr"/>
+      <c r="H804" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I804" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="805">
+      <c r="A805" t="inlineStr">
+        <is>
+          <t>news.mn</t>
+        </is>
+      </c>
+      <c r="B805" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+      <c r="C805" t="inlineStr">
+        <is>
+          <t>https://news.mn/</t>
+        </is>
+      </c>
+      <c r="D805" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E805" t="inlineStr">
+        <is>
+          <t>https://news.mn/wp-content/uploads/2025/09/Promotion-BANNER-SEP-scaled.jpg</t>
+        </is>
+      </c>
+      <c r="F805" s="1" t="inlineStr">
+        <is>
+          <t>../https:/www.koreanair.com/contents/promotion/list/2025/ULN250901EN?pageNum=1</t>
+        </is>
+      </c>
+      <c r="G805" t="inlineStr"/>
+      <c r="H805" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I805" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="806">
+      <c r="A806" t="inlineStr">
+        <is>
+          <t>news.mn</t>
+        </is>
+      </c>
+      <c r="B806" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+      <c r="C806" t="inlineStr">
+        <is>
+          <t>https://news.mn/</t>
+        </is>
+      </c>
+      <c r="D806" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E806" t="inlineStr">
+        <is>
+          <t>https://news.mn/wp-content/uploads/2025/08/news-1-scaled.jpg</t>
+        </is>
+      </c>
+      <c r="F806" s="1" t="inlineStr">
+        <is>
+          <t>../https:/www.khanbank.com/personal/news/intelligence/7647</t>
+        </is>
+      </c>
+      <c r="G806" t="inlineStr"/>
+      <c r="H806" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I806" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="807">
+      <c r="A807" t="inlineStr">
+        <is>
+          <t>news.mn</t>
+        </is>
+      </c>
+      <c r="B807" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+      <c r="C807" t="inlineStr">
+        <is>
+          <t>https://news.mn/</t>
+        </is>
+      </c>
+      <c r="D807" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E807" t="inlineStr">
+        <is>
+          <t>https://news.mn/wp-content/uploads/2025/09/2.-News-copy.jpg</t>
+        </is>
+      </c>
+      <c r="F807" s="1" t="inlineStr">
+        <is>
+          <t>../https:/www.khanbank.com/personal/news/intelligence/7657</t>
+        </is>
+      </c>
+      <c r="G807" t="inlineStr"/>
+      <c r="H807" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I807" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="808">
+      <c r="A808" t="inlineStr">
+        <is>
+          <t>news.mn</t>
+        </is>
+      </c>
+      <c r="B808" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+      <c r="C808" t="inlineStr">
+        <is>
+          <t>https://news.mn/</t>
+        </is>
+      </c>
+      <c r="D808" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E808" t="inlineStr">
+        <is>
+          <t>https://news.mn/wp-content/uploads/2025/09/britto-News.mn-300x245-1.jpg</t>
+        </is>
+      </c>
+      <c r="F808" s="1" t="inlineStr">
+        <is>
+          <t>../https:/www.tdbm.mn/mn/news/brittobeleg</t>
+        </is>
+      </c>
+      <c r="G808" t="inlineStr"/>
+      <c r="H808" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I808" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="809">
+      <c r="A809" t="inlineStr">
+        <is>
+          <t>news.mn</t>
+        </is>
+      </c>
+      <c r="B809" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+      <c r="C809" t="inlineStr">
+        <is>
+          <t>https://news.mn/</t>
+        </is>
+      </c>
+      <c r="D809" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E809" t="inlineStr">
+        <is>
+          <t>https://news.mn/wp-content/uploads/2025/09/news.mn-300x250-1.png</t>
+        </is>
+      </c>
+      <c r="F809" s="1" t="inlineStr">
+        <is>
+          <t>../https:/www.golomtbank.com/news/49942</t>
+        </is>
+      </c>
+      <c r="G809" t="inlineStr"/>
+      <c r="H809" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I809" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -24707,6 +34109,125 @@
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F577" r:id="rId360"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F578" r:id="rId361"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F579" r:id="rId362"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F580" r:id="rId363"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F585" r:id="rId364"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F654" r:id="rId365"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F694" r:id="rId366"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F695" r:id="rId367"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F696" r:id="rId368"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F697" r:id="rId369"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F698" r:id="rId370"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F699" r:id="rId371"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F700" r:id="rId372"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F701" r:id="rId373"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F702" r:id="rId374"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F703" r:id="rId375"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F704" r:id="rId376"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F705" r:id="rId377"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F706" r:id="rId378"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F707" r:id="rId379"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F708" r:id="rId380"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F709" r:id="rId381"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F710" r:id="rId382"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F711" r:id="rId383"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F712" r:id="rId384"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F713" r:id="rId385"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F714" r:id="rId386"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F715" r:id="rId387"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F716" r:id="rId388"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F717" r:id="rId389"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F718" r:id="rId390"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F719" r:id="rId391"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F720" r:id="rId392"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F721" r:id="rId393"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F722" r:id="rId394"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F723" r:id="rId395"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F724" r:id="rId396"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F725" r:id="rId397"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F726" r:id="rId398"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F727" r:id="rId399"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F728" r:id="rId400"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F729" r:id="rId401"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F730" r:id="rId402"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F731" r:id="rId403"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F732" r:id="rId404"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F733" r:id="rId405"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F734" r:id="rId406"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F735" r:id="rId407"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F736" r:id="rId408"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F737" r:id="rId409"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F738" r:id="rId410"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F739" r:id="rId411"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F740" r:id="rId412"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F741" r:id="rId413"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F742" r:id="rId414"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F743" r:id="rId415"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F744" r:id="rId416"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F745" r:id="rId417"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F746" r:id="rId418"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F747" r:id="rId419"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F748" r:id="rId420"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F749" r:id="rId421"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F750" r:id="rId422"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F751" r:id="rId423"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F752" r:id="rId424"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F753" r:id="rId425"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F754" r:id="rId426"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F755" r:id="rId427"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F756" r:id="rId428"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F757" r:id="rId429"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F758" r:id="rId430"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F759" r:id="rId431"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F760" r:id="rId432"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F761" r:id="rId433"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F762" r:id="rId434"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F763" r:id="rId435"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F764" r:id="rId436"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F765" r:id="rId437"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F766" r:id="rId438"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F767" r:id="rId439"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F768" r:id="rId440"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F769" r:id="rId441"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F770" r:id="rId442"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F771" r:id="rId443"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F772" r:id="rId444"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F773" r:id="rId445"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F774" r:id="rId446"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F775" r:id="rId447"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F776" r:id="rId448"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F777" r:id="rId449"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F778" r:id="rId450"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F779" r:id="rId451"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F780" r:id="rId452"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F781" r:id="rId453"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F782" r:id="rId454"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F783" r:id="rId455"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F784" r:id="rId456"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F785" r:id="rId457"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F786" r:id="rId458"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F787" r:id="rId459"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F788" r:id="rId460"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F789" r:id="rId461"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F790" r:id="rId462"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F791" r:id="rId463"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F792" r:id="rId464"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F793" r:id="rId465"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F794" r:id="rId466"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F795" r:id="rId467"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F796" r:id="rId468"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F797" r:id="rId469"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F798" r:id="rId470"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F799" r:id="rId471"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F800" r:id="rId472"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F801" r:id="rId473"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F802" r:id="rId474"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F803" r:id="rId475"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F804" r:id="rId476"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F805" r:id="rId477"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F806" r:id="rId478"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F807" r:id="rId479"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F808" r:id="rId480"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F809" r:id="rId481"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/banner_tracking_combined.xlsx
+++ b/banner_tracking_combined.xlsx
@@ -423,7 +423,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I809"/>
+  <dimension ref="A1:I1012"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33740,6 +33740,8403 @@
         </is>
       </c>
       <c r="I809" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="810">
+      <c r="A810" t="inlineStr">
+        <is>
+          <t>ikon.mn</t>
+        </is>
+      </c>
+      <c r="B810" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="C810" t="inlineStr">
+        <is>
+          <t>https://ikon.mn/ad/IKONMN_B1?1758251366</t>
+        </is>
+      </c>
+      <c r="D810" t="inlineStr">
+        <is>
+          <t>data:image/gif;base64,R0lGODlhAQABAAAAACwAAAAAAQABAAA=</t>
+        </is>
+      </c>
+      <c r="E810" t="inlineStr"/>
+      <c r="F810" t="inlineStr"/>
+      <c r="G810" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H810" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I810" t="inlineStr">
+        <is>
+          <t>download_timeout</t>
+        </is>
+      </c>
+    </row>
+    <row r="811">
+      <c r="A811" t="inlineStr">
+        <is>
+          <t>ikon.mn</t>
+        </is>
+      </c>
+      <c r="B811" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="C811" t="inlineStr">
+        <is>
+          <t>https://ikon.mn/ad/IKONMN_B1?1758251366</t>
+        </is>
+      </c>
+      <c r="D811" t="inlineStr">
+        <is>
+          <t>https://content.ikon.mn/raw/2025/9/16/18209/HS_Ikon_560x400.jpg</t>
+        </is>
+      </c>
+      <c r="E811" t="inlineStr">
+        <is>
+          <t>https://www.khanbank.com/personal/news/intelligence/7657/</t>
+        </is>
+      </c>
+      <c r="F811" s="1" t="inlineStr">
+        <is>
+          <t>ikon.mn/2025-09-19/ikon_banner_1758251506_f198d6a249.jpg</t>
+        </is>
+      </c>
+      <c r="G811" t="inlineStr">
+        <is>
+          <t>560</t>
+        </is>
+      </c>
+      <c r="H811" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="I811" t="inlineStr"/>
+    </row>
+    <row r="812">
+      <c r="A812" t="inlineStr">
+        <is>
+          <t>ikon.mn</t>
+        </is>
+      </c>
+      <c r="B812" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="C812" t="inlineStr">
+        <is>
+          <t>https://ikon.mn/ad/IKONMN_B1?1758251366</t>
+        </is>
+      </c>
+      <c r="D812" t="inlineStr">
+        <is>
+          <t>data:image/gif;base64,R0lGODlhAQABAAAAACwAAAAAAQABAAA=</t>
+        </is>
+      </c>
+      <c r="E812" t="inlineStr"/>
+      <c r="F812" t="inlineStr"/>
+      <c r="G812" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H812" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I812" t="inlineStr">
+        <is>
+          <t>download_timeout</t>
+        </is>
+      </c>
+    </row>
+    <row r="813">
+      <c r="A813" t="inlineStr">
+        <is>
+          <t>ikon.mn</t>
+        </is>
+      </c>
+      <c r="B813" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="C813" t="inlineStr">
+        <is>
+          <t>https://ikon.mn/ad/IKONMN_B1?1758251366</t>
+        </is>
+      </c>
+      <c r="D813" t="inlineStr">
+        <is>
+          <t>https://content.ikon.mn/raw/2025/9/16/18209/HS_Ikon_560x400.jpg</t>
+        </is>
+      </c>
+      <c r="E813" t="inlineStr"/>
+      <c r="F813" t="inlineStr"/>
+      <c r="G813" t="inlineStr">
+        <is>
+          <t>560</t>
+        </is>
+      </c>
+      <c r="H813" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="I813" t="inlineStr">
+        <is>
+          <t>duplicate_hash</t>
+        </is>
+      </c>
+    </row>
+    <row r="814">
+      <c r="A814" t="inlineStr">
+        <is>
+          <t>ikon.mn</t>
+        </is>
+      </c>
+      <c r="B814" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="C814" t="inlineStr">
+        <is>
+          <t>https://ikon.mn/ad/IKONMN_B1?1758251366</t>
+        </is>
+      </c>
+      <c r="D814" t="inlineStr">
+        <is>
+          <t>https://content.ikon.mn/raw/2025/9/8/18193/1._Ikon_copy_2.jpg</t>
+        </is>
+      </c>
+      <c r="E814" t="inlineStr">
+        <is>
+          <t>https://www.khanbank.com/personal/news/intelligence/7657/</t>
+        </is>
+      </c>
+      <c r="F814" s="1" t="inlineStr">
+        <is>
+          <t>ikon.mn/2025-09-19/ikon_banner_1758251516_7672bb7d80.jpg</t>
+        </is>
+      </c>
+      <c r="G814" t="inlineStr">
+        <is>
+          <t>1280</t>
+        </is>
+      </c>
+      <c r="H814" t="inlineStr">
+        <is>
+          <t>720</t>
+        </is>
+      </c>
+      <c r="I814" t="inlineStr"/>
+    </row>
+    <row r="815">
+      <c r="A815" t="inlineStr">
+        <is>
+          <t>ikon.mn</t>
+        </is>
+      </c>
+      <c r="B815" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="C815" t="inlineStr">
+        <is>
+          <t>https://ikon.mn/ad/IKONMN_B1?1758251366</t>
+        </is>
+      </c>
+      <c r="D815" t="inlineStr">
+        <is>
+          <t>https://content.ikon.mn/raw/2025/9/16/18209/HS_Ikon_560x400.jpg</t>
+        </is>
+      </c>
+      <c r="E815" t="inlineStr"/>
+      <c r="F815" t="inlineStr"/>
+      <c r="G815" t="inlineStr">
+        <is>
+          <t>560</t>
+        </is>
+      </c>
+      <c r="H815" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="I815" t="inlineStr">
+        <is>
+          <t>duplicate_hash</t>
+        </is>
+      </c>
+    </row>
+    <row r="816">
+      <c r="A816" t="inlineStr">
+        <is>
+          <t>ikon.mn</t>
+        </is>
+      </c>
+      <c r="B816" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="C816" t="inlineStr">
+        <is>
+          <t>https://ikon.mn/ad/IKONMN_B1?1758251366</t>
+        </is>
+      </c>
+      <c r="D816" t="inlineStr">
+        <is>
+          <t>https://content.ikon.mn/raw/2025/9/8/18193/1._Ikon_copy_2.jpg</t>
+        </is>
+      </c>
+      <c r="E816" t="inlineStr"/>
+      <c r="F816" t="inlineStr"/>
+      <c r="G816" t="inlineStr">
+        <is>
+          <t>1280</t>
+        </is>
+      </c>
+      <c r="H816" t="inlineStr">
+        <is>
+          <t>720</t>
+        </is>
+      </c>
+      <c r="I816" t="inlineStr">
+        <is>
+          <t>duplicate_hash</t>
+        </is>
+      </c>
+    </row>
+    <row r="817">
+      <c r="A817" t="inlineStr">
+        <is>
+          <t>ikon.mn</t>
+        </is>
+      </c>
+      <c r="B817" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="C817" t="inlineStr">
+        <is>
+          <t>https://ikon.mn/ad/IKONMN_B1?1758251366</t>
+        </is>
+      </c>
+      <c r="D817" t="inlineStr">
+        <is>
+          <t>https://content.ikon.mn/raw/2025/9/16/18209/HS_Ikon_560x400.jpg</t>
+        </is>
+      </c>
+      <c r="E817" t="inlineStr"/>
+      <c r="F817" t="inlineStr"/>
+      <c r="G817" t="inlineStr">
+        <is>
+          <t>560</t>
+        </is>
+      </c>
+      <c r="H817" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="I817" t="inlineStr">
+        <is>
+          <t>duplicate_hash</t>
+        </is>
+      </c>
+    </row>
+    <row r="818">
+      <c r="A818" t="inlineStr">
+        <is>
+          <t>ikon.mn</t>
+        </is>
+      </c>
+      <c r="B818" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="C818" t="inlineStr">
+        <is>
+          <t>https://ikon.mn/ad/IKONMN_B1?1758251366</t>
+        </is>
+      </c>
+      <c r="D818" t="inlineStr">
+        <is>
+          <t>https://content.ikon.mn/raw/2025/9/8/18193/1._Ikon_copy_2.jpg</t>
+        </is>
+      </c>
+      <c r="E818" t="inlineStr"/>
+      <c r="F818" t="inlineStr"/>
+      <c r="G818" t="inlineStr">
+        <is>
+          <t>1280</t>
+        </is>
+      </c>
+      <c r="H818" t="inlineStr">
+        <is>
+          <t>720</t>
+        </is>
+      </c>
+      <c r="I818" t="inlineStr">
+        <is>
+          <t>duplicate_hash</t>
+        </is>
+      </c>
+    </row>
+    <row r="819">
+      <c r="A819" t="inlineStr">
+        <is>
+          <t>ikon.mn</t>
+        </is>
+      </c>
+      <c r="B819" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="C819" t="inlineStr">
+        <is>
+          <t>https://ikon.mn/ad/IKONMN_B1?1758251366</t>
+        </is>
+      </c>
+      <c r="D819" t="inlineStr">
+        <is>
+          <t>https://content.ikon.mn/raw/2025/9/16/18209/HS_Ikon_560x400.jpg</t>
+        </is>
+      </c>
+      <c r="E819" t="inlineStr"/>
+      <c r="F819" t="inlineStr"/>
+      <c r="G819" t="inlineStr">
+        <is>
+          <t>560</t>
+        </is>
+      </c>
+      <c r="H819" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="I819" t="inlineStr">
+        <is>
+          <t>duplicate_hash</t>
+        </is>
+      </c>
+    </row>
+    <row r="820">
+      <c r="A820" t="inlineStr">
+        <is>
+          <t>ikon.mn</t>
+        </is>
+      </c>
+      <c r="B820" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="C820" t="inlineStr">
+        <is>
+          <t>https://ikon.mn/ad/IKONMN_B1?1758251366</t>
+        </is>
+      </c>
+      <c r="D820" t="inlineStr">
+        <is>
+          <t>https://content.ikon.mn/raw/2025/9/8/18193/1._Ikon_copy_2.jpg</t>
+        </is>
+      </c>
+      <c r="E820" t="inlineStr"/>
+      <c r="F820" t="inlineStr"/>
+      <c r="G820" t="inlineStr">
+        <is>
+          <t>1280</t>
+        </is>
+      </c>
+      <c r="H820" t="inlineStr">
+        <is>
+          <t>720</t>
+        </is>
+      </c>
+      <c r="I820" t="inlineStr">
+        <is>
+          <t>duplicate_hash</t>
+        </is>
+      </c>
+    </row>
+    <row r="821">
+      <c r="A821" t="inlineStr">
+        <is>
+          <t>ikon.mn</t>
+        </is>
+      </c>
+      <c r="B821" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="C821" t="inlineStr">
+        <is>
+          <t>https://ikon.mn/ad/IKONMN_B1?1758251366</t>
+        </is>
+      </c>
+      <c r="D821" t="inlineStr">
+        <is>
+          <t>https://content.ikon.mn/raw/2025/9/16/18209/HS_Ikon_560x400.jpg</t>
+        </is>
+      </c>
+      <c r="E821" t="inlineStr"/>
+      <c r="F821" t="inlineStr"/>
+      <c r="G821" t="inlineStr">
+        <is>
+          <t>560</t>
+        </is>
+      </c>
+      <c r="H821" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="I821" t="inlineStr">
+        <is>
+          <t>duplicate_hash</t>
+        </is>
+      </c>
+    </row>
+    <row r="822">
+      <c r="A822" t="inlineStr">
+        <is>
+          <t>ikon.mn</t>
+        </is>
+      </c>
+      <c r="B822" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="C822" t="inlineStr">
+        <is>
+          <t>https://ikon.mn/ad/IKONMN_B1?1758251366</t>
+        </is>
+      </c>
+      <c r="D822" t="inlineStr">
+        <is>
+          <t>https://content.ikon.mn/raw/2025/9/8/18193/1._Ikon_copy_2.jpg</t>
+        </is>
+      </c>
+      <c r="E822" t="inlineStr"/>
+      <c r="F822" t="inlineStr"/>
+      <c r="G822" t="inlineStr">
+        <is>
+          <t>1280</t>
+        </is>
+      </c>
+      <c r="H822" t="inlineStr">
+        <is>
+          <t>720</t>
+        </is>
+      </c>
+      <c r="I822" t="inlineStr">
+        <is>
+          <t>duplicate_hash</t>
+        </is>
+      </c>
+    </row>
+    <row r="823">
+      <c r="A823" t="inlineStr">
+        <is>
+          <t>ikon.mn</t>
+        </is>
+      </c>
+      <c r="B823" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="C823" t="inlineStr">
+        <is>
+          <t>https://ikon.mn/ad/IKONMN_B1?1758251366</t>
+        </is>
+      </c>
+      <c r="D823" t="inlineStr">
+        <is>
+          <t>https://content.ikon.mn/raw/2025/9/16/18209/HS_Ikon_560x400.jpg</t>
+        </is>
+      </c>
+      <c r="E823" t="inlineStr"/>
+      <c r="F823" t="inlineStr"/>
+      <c r="G823" t="inlineStr">
+        <is>
+          <t>560</t>
+        </is>
+      </c>
+      <c r="H823" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="I823" t="inlineStr">
+        <is>
+          <t>duplicate_hash</t>
+        </is>
+      </c>
+    </row>
+    <row r="824">
+      <c r="A824" t="inlineStr">
+        <is>
+          <t>ikon.mn</t>
+        </is>
+      </c>
+      <c r="B824" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="C824" t="inlineStr">
+        <is>
+          <t>https://ikon.mn/ad/IKONMN_B1?1758251366</t>
+        </is>
+      </c>
+      <c r="D824" t="inlineStr">
+        <is>
+          <t>https://content.ikon.mn/raw/2025/9/8/18193/1._Ikon_copy_2.jpg</t>
+        </is>
+      </c>
+      <c r="E824" t="inlineStr"/>
+      <c r="F824" t="inlineStr"/>
+      <c r="G824" t="inlineStr">
+        <is>
+          <t>1280</t>
+        </is>
+      </c>
+      <c r="H824" t="inlineStr">
+        <is>
+          <t>720</t>
+        </is>
+      </c>
+      <c r="I824" t="inlineStr">
+        <is>
+          <t>duplicate_hash</t>
+        </is>
+      </c>
+    </row>
+    <row r="825">
+      <c r="A825" t="inlineStr">
+        <is>
+          <t>ikon.mn</t>
+        </is>
+      </c>
+      <c r="B825" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="C825" t="inlineStr">
+        <is>
+          <t>https://ikon.mn/ad/IKONMN_B1?1758251366</t>
+        </is>
+      </c>
+      <c r="D825" t="inlineStr">
+        <is>
+          <t>data:image/gif;base64,R0lGODlhAQABAAAAACwAAAAAAQABAAA=</t>
+        </is>
+      </c>
+      <c r="E825" t="inlineStr"/>
+      <c r="F825" t="inlineStr"/>
+      <c r="G825" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H825" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I825" t="inlineStr">
+        <is>
+          <t>download_timeout</t>
+        </is>
+      </c>
+    </row>
+    <row r="826">
+      <c r="A826" t="inlineStr">
+        <is>
+          <t>ikon.mn</t>
+        </is>
+      </c>
+      <c r="B826" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="C826" t="inlineStr">
+        <is>
+          <t>https://ikon.mn/ad/IKONMN_B1?1758251366</t>
+        </is>
+      </c>
+      <c r="D826" t="inlineStr">
+        <is>
+          <t>https://content.ikon.mn/raw/2025/9/8/18193/1._Ikon_copy_2.jpg</t>
+        </is>
+      </c>
+      <c r="E826" t="inlineStr"/>
+      <c r="F826" t="inlineStr"/>
+      <c r="G826" t="inlineStr">
+        <is>
+          <t>1280</t>
+        </is>
+      </c>
+      <c r="H826" t="inlineStr">
+        <is>
+          <t>720</t>
+        </is>
+      </c>
+      <c r="I826" t="inlineStr">
+        <is>
+          <t>duplicate_hash</t>
+        </is>
+      </c>
+    </row>
+    <row r="827">
+      <c r="A827" t="inlineStr">
+        <is>
+          <t>ikon.mn</t>
+        </is>
+      </c>
+      <c r="B827" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="C827" t="inlineStr">
+        <is>
+          <t>https://ikon.mn/ad/IKONMN_B1?1758251366</t>
+        </is>
+      </c>
+      <c r="D827" t="inlineStr">
+        <is>
+          <t>data:image/gif;base64,R0lGODlhAQABAAAAACwAAAAAAQABAAA=</t>
+        </is>
+      </c>
+      <c r="E827" t="inlineStr"/>
+      <c r="F827" t="inlineStr"/>
+      <c r="G827" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H827" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I827" t="inlineStr">
+        <is>
+          <t>download_timeout</t>
+        </is>
+      </c>
+    </row>
+    <row r="828">
+      <c r="A828" t="inlineStr">
+        <is>
+          <t>ikon.mn</t>
+        </is>
+      </c>
+      <c r="B828" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="C828" t="inlineStr">
+        <is>
+          <t>https://ikon.mn/ad/IKONMN_B1?1758251366</t>
+        </is>
+      </c>
+      <c r="D828" t="inlineStr">
+        <is>
+          <t>https://content.ikon.mn/raw/2025/9/8/18193/1._Ikon_copy_2.jpg</t>
+        </is>
+      </c>
+      <c r="E828" t="inlineStr"/>
+      <c r="F828" t="inlineStr"/>
+      <c r="G828" t="inlineStr">
+        <is>
+          <t>1280</t>
+        </is>
+      </c>
+      <c r="H828" t="inlineStr">
+        <is>
+          <t>720</t>
+        </is>
+      </c>
+      <c r="I828" t="inlineStr">
+        <is>
+          <t>duplicate_hash</t>
+        </is>
+      </c>
+    </row>
+    <row r="829">
+      <c r="A829" t="inlineStr">
+        <is>
+          <t>ikon.mn</t>
+        </is>
+      </c>
+      <c r="B829" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="C829" t="inlineStr">
+        <is>
+          <t>https://ikon.mn/ad/IKONMN_B1?1758251366</t>
+        </is>
+      </c>
+      <c r="D829" t="inlineStr">
+        <is>
+          <t>data:image/gif;base64,R0lGODlhAQABAAAAACwAAAAAAQABAAA=</t>
+        </is>
+      </c>
+      <c r="E829" t="inlineStr"/>
+      <c r="F829" t="inlineStr"/>
+      <c r="G829" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H829" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I829" t="inlineStr">
+        <is>
+          <t>download_timeout</t>
+        </is>
+      </c>
+    </row>
+    <row r="830">
+      <c r="A830" t="inlineStr">
+        <is>
+          <t>ikon.mn</t>
+        </is>
+      </c>
+      <c r="B830" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="C830" t="inlineStr">
+        <is>
+          <t>https://ikon.mn/ad/IKONMN_B1?1758251366</t>
+        </is>
+      </c>
+      <c r="D830" t="inlineStr">
+        <is>
+          <t>https://content.ikon.mn/raw/2025/9/8/18193/1._Ikon_copy_2.jpg</t>
+        </is>
+      </c>
+      <c r="E830" t="inlineStr"/>
+      <c r="F830" t="inlineStr"/>
+      <c r="G830" t="inlineStr">
+        <is>
+          <t>1280</t>
+        </is>
+      </c>
+      <c r="H830" t="inlineStr">
+        <is>
+          <t>720</t>
+        </is>
+      </c>
+      <c r="I830" t="inlineStr">
+        <is>
+          <t>duplicate_hash</t>
+        </is>
+      </c>
+    </row>
+    <row r="831">
+      <c r="A831" t="inlineStr">
+        <is>
+          <t>ikon.mn</t>
+        </is>
+      </c>
+      <c r="B831" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="C831" t="inlineStr">
+        <is>
+          <t>https://ikon.mn/ad/IKONMN_B1?1758251366</t>
+        </is>
+      </c>
+      <c r="D831" t="inlineStr">
+        <is>
+          <t>data:image/gif;base64,R0lGODlhAQABAAAAACwAAAAAAQABAAA=</t>
+        </is>
+      </c>
+      <c r="E831" t="inlineStr"/>
+      <c r="F831" t="inlineStr"/>
+      <c r="G831" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H831" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I831" t="inlineStr">
+        <is>
+          <t>download_timeout</t>
+        </is>
+      </c>
+    </row>
+    <row r="832">
+      <c r="A832" t="inlineStr">
+        <is>
+          <t>ikon.mn</t>
+        </is>
+      </c>
+      <c r="B832" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="C832" t="inlineStr">
+        <is>
+          <t>https://ikon.mn/ad/IKONMN_B1?1758251366</t>
+        </is>
+      </c>
+      <c r="D832" t="inlineStr">
+        <is>
+          <t>https://content.ikon.mn/raw/2025/9/8/18193/1._Ikon_copy_2.jpg</t>
+        </is>
+      </c>
+      <c r="E832" t="inlineStr"/>
+      <c r="F832" t="inlineStr"/>
+      <c r="G832" t="inlineStr">
+        <is>
+          <t>1280</t>
+        </is>
+      </c>
+      <c r="H832" t="inlineStr">
+        <is>
+          <t>720</t>
+        </is>
+      </c>
+      <c r="I832" t="inlineStr">
+        <is>
+          <t>duplicate_hash</t>
+        </is>
+      </c>
+    </row>
+    <row r="833">
+      <c r="A833" t="inlineStr">
+        <is>
+          <t>ikon.mn</t>
+        </is>
+      </c>
+      <c r="B833" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="C833" t="inlineStr">
+        <is>
+          <t>https://ikon.mn/ad/IKONMN_B1?1758251366</t>
+        </is>
+      </c>
+      <c r="D833" t="inlineStr">
+        <is>
+          <t>data:image/gif;base64,R0lGODlhAQABAAAAACwAAAAAAQABAAA=</t>
+        </is>
+      </c>
+      <c r="E833" t="inlineStr"/>
+      <c r="F833" t="inlineStr"/>
+      <c r="G833" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H833" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I833" t="inlineStr">
+        <is>
+          <t>download_timeout</t>
+        </is>
+      </c>
+    </row>
+    <row r="834">
+      <c r="A834" t="inlineStr">
+        <is>
+          <t>ikon.mn</t>
+        </is>
+      </c>
+      <c r="B834" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="C834" t="inlineStr">
+        <is>
+          <t>https://ikon.mn/ad/IKONMN_B1?1758251366</t>
+        </is>
+      </c>
+      <c r="D834" t="inlineStr">
+        <is>
+          <t>https://content.ikon.mn/raw/2025/9/8/18193/1._Ikon_copy_2.jpg</t>
+        </is>
+      </c>
+      <c r="E834" t="inlineStr"/>
+      <c r="F834" t="inlineStr"/>
+      <c r="G834" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H834" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I834" t="inlineStr">
+        <is>
+          <t>duplicate_hash</t>
+        </is>
+      </c>
+    </row>
+    <row r="835">
+      <c r="A835" t="inlineStr">
+        <is>
+          <t>ikon.mn</t>
+        </is>
+      </c>
+      <c r="B835" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="C835" t="inlineStr">
+        <is>
+          <t>https://ikon.mn/ad/IKONMN_B1?1758251366</t>
+        </is>
+      </c>
+      <c r="D835" t="inlineStr">
+        <is>
+          <t>https://content.ikon.mn/raw/2025/9/16/18209/HS_Ikon_560x400.jpg</t>
+        </is>
+      </c>
+      <c r="E835" t="inlineStr"/>
+      <c r="F835" t="inlineStr"/>
+      <c r="G835" t="inlineStr">
+        <is>
+          <t>560</t>
+        </is>
+      </c>
+      <c r="H835" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="I835" t="inlineStr">
+        <is>
+          <t>duplicate_hash</t>
+        </is>
+      </c>
+    </row>
+    <row r="836">
+      <c r="A836" t="inlineStr">
+        <is>
+          <t>ikon.mn</t>
+        </is>
+      </c>
+      <c r="B836" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="C836" t="inlineStr">
+        <is>
+          <t>https://ikon.mn/ad/IKONMN_B1?1758251366</t>
+        </is>
+      </c>
+      <c r="D836" t="inlineStr">
+        <is>
+          <t>https://content.ikon.mn/raw/2025/9/8/18193/1._Ikon_copy_2.jpg</t>
+        </is>
+      </c>
+      <c r="E836" t="inlineStr"/>
+      <c r="F836" t="inlineStr"/>
+      <c r="G836" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H836" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I836" t="inlineStr">
+        <is>
+          <t>duplicate_hash</t>
+        </is>
+      </c>
+    </row>
+    <row r="837">
+      <c r="A837" t="inlineStr">
+        <is>
+          <t>ikon.mn</t>
+        </is>
+      </c>
+      <c r="B837" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="C837" t="inlineStr">
+        <is>
+          <t>https://ikon.mn/ad/IKONMN_B1?1758251366</t>
+        </is>
+      </c>
+      <c r="D837" t="inlineStr">
+        <is>
+          <t>https://content.ikon.mn/raw/2025/9/16/18209/HS_Ikon_560x400.jpg</t>
+        </is>
+      </c>
+      <c r="E837" t="inlineStr"/>
+      <c r="F837" t="inlineStr"/>
+      <c r="G837" t="inlineStr">
+        <is>
+          <t>560</t>
+        </is>
+      </c>
+      <c r="H837" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="I837" t="inlineStr">
+        <is>
+          <t>duplicate_hash</t>
+        </is>
+      </c>
+    </row>
+    <row r="838">
+      <c r="A838" t="inlineStr">
+        <is>
+          <t>ikon.mn</t>
+        </is>
+      </c>
+      <c r="B838" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="C838" t="inlineStr">
+        <is>
+          <t>https://ikon.mn/ad/IKONMN_B1?1758251366</t>
+        </is>
+      </c>
+      <c r="D838" t="inlineStr">
+        <is>
+          <t>https://content.ikon.mn/raw/2025/9/8/18193/1._Ikon_copy_2.jpg</t>
+        </is>
+      </c>
+      <c r="E838" t="inlineStr"/>
+      <c r="F838" t="inlineStr"/>
+      <c r="G838" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H838" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I838" t="inlineStr">
+        <is>
+          <t>duplicate_hash</t>
+        </is>
+      </c>
+    </row>
+    <row r="839">
+      <c r="A839" t="inlineStr">
+        <is>
+          <t>ikon.mn</t>
+        </is>
+      </c>
+      <c r="B839" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="C839" t="inlineStr">
+        <is>
+          <t>https://ikon.mn/ad/IKONMN_B1?1758251366</t>
+        </is>
+      </c>
+      <c r="D839" t="inlineStr">
+        <is>
+          <t>https://content.ikon.mn/raw/2025/9/16/18209/HS_Ikon_560x400.jpg</t>
+        </is>
+      </c>
+      <c r="E839" t="inlineStr"/>
+      <c r="F839" t="inlineStr"/>
+      <c r="G839" t="inlineStr">
+        <is>
+          <t>560</t>
+        </is>
+      </c>
+      <c r="H839" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="I839" t="inlineStr">
+        <is>
+          <t>duplicate_hash</t>
+        </is>
+      </c>
+    </row>
+    <row r="840">
+      <c r="A840" t="inlineStr">
+        <is>
+          <t>ikon.mn</t>
+        </is>
+      </c>
+      <c r="B840" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="C840" t="inlineStr">
+        <is>
+          <t>https://ikon.mn/ad/IKONMN_B1?1758251366</t>
+        </is>
+      </c>
+      <c r="D840" t="inlineStr">
+        <is>
+          <t>https://content.ikon.mn/raw/2025/9/8/18193/1._Ikon_copy_2.jpg</t>
+        </is>
+      </c>
+      <c r="E840" t="inlineStr"/>
+      <c r="F840" t="inlineStr"/>
+      <c r="G840" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H840" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I840" t="inlineStr">
+        <is>
+          <t>duplicate_hash</t>
+        </is>
+      </c>
+    </row>
+    <row r="841">
+      <c r="A841" t="inlineStr">
+        <is>
+          <t>ikon.mn</t>
+        </is>
+      </c>
+      <c r="B841" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="C841" t="inlineStr">
+        <is>
+          <t>https://ikon.mn/ad/IKONMN_B1?1758251366</t>
+        </is>
+      </c>
+      <c r="D841" t="inlineStr">
+        <is>
+          <t>https://content.ikon.mn/raw/2025/9/16/18209/HS_Ikon_560x400.jpg</t>
+        </is>
+      </c>
+      <c r="E841" t="inlineStr"/>
+      <c r="F841" t="inlineStr"/>
+      <c r="G841" t="inlineStr">
+        <is>
+          <t>560</t>
+        </is>
+      </c>
+      <c r="H841" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="I841" t="inlineStr">
+        <is>
+          <t>duplicate_hash</t>
+        </is>
+      </c>
+    </row>
+    <row r="842">
+      <c r="A842" t="inlineStr">
+        <is>
+          <t>ikon.mn</t>
+        </is>
+      </c>
+      <c r="B842" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="C842" t="inlineStr">
+        <is>
+          <t>https://ikon.mn/ad/IKONMN_B1?1758251366</t>
+        </is>
+      </c>
+      <c r="D842" t="inlineStr">
+        <is>
+          <t>https://content.ikon.mn/raw/2025/9/8/18193/1._Ikon_copy_2.jpg</t>
+        </is>
+      </c>
+      <c r="E842" t="inlineStr"/>
+      <c r="F842" t="inlineStr"/>
+      <c r="G842" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H842" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I842" t="inlineStr">
+        <is>
+          <t>duplicate_hash</t>
+        </is>
+      </c>
+    </row>
+    <row r="843">
+      <c r="A843" t="inlineStr">
+        <is>
+          <t>ikon.mn</t>
+        </is>
+      </c>
+      <c r="B843" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="C843" t="inlineStr">
+        <is>
+          <t>https://ikon.mn/ad/IKONMN_B1?1758251366</t>
+        </is>
+      </c>
+      <c r="D843" t="inlineStr">
+        <is>
+          <t>https://content.ikon.mn/raw/2025/9/16/18209/HS_Ikon_560x400.jpg</t>
+        </is>
+      </c>
+      <c r="E843" t="inlineStr"/>
+      <c r="F843" t="inlineStr"/>
+      <c r="G843" t="inlineStr">
+        <is>
+          <t>560</t>
+        </is>
+      </c>
+      <c r="H843" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="I843" t="inlineStr">
+        <is>
+          <t>duplicate_hash</t>
+        </is>
+      </c>
+    </row>
+    <row r="844">
+      <c r="A844" t="inlineStr">
+        <is>
+          <t>ikon.mn</t>
+        </is>
+      </c>
+      <c r="B844" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="C844" t="inlineStr">
+        <is>
+          <t>https://ikon.mn/ad/IKONMN_B1?1758251366</t>
+        </is>
+      </c>
+      <c r="D844" t="inlineStr">
+        <is>
+          <t>data:image/gif;base64,R0lGODlhAQABAAAAACwAAAAAAQABAAA=</t>
+        </is>
+      </c>
+      <c r="E844" t="inlineStr"/>
+      <c r="F844" t="inlineStr"/>
+      <c r="G844" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H844" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I844" t="inlineStr">
+        <is>
+          <t>download_timeout</t>
+        </is>
+      </c>
+    </row>
+    <row r="845">
+      <c r="A845" t="inlineStr">
+        <is>
+          <t>ikon.mn</t>
+        </is>
+      </c>
+      <c r="B845" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="C845" t="inlineStr">
+        <is>
+          <t>https://ikon.mn/ad/IKONMN_B1?1758251366</t>
+        </is>
+      </c>
+      <c r="D845" t="inlineStr">
+        <is>
+          <t>https://content.ikon.mn/raw/2025/9/16/18209/HS_Ikon_560x400.jpg</t>
+        </is>
+      </c>
+      <c r="E845" t="inlineStr"/>
+      <c r="F845" t="inlineStr"/>
+      <c r="G845" t="inlineStr">
+        <is>
+          <t>560</t>
+        </is>
+      </c>
+      <c r="H845" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="I845" t="inlineStr">
+        <is>
+          <t>duplicate_hash</t>
+        </is>
+      </c>
+    </row>
+    <row r="846">
+      <c r="A846" t="inlineStr">
+        <is>
+          <t>ikon.mn</t>
+        </is>
+      </c>
+      <c r="B846" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="C846" t="inlineStr">
+        <is>
+          <t>https://ikon.mn/ad/IKONMN_B1?1758251366</t>
+        </is>
+      </c>
+      <c r="D846" t="inlineStr">
+        <is>
+          <t>data:image/gif;base64,R0lGODlhAQABAAAAACwAAAAAAQABAAA=</t>
+        </is>
+      </c>
+      <c r="E846" t="inlineStr"/>
+      <c r="F846" t="inlineStr"/>
+      <c r="G846" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H846" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I846" t="inlineStr">
+        <is>
+          <t>download_timeout</t>
+        </is>
+      </c>
+    </row>
+    <row r="847">
+      <c r="A847" t="inlineStr">
+        <is>
+          <t>ikon.mn</t>
+        </is>
+      </c>
+      <c r="B847" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="C847" t="inlineStr">
+        <is>
+          <t>https://ikon.mn/ad/IKONMN_B1?1758251366</t>
+        </is>
+      </c>
+      <c r="D847" t="inlineStr">
+        <is>
+          <t>https://content.ikon.mn/raw/2025/9/16/18209/HS_Ikon_560x400.jpg</t>
+        </is>
+      </c>
+      <c r="E847" t="inlineStr"/>
+      <c r="F847" t="inlineStr"/>
+      <c r="G847" t="inlineStr">
+        <is>
+          <t>560</t>
+        </is>
+      </c>
+      <c r="H847" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="I847" t="inlineStr">
+        <is>
+          <t>duplicate_hash</t>
+        </is>
+      </c>
+    </row>
+    <row r="848">
+      <c r="A848" t="inlineStr">
+        <is>
+          <t>ikon.mn</t>
+        </is>
+      </c>
+      <c r="B848" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="C848" t="inlineStr">
+        <is>
+          <t>https://ikon.mn/ad/IKONMN_B1?1758251366</t>
+        </is>
+      </c>
+      <c r="D848" t="inlineStr">
+        <is>
+          <t>data:image/gif;base64,R0lGODlhAQABAAAAACwAAAAAAQABAAA=</t>
+        </is>
+      </c>
+      <c r="E848" t="inlineStr"/>
+      <c r="F848" t="inlineStr"/>
+      <c r="G848" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H848" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I848" t="inlineStr">
+        <is>
+          <t>download_timeout</t>
+        </is>
+      </c>
+    </row>
+    <row r="849">
+      <c r="A849" t="inlineStr">
+        <is>
+          <t>ikon.mn</t>
+        </is>
+      </c>
+      <c r="B849" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="C849" t="inlineStr">
+        <is>
+          <t>https://ikon.mn/ad/IKONMN_B1?1758251366</t>
+        </is>
+      </c>
+      <c r="D849" t="inlineStr">
+        <is>
+          <t>https://content.ikon.mn/raw/2025/9/16/18209/HS_Ikon_560x400.jpg</t>
+        </is>
+      </c>
+      <c r="E849" t="inlineStr"/>
+      <c r="F849" t="inlineStr"/>
+      <c r="G849" t="inlineStr">
+        <is>
+          <t>560</t>
+        </is>
+      </c>
+      <c r="H849" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="I849" t="inlineStr">
+        <is>
+          <t>duplicate_hash</t>
+        </is>
+      </c>
+    </row>
+    <row r="850">
+      <c r="A850" t="inlineStr">
+        <is>
+          <t>ikon.mn</t>
+        </is>
+      </c>
+      <c r="B850" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="C850" t="inlineStr">
+        <is>
+          <t>https://ikon.mn/ad/IKONMN_B1?1758251366</t>
+        </is>
+      </c>
+      <c r="D850" t="inlineStr">
+        <is>
+          <t>data:image/gif;base64,R0lGODlhAQABAAAAACwAAAAAAQABAAA=</t>
+        </is>
+      </c>
+      <c r="E850" t="inlineStr"/>
+      <c r="F850" t="inlineStr"/>
+      <c r="G850" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H850" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I850" t="inlineStr">
+        <is>
+          <t>download_timeout</t>
+        </is>
+      </c>
+    </row>
+    <row r="851">
+      <c r="A851" t="inlineStr">
+        <is>
+          <t>ikon.mn</t>
+        </is>
+      </c>
+      <c r="B851" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="C851" t="inlineStr">
+        <is>
+          <t>https://ikon.mn/ad/IKONMN_B1?1758251366</t>
+        </is>
+      </c>
+      <c r="D851" t="inlineStr">
+        <is>
+          <t>https://content.ikon.mn/raw/2025/9/16/18209/HS_Ikon_560x400.jpg</t>
+        </is>
+      </c>
+      <c r="E851" t="inlineStr"/>
+      <c r="F851" t="inlineStr"/>
+      <c r="G851" t="inlineStr">
+        <is>
+          <t>560</t>
+        </is>
+      </c>
+      <c r="H851" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="I851" t="inlineStr">
+        <is>
+          <t>duplicate_hash</t>
+        </is>
+      </c>
+    </row>
+    <row r="852">
+      <c r="A852" t="inlineStr">
+        <is>
+          <t>ikon.mn</t>
+        </is>
+      </c>
+      <c r="B852" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="C852" t="inlineStr">
+        <is>
+          <t>https://ikon.mn/ad/IKONMN_B1?1758251366</t>
+        </is>
+      </c>
+      <c r="D852" t="inlineStr">
+        <is>
+          <t>data:image/gif;base64,R0lGODlhAQABAAAAACwAAAAAAQABAAA=</t>
+        </is>
+      </c>
+      <c r="E852" t="inlineStr"/>
+      <c r="F852" t="inlineStr"/>
+      <c r="G852" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H852" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I852" t="inlineStr">
+        <is>
+          <t>download_timeout</t>
+        </is>
+      </c>
+    </row>
+    <row r="853">
+      <c r="A853" t="inlineStr">
+        <is>
+          <t>ikon.mn</t>
+        </is>
+      </c>
+      <c r="B853" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="C853" t="inlineStr">
+        <is>
+          <t>https://ikon.mn/ad/IKONMN_B1?1758251366</t>
+        </is>
+      </c>
+      <c r="D853" t="inlineStr">
+        <is>
+          <t>https://content.ikon.mn/raw/2025/9/16/18209/HS_Ikon_560x400.jpg</t>
+        </is>
+      </c>
+      <c r="E853" t="inlineStr"/>
+      <c r="F853" t="inlineStr"/>
+      <c r="G853" t="inlineStr">
+        <is>
+          <t>560</t>
+        </is>
+      </c>
+      <c r="H853" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="I853" t="inlineStr">
+        <is>
+          <t>duplicate_hash</t>
+        </is>
+      </c>
+    </row>
+    <row r="854">
+      <c r="A854" t="inlineStr">
+        <is>
+          <t>ikon.mn</t>
+        </is>
+      </c>
+      <c r="B854" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="C854" t="inlineStr">
+        <is>
+          <t>https://ikon.mn/ad/IKONMN_B1?1758251366</t>
+        </is>
+      </c>
+      <c r="D854" t="inlineStr">
+        <is>
+          <t>https://content.ikon.mn/raw/2025/9/8/18193/1._Ikon_copy_2.jpg</t>
+        </is>
+      </c>
+      <c r="E854" t="inlineStr"/>
+      <c r="F854" t="inlineStr"/>
+      <c r="G854" t="inlineStr">
+        <is>
+          <t>1280</t>
+        </is>
+      </c>
+      <c r="H854" t="inlineStr">
+        <is>
+          <t>720</t>
+        </is>
+      </c>
+      <c r="I854" t="inlineStr">
+        <is>
+          <t>duplicate_hash</t>
+        </is>
+      </c>
+    </row>
+    <row r="855">
+      <c r="A855" t="inlineStr">
+        <is>
+          <t>ikon.mn</t>
+        </is>
+      </c>
+      <c r="B855" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="C855" t="inlineStr">
+        <is>
+          <t>https://ikon.mn/ad/IKONMN_B1?1758251366</t>
+        </is>
+      </c>
+      <c r="D855" t="inlineStr">
+        <is>
+          <t>https://content.ikon.mn/raw/2025/9/16/18209/HS_Ikon_560x400.jpg</t>
+        </is>
+      </c>
+      <c r="E855" t="inlineStr"/>
+      <c r="F855" t="inlineStr"/>
+      <c r="G855" t="inlineStr">
+        <is>
+          <t>560</t>
+        </is>
+      </c>
+      <c r="H855" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="I855" t="inlineStr">
+        <is>
+          <t>duplicate_hash</t>
+        </is>
+      </c>
+    </row>
+    <row r="856">
+      <c r="A856" t="inlineStr">
+        <is>
+          <t>ikon.mn</t>
+        </is>
+      </c>
+      <c r="B856" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="C856" t="inlineStr">
+        <is>
+          <t>https://ikon.mn/ad/IKONMN_B1?1758251366</t>
+        </is>
+      </c>
+      <c r="D856" t="inlineStr">
+        <is>
+          <t>https://content.ikon.mn/raw/2025/9/8/18193/1._Ikon_copy_2.jpg</t>
+        </is>
+      </c>
+      <c r="E856" t="inlineStr"/>
+      <c r="F856" t="inlineStr"/>
+      <c r="G856" t="inlineStr">
+        <is>
+          <t>1280</t>
+        </is>
+      </c>
+      <c r="H856" t="inlineStr">
+        <is>
+          <t>720</t>
+        </is>
+      </c>
+      <c r="I856" t="inlineStr">
+        <is>
+          <t>duplicate_hash</t>
+        </is>
+      </c>
+    </row>
+    <row r="857">
+      <c r="A857" t="inlineStr">
+        <is>
+          <t>ikon.mn</t>
+        </is>
+      </c>
+      <c r="B857" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="C857" t="inlineStr">
+        <is>
+          <t>https://ikon.mn/ad/IKONMN_B1?1758251366</t>
+        </is>
+      </c>
+      <c r="D857" t="inlineStr">
+        <is>
+          <t>https://content.ikon.mn/raw/2025/9/16/18209/HS_Ikon_560x400.jpg</t>
+        </is>
+      </c>
+      <c r="E857" t="inlineStr"/>
+      <c r="F857" t="inlineStr"/>
+      <c r="G857" t="inlineStr">
+        <is>
+          <t>560</t>
+        </is>
+      </c>
+      <c r="H857" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="I857" t="inlineStr">
+        <is>
+          <t>duplicate_hash</t>
+        </is>
+      </c>
+    </row>
+    <row r="858">
+      <c r="A858" t="inlineStr">
+        <is>
+          <t>ikon.mn</t>
+        </is>
+      </c>
+      <c r="B858" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="C858" t="inlineStr">
+        <is>
+          <t>https://ikon.mn/ad/IKONMN_B1?1758251366</t>
+        </is>
+      </c>
+      <c r="D858" t="inlineStr">
+        <is>
+          <t>https://content.ikon.mn/raw/2025/9/8/18193/1._Ikon_copy_2.jpg</t>
+        </is>
+      </c>
+      <c r="E858" t="inlineStr"/>
+      <c r="F858" t="inlineStr"/>
+      <c r="G858" t="inlineStr">
+        <is>
+          <t>1280</t>
+        </is>
+      </c>
+      <c r="H858" t="inlineStr">
+        <is>
+          <t>720</t>
+        </is>
+      </c>
+      <c r="I858" t="inlineStr">
+        <is>
+          <t>duplicate_hash</t>
+        </is>
+      </c>
+    </row>
+    <row r="859">
+      <c r="A859" t="inlineStr">
+        <is>
+          <t>ikon.mn</t>
+        </is>
+      </c>
+      <c r="B859" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="C859" t="inlineStr">
+        <is>
+          <t>https://ikon.mn/ad/IKONMN_B1?1758251366</t>
+        </is>
+      </c>
+      <c r="D859" t="inlineStr">
+        <is>
+          <t>https://content.ikon.mn/raw/2025/9/16/18209/HS_Ikon_560x400.jpg</t>
+        </is>
+      </c>
+      <c r="E859" t="inlineStr"/>
+      <c r="F859" t="inlineStr"/>
+      <c r="G859" t="inlineStr">
+        <is>
+          <t>560</t>
+        </is>
+      </c>
+      <c r="H859" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="I859" t="inlineStr">
+        <is>
+          <t>duplicate_hash</t>
+        </is>
+      </c>
+    </row>
+    <row r="860">
+      <c r="A860" t="inlineStr">
+        <is>
+          <t>ikon.mn</t>
+        </is>
+      </c>
+      <c r="B860" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="C860" t="inlineStr">
+        <is>
+          <t>https://ikon.mn/ad/IKONMN_B1?1758251366</t>
+        </is>
+      </c>
+      <c r="D860" t="inlineStr">
+        <is>
+          <t>https://content.ikon.mn/raw/2025/9/8/18193/1._Ikon_copy_2.jpg</t>
+        </is>
+      </c>
+      <c r="E860" t="inlineStr"/>
+      <c r="F860" t="inlineStr"/>
+      <c r="G860" t="inlineStr">
+        <is>
+          <t>1280</t>
+        </is>
+      </c>
+      <c r="H860" t="inlineStr">
+        <is>
+          <t>720</t>
+        </is>
+      </c>
+      <c r="I860" t="inlineStr">
+        <is>
+          <t>duplicate_hash</t>
+        </is>
+      </c>
+    </row>
+    <row r="861">
+      <c r="A861" t="inlineStr">
+        <is>
+          <t>ikon.mn</t>
+        </is>
+      </c>
+      <c r="B861" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="C861" t="inlineStr">
+        <is>
+          <t>https://ikon.mn/ad/IKONMN_B1?1758251366</t>
+        </is>
+      </c>
+      <c r="D861" t="inlineStr">
+        <is>
+          <t>https://content.ikon.mn/raw/2025/9/16/18209/HS_Ikon_560x400.jpg</t>
+        </is>
+      </c>
+      <c r="E861" t="inlineStr"/>
+      <c r="F861" t="inlineStr"/>
+      <c r="G861" t="inlineStr">
+        <is>
+          <t>560</t>
+        </is>
+      </c>
+      <c r="H861" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="I861" t="inlineStr">
+        <is>
+          <t>duplicate_hash</t>
+        </is>
+      </c>
+    </row>
+    <row r="862">
+      <c r="A862" t="inlineStr">
+        <is>
+          <t>ikon.mn</t>
+        </is>
+      </c>
+      <c r="B862" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="C862" t="inlineStr">
+        <is>
+          <t>https://ikon.mn/ad/IKONMN_B1?1758251366</t>
+        </is>
+      </c>
+      <c r="D862" t="inlineStr">
+        <is>
+          <t>https://content.ikon.mn/raw/2025/9/8/18193/1._Ikon_copy_2.jpg</t>
+        </is>
+      </c>
+      <c r="E862" t="inlineStr"/>
+      <c r="F862" t="inlineStr"/>
+      <c r="G862" t="inlineStr">
+        <is>
+          <t>1280</t>
+        </is>
+      </c>
+      <c r="H862" t="inlineStr">
+        <is>
+          <t>720</t>
+        </is>
+      </c>
+      <c r="I862" t="inlineStr">
+        <is>
+          <t>duplicate_hash</t>
+        </is>
+      </c>
+    </row>
+    <row r="863">
+      <c r="A863" t="inlineStr">
+        <is>
+          <t>ikon.mn</t>
+        </is>
+      </c>
+      <c r="B863" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="C863" t="inlineStr">
+        <is>
+          <t>https://ikon.mn/ad/IKONMN_B1?1758251366</t>
+        </is>
+      </c>
+      <c r="D863" t="inlineStr">
+        <is>
+          <t>https://content.ikon.mn/raw/2025/9/16/18209/HS_Ikon_560x400.jpg</t>
+        </is>
+      </c>
+      <c r="E863" t="inlineStr"/>
+      <c r="F863" t="inlineStr"/>
+      <c r="G863" t="inlineStr">
+        <is>
+          <t>560</t>
+        </is>
+      </c>
+      <c r="H863" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="I863" t="inlineStr">
+        <is>
+          <t>duplicate_hash</t>
+        </is>
+      </c>
+    </row>
+    <row r="864">
+      <c r="A864" t="inlineStr">
+        <is>
+          <t>ikon.mn</t>
+        </is>
+      </c>
+      <c r="B864" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="C864" t="inlineStr">
+        <is>
+          <t>https://ikon.mn/ad/IKONMN_B1?1758251366</t>
+        </is>
+      </c>
+      <c r="D864" t="inlineStr">
+        <is>
+          <t>https://content.ikon.mn/raw/2025/9/8/18193/1._Ikon_copy_2.jpg</t>
+        </is>
+      </c>
+      <c r="E864" t="inlineStr"/>
+      <c r="F864" t="inlineStr"/>
+      <c r="G864" t="inlineStr">
+        <is>
+          <t>1280</t>
+        </is>
+      </c>
+      <c r="H864" t="inlineStr">
+        <is>
+          <t>720</t>
+        </is>
+      </c>
+      <c r="I864" t="inlineStr">
+        <is>
+          <t>duplicate_hash</t>
+        </is>
+      </c>
+    </row>
+    <row r="865">
+      <c r="A865" t="inlineStr">
+        <is>
+          <t>ikon.mn</t>
+        </is>
+      </c>
+      <c r="B865" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="C865" t="inlineStr">
+        <is>
+          <t>https://ikon.mn/ad/IKONMN_B1?1758251366</t>
+        </is>
+      </c>
+      <c r="D865" t="inlineStr">
+        <is>
+          <t>data:image/gif;base64,R0lGODlhAQABAAAAACwAAAAAAQABAAA=</t>
+        </is>
+      </c>
+      <c r="E865" t="inlineStr"/>
+      <c r="F865" t="inlineStr"/>
+      <c r="G865" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H865" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I865" t="inlineStr">
+        <is>
+          <t>download_timeout</t>
+        </is>
+      </c>
+    </row>
+    <row r="866">
+      <c r="A866" t="inlineStr">
+        <is>
+          <t>ikon.mn</t>
+        </is>
+      </c>
+      <c r="B866" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="C866" t="inlineStr">
+        <is>
+          <t>https://ikon.mn/ad/IKONMN_B1?1758251366</t>
+        </is>
+      </c>
+      <c r="D866" t="inlineStr">
+        <is>
+          <t>https://content.ikon.mn/raw/2025/9/8/18193/1._Ikon_copy_2.jpg</t>
+        </is>
+      </c>
+      <c r="E866" t="inlineStr"/>
+      <c r="F866" t="inlineStr"/>
+      <c r="G866" t="inlineStr">
+        <is>
+          <t>1280</t>
+        </is>
+      </c>
+      <c r="H866" t="inlineStr">
+        <is>
+          <t>720</t>
+        </is>
+      </c>
+      <c r="I866" t="inlineStr">
+        <is>
+          <t>duplicate_hash</t>
+        </is>
+      </c>
+    </row>
+    <row r="867">
+      <c r="A867" t="inlineStr">
+        <is>
+          <t>ikon.mn</t>
+        </is>
+      </c>
+      <c r="B867" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="C867" t="inlineStr">
+        <is>
+          <t>https://ikon.mn/ad/IKONMN_B1?1758251366</t>
+        </is>
+      </c>
+      <c r="D867" t="inlineStr">
+        <is>
+          <t>data:image/gif;base64,R0lGODlhAQABAAAAACwAAAAAAQABAAA=</t>
+        </is>
+      </c>
+      <c r="E867" t="inlineStr"/>
+      <c r="F867" t="inlineStr"/>
+      <c r="G867" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H867" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I867" t="inlineStr">
+        <is>
+          <t>download_timeout</t>
+        </is>
+      </c>
+    </row>
+    <row r="868">
+      <c r="A868" t="inlineStr">
+        <is>
+          <t>ikon.mn</t>
+        </is>
+      </c>
+      <c r="B868" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="C868" t="inlineStr">
+        <is>
+          <t>https://ikon.mn/ad/IKONMN_B1?1758251366</t>
+        </is>
+      </c>
+      <c r="D868" t="inlineStr">
+        <is>
+          <t>https://content.ikon.mn/raw/2025/9/8/18193/1._Ikon_copy_2.jpg</t>
+        </is>
+      </c>
+      <c r="E868" t="inlineStr"/>
+      <c r="F868" t="inlineStr"/>
+      <c r="G868" t="inlineStr">
+        <is>
+          <t>1280</t>
+        </is>
+      </c>
+      <c r="H868" t="inlineStr">
+        <is>
+          <t>720</t>
+        </is>
+      </c>
+      <c r="I868" t="inlineStr">
+        <is>
+          <t>duplicate_hash</t>
+        </is>
+      </c>
+    </row>
+    <row r="869">
+      <c r="A869" t="inlineStr">
+        <is>
+          <t>ikon.mn</t>
+        </is>
+      </c>
+      <c r="B869" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="C869" t="inlineStr">
+        <is>
+          <t>https://ikon.mn/ad/IKONMN_B1?1758251366</t>
+        </is>
+      </c>
+      <c r="D869" t="inlineStr">
+        <is>
+          <t>data:image/gif;base64,R0lGODlhAQABAAAAACwAAAAAAQABAAA=</t>
+        </is>
+      </c>
+      <c r="E869" t="inlineStr"/>
+      <c r="F869" t="inlineStr"/>
+      <c r="G869" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H869" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I869" t="inlineStr">
+        <is>
+          <t>download_timeout</t>
+        </is>
+      </c>
+    </row>
+    <row r="870">
+      <c r="A870" t="inlineStr">
+        <is>
+          <t>ikon.mn</t>
+        </is>
+      </c>
+      <c r="B870" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="C870" t="inlineStr">
+        <is>
+          <t>https://ikon.mn/ad/IKONMN_B1?1758251366</t>
+        </is>
+      </c>
+      <c r="D870" t="inlineStr">
+        <is>
+          <t>https://content.ikon.mn/raw/2025/9/8/18193/1._Ikon_copy_2.jpg</t>
+        </is>
+      </c>
+      <c r="E870" t="inlineStr"/>
+      <c r="F870" t="inlineStr"/>
+      <c r="G870" t="inlineStr">
+        <is>
+          <t>1280</t>
+        </is>
+      </c>
+      <c r="H870" t="inlineStr">
+        <is>
+          <t>720</t>
+        </is>
+      </c>
+      <c r="I870" t="inlineStr">
+        <is>
+          <t>duplicate_hash</t>
+        </is>
+      </c>
+    </row>
+    <row r="871">
+      <c r="A871" t="inlineStr">
+        <is>
+          <t>ikon.mn</t>
+        </is>
+      </c>
+      <c r="B871" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="C871" t="inlineStr">
+        <is>
+          <t>https://ikon.mn/ad/IKONMN_B1?1758251366</t>
+        </is>
+      </c>
+      <c r="D871" t="inlineStr">
+        <is>
+          <t>data:image/gif;base64,R0lGODlhAQABAAAAACwAAAAAAQABAAA=</t>
+        </is>
+      </c>
+      <c r="E871" t="inlineStr"/>
+      <c r="F871" t="inlineStr"/>
+      <c r="G871" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H871" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I871" t="inlineStr">
+        <is>
+          <t>download_timeout</t>
+        </is>
+      </c>
+    </row>
+    <row r="872">
+      <c r="A872" t="inlineStr">
+        <is>
+          <t>ikon.mn</t>
+        </is>
+      </c>
+      <c r="B872" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="C872" t="inlineStr">
+        <is>
+          <t>https://ikon.mn/ad/IKONMN_B1?1758251366</t>
+        </is>
+      </c>
+      <c r="D872" t="inlineStr">
+        <is>
+          <t>https://content.ikon.mn/raw/2025/9/8/18193/1._Ikon_copy_2.jpg</t>
+        </is>
+      </c>
+      <c r="E872" t="inlineStr"/>
+      <c r="F872" t="inlineStr"/>
+      <c r="G872" t="inlineStr">
+        <is>
+          <t>1280</t>
+        </is>
+      </c>
+      <c r="H872" t="inlineStr">
+        <is>
+          <t>720</t>
+        </is>
+      </c>
+      <c r="I872" t="inlineStr">
+        <is>
+          <t>duplicate_hash</t>
+        </is>
+      </c>
+    </row>
+    <row r="873">
+      <c r="A873" t="inlineStr">
+        <is>
+          <t>ikon.mn</t>
+        </is>
+      </c>
+      <c r="B873" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="C873" t="inlineStr">
+        <is>
+          <t>https://ikon.mn/ad/IKONMN_B1?1758251366</t>
+        </is>
+      </c>
+      <c r="D873" t="inlineStr">
+        <is>
+          <t>data:image/gif;base64,R0lGODlhAQABAAAAACwAAAAAAQABAAA=</t>
+        </is>
+      </c>
+      <c r="E873" t="inlineStr"/>
+      <c r="F873" t="inlineStr"/>
+      <c r="G873" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H873" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I873" t="inlineStr">
+        <is>
+          <t>download_timeout</t>
+        </is>
+      </c>
+    </row>
+    <row r="874">
+      <c r="A874" t="inlineStr">
+        <is>
+          <t>ikon.mn</t>
+        </is>
+      </c>
+      <c r="B874" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="C874" t="inlineStr">
+        <is>
+          <t>https://ikon.mn/ad/IKONMN_B1?1758251366</t>
+        </is>
+      </c>
+      <c r="D874" t="inlineStr">
+        <is>
+          <t>https://content.ikon.mn/raw/2025/9/8/18193/1._Ikon_copy_2.jpg</t>
+        </is>
+      </c>
+      <c r="E874" t="inlineStr"/>
+      <c r="F874" t="inlineStr"/>
+      <c r="G874" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H874" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I874" t="inlineStr">
+        <is>
+          <t>duplicate_hash</t>
+        </is>
+      </c>
+    </row>
+    <row r="875">
+      <c r="A875" t="inlineStr">
+        <is>
+          <t>ikon.mn</t>
+        </is>
+      </c>
+      <c r="B875" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="C875" t="inlineStr">
+        <is>
+          <t>https://ikon.mn/ad/IKONMN_B1?1758251366</t>
+        </is>
+      </c>
+      <c r="D875" t="inlineStr">
+        <is>
+          <t>https://content.ikon.mn/raw/2025/9/16/18209/HS_Ikon_560x400.jpg</t>
+        </is>
+      </c>
+      <c r="E875" t="inlineStr"/>
+      <c r="F875" t="inlineStr"/>
+      <c r="G875" t="inlineStr">
+        <is>
+          <t>560</t>
+        </is>
+      </c>
+      <c r="H875" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="I875" t="inlineStr">
+        <is>
+          <t>duplicate_hash</t>
+        </is>
+      </c>
+    </row>
+    <row r="876">
+      <c r="A876" t="inlineStr">
+        <is>
+          <t>ikon.mn</t>
+        </is>
+      </c>
+      <c r="B876" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="C876" t="inlineStr">
+        <is>
+          <t>https://ikon.mn/ad/IKONMN_B1?1758251366</t>
+        </is>
+      </c>
+      <c r="D876" t="inlineStr">
+        <is>
+          <t>https://content.ikon.mn/raw/2025/9/8/18193/1._Ikon_copy_2.jpg</t>
+        </is>
+      </c>
+      <c r="E876" t="inlineStr"/>
+      <c r="F876" t="inlineStr"/>
+      <c r="G876" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H876" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I876" t="inlineStr">
+        <is>
+          <t>duplicate_hash</t>
+        </is>
+      </c>
+    </row>
+    <row r="877">
+      <c r="A877" t="inlineStr">
+        <is>
+          <t>ikon.mn</t>
+        </is>
+      </c>
+      <c r="B877" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="C877" t="inlineStr">
+        <is>
+          <t>https://ikon.mn/ad/IKONMN_B1?1758251366</t>
+        </is>
+      </c>
+      <c r="D877" t="inlineStr">
+        <is>
+          <t>https://content.ikon.mn/raw/2025/9/16/18209/HS_Ikon_560x400.jpg</t>
+        </is>
+      </c>
+      <c r="E877" t="inlineStr"/>
+      <c r="F877" t="inlineStr"/>
+      <c r="G877" t="inlineStr">
+        <is>
+          <t>560</t>
+        </is>
+      </c>
+      <c r="H877" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="I877" t="inlineStr">
+        <is>
+          <t>duplicate_hash</t>
+        </is>
+      </c>
+    </row>
+    <row r="878">
+      <c r="A878" t="inlineStr">
+        <is>
+          <t>ikon.mn</t>
+        </is>
+      </c>
+      <c r="B878" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="C878" t="inlineStr">
+        <is>
+          <t>https://ikon.mn/ad/IKONMN_B1?1758251366</t>
+        </is>
+      </c>
+      <c r="D878" t="inlineStr">
+        <is>
+          <t>https://content.ikon.mn/raw/2025/9/8/18193/1._Ikon_copy_2.jpg</t>
+        </is>
+      </c>
+      <c r="E878" t="inlineStr"/>
+      <c r="F878" t="inlineStr"/>
+      <c r="G878" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H878" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I878" t="inlineStr">
+        <is>
+          <t>duplicate_hash</t>
+        </is>
+      </c>
+    </row>
+    <row r="879">
+      <c r="A879" t="inlineStr">
+        <is>
+          <t>ikon.mn</t>
+        </is>
+      </c>
+      <c r="B879" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="C879" t="inlineStr">
+        <is>
+          <t>https://ikon.mn/ad/IKONMN_B1?1758251366</t>
+        </is>
+      </c>
+      <c r="D879" t="inlineStr">
+        <is>
+          <t>https://content.ikon.mn/raw/2025/9/16/18209/HS_Ikon_560x400.jpg</t>
+        </is>
+      </c>
+      <c r="E879" t="inlineStr"/>
+      <c r="F879" t="inlineStr"/>
+      <c r="G879" t="inlineStr">
+        <is>
+          <t>560</t>
+        </is>
+      </c>
+      <c r="H879" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="I879" t="inlineStr">
+        <is>
+          <t>duplicate_hash</t>
+        </is>
+      </c>
+    </row>
+    <row r="880">
+      <c r="A880" t="inlineStr">
+        <is>
+          <t>ikon.mn</t>
+        </is>
+      </c>
+      <c r="B880" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="C880" t="inlineStr">
+        <is>
+          <t>https://ikon.mn/ad/IKONMN_B1?1758251366</t>
+        </is>
+      </c>
+      <c r="D880" t="inlineStr">
+        <is>
+          <t>https://content.ikon.mn/raw/2025/9/8/18193/1._Ikon_copy_2.jpg</t>
+        </is>
+      </c>
+      <c r="E880" t="inlineStr"/>
+      <c r="F880" t="inlineStr"/>
+      <c r="G880" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H880" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I880" t="inlineStr">
+        <is>
+          <t>duplicate_hash</t>
+        </is>
+      </c>
+    </row>
+    <row r="881">
+      <c r="A881" t="inlineStr">
+        <is>
+          <t>ikon.mn</t>
+        </is>
+      </c>
+      <c r="B881" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="C881" t="inlineStr">
+        <is>
+          <t>https://ikon.mn/ad/IKONMN_B1?1758251366</t>
+        </is>
+      </c>
+      <c r="D881" t="inlineStr">
+        <is>
+          <t>https://content.ikon.mn/raw/2025/9/16/18209/HS_Ikon_560x400.jpg</t>
+        </is>
+      </c>
+      <c r="E881" t="inlineStr"/>
+      <c r="F881" t="inlineStr"/>
+      <c r="G881" t="inlineStr">
+        <is>
+          <t>560</t>
+        </is>
+      </c>
+      <c r="H881" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="I881" t="inlineStr">
+        <is>
+          <t>duplicate_hash</t>
+        </is>
+      </c>
+    </row>
+    <row r="882">
+      <c r="A882" t="inlineStr">
+        <is>
+          <t>ikon.mn</t>
+        </is>
+      </c>
+      <c r="B882" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="C882" t="inlineStr">
+        <is>
+          <t>https://ikon.mn/ad/IKONMN_B1?1758251366</t>
+        </is>
+      </c>
+      <c r="D882" t="inlineStr">
+        <is>
+          <t>https://content.ikon.mn/raw/2025/9/8/18193/1._Ikon_copy_2.jpg</t>
+        </is>
+      </c>
+      <c r="E882" t="inlineStr"/>
+      <c r="F882" t="inlineStr"/>
+      <c r="G882" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H882" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I882" t="inlineStr">
+        <is>
+          <t>duplicate_hash</t>
+        </is>
+      </c>
+    </row>
+    <row r="883">
+      <c r="A883" t="inlineStr">
+        <is>
+          <t>ikon.mn</t>
+        </is>
+      </c>
+      <c r="B883" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="C883" t="inlineStr">
+        <is>
+          <t>https://ikon.mn/ad/IKONMN_B1?1758251366</t>
+        </is>
+      </c>
+      <c r="D883" t="inlineStr">
+        <is>
+          <t>https://content.ikon.mn/raw/2025/9/16/18209/HS_Ikon_560x400.jpg</t>
+        </is>
+      </c>
+      <c r="E883" t="inlineStr"/>
+      <c r="F883" t="inlineStr"/>
+      <c r="G883" t="inlineStr">
+        <is>
+          <t>560</t>
+        </is>
+      </c>
+      <c r="H883" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="I883" t="inlineStr">
+        <is>
+          <t>duplicate_hash</t>
+        </is>
+      </c>
+    </row>
+    <row r="884">
+      <c r="A884" t="inlineStr">
+        <is>
+          <t>gogo.mn</t>
+        </is>
+      </c>
+      <c r="B884" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="C884" t="inlineStr">
+        <is>
+          <t>https://gogo.mn/</t>
+        </is>
+      </c>
+      <c r="D884" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E884" t="inlineStr">
+        <is>
+          <t>https://edge.boost.mn/67e3d390bbe407d318e482f1/creative_converted/7424e65a-4a2f-421b-b0af-234409514d5a/68ba3ae4f067562fb0b6a40a_compressed.webp</t>
+        </is>
+      </c>
+      <c r="F884" s="1" t="inlineStr">
+        <is>
+          <t>../https:/gogo.mn</t>
+        </is>
+      </c>
+      <c r="G884" t="inlineStr"/>
+      <c r="H884" t="inlineStr">
+        <is>
+          <t>C:\Users\tuguldur.kh\Downloads\adscraper-full-code\banner_screenshots\gogo.mn\2025-09-19\gogo_boost_1758251611_aff40ab66b.webp</t>
+        </is>
+      </c>
+      <c r="I884" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="885">
+      <c r="A885" t="inlineStr">
+        <is>
+          <t>gogo.mn</t>
+        </is>
+      </c>
+      <c r="B885" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="C885" t="inlineStr">
+        <is>
+          <t>https://gogo.mn/</t>
+        </is>
+      </c>
+      <c r="D885" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E885" t="inlineStr">
+        <is>
+          <t>https://edge.boost.mn/67e3d390bbe407d318e482f1/creative_converted/0d02ea74-8043-46ce-83f6-1ee77c5ff921/68b80376f067562fb0b6a3f7_compressed.webp</t>
+        </is>
+      </c>
+      <c r="F885" s="1" t="inlineStr">
+        <is>
+          <t>../https:/gogo.mn</t>
+        </is>
+      </c>
+      <c r="G885" t="inlineStr"/>
+      <c r="H885" t="inlineStr">
+        <is>
+          <t>C:\Users\tuguldur.kh\Downloads\adscraper-full-code\banner_screenshots\gogo.mn\2025-09-19\gogo_boost_1758251623_a1626cc53b.webp</t>
+        </is>
+      </c>
+      <c r="I885" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="886">
+      <c r="A886" t="inlineStr">
+        <is>
+          <t>gogo.mn</t>
+        </is>
+      </c>
+      <c r="B886" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="C886" t="inlineStr">
+        <is>
+          <t>https://gogo.mn/</t>
+        </is>
+      </c>
+      <c r="D886" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E886" t="inlineStr">
+        <is>
+          <t>https://edge.boost.mn/67e3d390bbe407d318e482f1/creative_converted/603f66e1-d2f6-4a58-8a28-ed8d1a943f8a/68ba3d43f067562fb0b6a410_compressed.webp</t>
+        </is>
+      </c>
+      <c r="F886" s="1" t="inlineStr">
+        <is>
+          <t>../https:/gogo.mn</t>
+        </is>
+      </c>
+      <c r="G886" t="inlineStr"/>
+      <c r="H886" t="inlineStr">
+        <is>
+          <t>C:\Users\tuguldur.kh\Downloads\adscraper-full-code\banner_screenshots\gogo.mn\2025-09-19\gogo_boost_1758251623_371807dfd7.webp</t>
+        </is>
+      </c>
+      <c r="I886" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="887">
+      <c r="A887" t="inlineStr">
+        <is>
+          <t>gogo.mn</t>
+        </is>
+      </c>
+      <c r="B887" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="C887" t="inlineStr">
+        <is>
+          <t>https://gogo.mn/</t>
+        </is>
+      </c>
+      <c r="D887" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E887" t="inlineStr">
+        <is>
+          <t>https://edge.boost.mn/67e3d390bbe407d318e482f1/creative_converted/8b6ef511-34d8-467f-b7c3-b0580f52b569/68ca72a75354a679a0e1430a_compressed.webp</t>
+        </is>
+      </c>
+      <c r="F887" s="1" t="inlineStr">
+        <is>
+          <t>../https:/gogo.mn</t>
+        </is>
+      </c>
+      <c r="G887" t="inlineStr"/>
+      <c r="H887" t="inlineStr">
+        <is>
+          <t>C:\Users\tuguldur.kh\Downloads\adscraper-full-code\banner_screenshots\gogo.mn\2025-09-19\gogo_boost_1758251623_fefdb344c2.webp</t>
+        </is>
+      </c>
+      <c r="I887" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="888">
+      <c r="A888" t="inlineStr">
+        <is>
+          <t>gogo.mn</t>
+        </is>
+      </c>
+      <c r="B888" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="C888" t="inlineStr">
+        <is>
+          <t>https://gogo.mn/</t>
+        </is>
+      </c>
+      <c r="D888" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E888" t="inlineStr">
+        <is>
+          <t>https://edge.boost.mn/67e3d390bbe407d318e482f1/creative_converted/ac979e6a-9179-4f49-9f66-e1b3128a9c21/68c0d96eed515da17275eb24_compressed.webp</t>
+        </is>
+      </c>
+      <c r="F888" s="1" t="inlineStr">
+        <is>
+          <t>../https:/gogo.mn</t>
+        </is>
+      </c>
+      <c r="G888" t="inlineStr"/>
+      <c r="H888" t="inlineStr">
+        <is>
+          <t>C:\Users\tuguldur.kh\Downloads\adscraper-full-code\banner_screenshots\gogo.mn\2025-09-19\gogo_boost_1758251623_af3ba72442.webp</t>
+        </is>
+      </c>
+      <c r="I888" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="889">
+      <c r="A889" t="inlineStr">
+        <is>
+          <t>gogo.mn</t>
+        </is>
+      </c>
+      <c r="B889" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="C889" t="inlineStr">
+        <is>
+          <t>https://gogo.mn/</t>
+        </is>
+      </c>
+      <c r="D889" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E889" t="inlineStr">
+        <is>
+          <t>https://edge.boost.mn/67e3d390bbe407d318e482f1/creative_converted/c8c21448-8561-4525-88c4-16e7251f6373/68ba3a9bf067562fb0b6a409_compressed.webp</t>
+        </is>
+      </c>
+      <c r="F889" s="1" t="inlineStr">
+        <is>
+          <t>../https:/gogo.mn</t>
+        </is>
+      </c>
+      <c r="G889" t="inlineStr"/>
+      <c r="H889" t="inlineStr">
+        <is>
+          <t>C:\Users\tuguldur.kh\Downloads\adscraper-full-code\banner_screenshots\gogo.mn\2025-09-19\gogo_boost_1758251623_bf4e4a14d8.webp</t>
+        </is>
+      </c>
+      <c r="I889" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="890">
+      <c r="A890" t="inlineStr">
+        <is>
+          <t>gogo.mn</t>
+        </is>
+      </c>
+      <c r="B890" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="C890" t="inlineStr">
+        <is>
+          <t>https://gogo.mn/</t>
+        </is>
+      </c>
+      <c r="D890" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E890" t="inlineStr">
+        <is>
+          <t>https://edge.boost.mn/67e3d390bbe407d318e482f1/creative_converted/e2d7598a-66ee-41db-8095-7e15370d44fd/68c8abca5354a679a0e142fa_compressed.webp</t>
+        </is>
+      </c>
+      <c r="F890" s="1" t="inlineStr">
+        <is>
+          <t>../https:/gogo.mn</t>
+        </is>
+      </c>
+      <c r="G890" t="inlineStr"/>
+      <c r="H890" t="inlineStr">
+        <is>
+          <t>C:\Users\tuguldur.kh\Downloads\adscraper-full-code\banner_screenshots\gogo.mn\2025-09-19\gogo_boost_1758251623_0f3b81fbf5.webp</t>
+        </is>
+      </c>
+      <c r="I890" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="891">
+      <c r="A891" t="inlineStr">
+        <is>
+          <t>gogo.mn</t>
+        </is>
+      </c>
+      <c r="B891" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="C891" t="inlineStr">
+        <is>
+          <t>https://gogo.mn/</t>
+        </is>
+      </c>
+      <c r="D891" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E891" t="inlineStr">
+        <is>
+          <t>https://edge.boost.mn/67e3d390bbe407d318e482f1/creative_converted/e7c0b9b8-c1d9-4b8c-8870-0237e279f6c2/68c3a8c8861dec86a871e6fe_compressed.webp</t>
+        </is>
+      </c>
+      <c r="F891" s="1" t="inlineStr">
+        <is>
+          <t>../https:/gogo.mn</t>
+        </is>
+      </c>
+      <c r="G891" t="inlineStr"/>
+      <c r="H891" t="inlineStr">
+        <is>
+          <t>C:\Users\tuguldur.kh\Downloads\adscraper-full-code\banner_screenshots\gogo.mn\2025-09-19\gogo_boost_1758251623_b436737b1d.webp</t>
+        </is>
+      </c>
+      <c r="I891" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="892">
+      <c r="A892" t="inlineStr">
+        <is>
+          <t>gogo.mn</t>
+        </is>
+      </c>
+      <c r="B892" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="C892" t="inlineStr">
+        <is>
+          <t>https://gogo.mn/</t>
+        </is>
+      </c>
+      <c r="D892" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E892" t="inlineStr">
+        <is>
+          <t>https://edge.boost.mn/67e3d390bbe407d318e482f1/creative_converted/7424e65a-4a2f-421b-b0af-234409514d5a/68ba3ae4f067562fb0b6a40a_compressed.webp</t>
+        </is>
+      </c>
+      <c r="F892" s="1" t="inlineStr">
+        <is>
+          <t>../https:/gogo.mn</t>
+        </is>
+      </c>
+      <c r="G892" t="inlineStr"/>
+      <c r="H892" t="inlineStr"/>
+      <c r="I892" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="893">
+      <c r="A893" t="inlineStr">
+        <is>
+          <t>gogo.mn</t>
+        </is>
+      </c>
+      <c r="B893" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="C893" t="inlineStr">
+        <is>
+          <t>https://gogo.mn/</t>
+        </is>
+      </c>
+      <c r="D893" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E893" t="inlineStr">
+        <is>
+          <t>https://edge.boost.mn/67e3d390bbe407d318e482f1/creative_converted/0d02ea74-8043-46ce-83f6-1ee77c5ff921/68b80376f067562fb0b6a3f7_compressed.webp</t>
+        </is>
+      </c>
+      <c r="F893" s="1" t="inlineStr">
+        <is>
+          <t>../https:/gogo.mn</t>
+        </is>
+      </c>
+      <c r="G893" t="inlineStr"/>
+      <c r="H893" t="inlineStr"/>
+      <c r="I893" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="894">
+      <c r="A894" t="inlineStr">
+        <is>
+          <t>gogo.mn</t>
+        </is>
+      </c>
+      <c r="B894" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="C894" t="inlineStr">
+        <is>
+          <t>https://gogo.mn/</t>
+        </is>
+      </c>
+      <c r="D894" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E894" t="inlineStr">
+        <is>
+          <t>https://edge.boost.mn/67e3d390bbe407d318e482f1/creative_converted/473b116a-bce4-49c2-aea6-04a24444bba2/68ba4e1bf067562fb0b6a413_compressed.webp</t>
+        </is>
+      </c>
+      <c r="F894" s="1" t="inlineStr">
+        <is>
+          <t>../https:/gogo.mn</t>
+        </is>
+      </c>
+      <c r="G894" t="inlineStr"/>
+      <c r="H894" t="inlineStr">
+        <is>
+          <t>C:\Users\tuguldur.kh\Downloads\adscraper-full-code\banner_screenshots\gogo.mn\2025-09-19\gogo_boost_1758251671_ba402249d0.webp</t>
+        </is>
+      </c>
+      <c r="I894" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="895">
+      <c r="A895" t="inlineStr">
+        <is>
+          <t>gogo.mn</t>
+        </is>
+      </c>
+      <c r="B895" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="C895" t="inlineStr">
+        <is>
+          <t>https://gogo.mn/</t>
+        </is>
+      </c>
+      <c r="D895" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E895" t="inlineStr">
+        <is>
+          <t>https://edge.boost.mn/67e3d390bbe407d318e482f1/creative_converted/603f66e1-d2f6-4a58-8a28-ed8d1a943f8a/68ba3d43f067562fb0b6a410_compressed.webp</t>
+        </is>
+      </c>
+      <c r="F895" s="1" t="inlineStr">
+        <is>
+          <t>../https:/gogo.mn</t>
+        </is>
+      </c>
+      <c r="G895" t="inlineStr"/>
+      <c r="H895" t="inlineStr"/>
+      <c r="I895" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="896">
+      <c r="A896" t="inlineStr">
+        <is>
+          <t>gogo.mn</t>
+        </is>
+      </c>
+      <c r="B896" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="C896" t="inlineStr">
+        <is>
+          <t>https://gogo.mn/</t>
+        </is>
+      </c>
+      <c r="D896" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E896" t="inlineStr">
+        <is>
+          <t>https://edge.boost.mn/67e3d390bbe407d318e482f1/creative_converted/8b6ef511-34d8-467f-b7c3-b0580f52b569/68ca72a75354a679a0e1430a_compressed.webp</t>
+        </is>
+      </c>
+      <c r="F896" s="1" t="inlineStr">
+        <is>
+          <t>../https:/gogo.mn</t>
+        </is>
+      </c>
+      <c r="G896" t="inlineStr"/>
+      <c r="H896" t="inlineStr"/>
+      <c r="I896" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="897">
+      <c r="A897" t="inlineStr">
+        <is>
+          <t>gogo.mn</t>
+        </is>
+      </c>
+      <c r="B897" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="C897" t="inlineStr">
+        <is>
+          <t>https://gogo.mn/</t>
+        </is>
+      </c>
+      <c r="D897" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E897" t="inlineStr">
+        <is>
+          <t>https://edge.boost.mn/67e3d390bbe407d318e482f1/creative_converted/ac979e6a-9179-4f49-9f66-e1b3128a9c21/68c0d96eed515da17275eb24_compressed.webp</t>
+        </is>
+      </c>
+      <c r="F897" s="1" t="inlineStr">
+        <is>
+          <t>../https:/gogo.mn</t>
+        </is>
+      </c>
+      <c r="G897" t="inlineStr"/>
+      <c r="H897" t="inlineStr"/>
+      <c r="I897" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="898">
+      <c r="A898" t="inlineStr">
+        <is>
+          <t>gogo.mn</t>
+        </is>
+      </c>
+      <c r="B898" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="C898" t="inlineStr">
+        <is>
+          <t>https://gogo.mn/</t>
+        </is>
+      </c>
+      <c r="D898" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E898" t="inlineStr">
+        <is>
+          <t>https://edge.boost.mn/67e3d390bbe407d318e482f1/creative_converted/c8c21448-8561-4525-88c4-16e7251f6373/68ba3a9bf067562fb0b6a409_compressed.webp</t>
+        </is>
+      </c>
+      <c r="F898" s="1" t="inlineStr">
+        <is>
+          <t>../https:/gogo.mn</t>
+        </is>
+      </c>
+      <c r="G898" t="inlineStr"/>
+      <c r="H898" t="inlineStr"/>
+      <c r="I898" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="899">
+      <c r="A899" t="inlineStr">
+        <is>
+          <t>gogo.mn</t>
+        </is>
+      </c>
+      <c r="B899" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="C899" t="inlineStr">
+        <is>
+          <t>https://gogo.mn/</t>
+        </is>
+      </c>
+      <c r="D899" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E899" t="inlineStr">
+        <is>
+          <t>https://edge.boost.mn/67e3d390bbe407d318e482f1/creative_converted/e2d7598a-66ee-41db-8095-7e15370d44fd/68c8abca5354a679a0e142fa_compressed.webp</t>
+        </is>
+      </c>
+      <c r="F899" s="1" t="inlineStr">
+        <is>
+          <t>../https:/gogo.mn</t>
+        </is>
+      </c>
+      <c r="G899" t="inlineStr"/>
+      <c r="H899" t="inlineStr"/>
+      <c r="I899" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="900">
+      <c r="A900" t="inlineStr">
+        <is>
+          <t>gogo.mn</t>
+        </is>
+      </c>
+      <c r="B900" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="C900" t="inlineStr">
+        <is>
+          <t>https://gogo.mn/</t>
+        </is>
+      </c>
+      <c r="D900" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E900" t="inlineStr">
+        <is>
+          <t>https://edge.boost.mn/67e3d390bbe407d318e482f1/creative_converted/e7c0b9b8-c1d9-4b8c-8870-0237e279f6c2/68c3a8c8861dec86a871e6fe_compressed.webp</t>
+        </is>
+      </c>
+      <c r="F900" s="1" t="inlineStr">
+        <is>
+          <t>../https:/gogo.mn</t>
+        </is>
+      </c>
+      <c r="G900" t="inlineStr"/>
+      <c r="H900" t="inlineStr"/>
+      <c r="I900" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="901">
+      <c r="A901" t="inlineStr">
+        <is>
+          <t>gogo.mn</t>
+        </is>
+      </c>
+      <c r="B901" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="C901" t="inlineStr">
+        <is>
+          <t>https://gogo.mn/</t>
+        </is>
+      </c>
+      <c r="D901" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E901" t="inlineStr">
+        <is>
+          <t>https://edge.boost.mn/67e3d390bbe407d318e482f1/creative_converted/976d98c9-7e04-4d5a-a670-c993e6ed60a2/68c7c5c75354a679a0e142f5_compressed.webp</t>
+        </is>
+      </c>
+      <c r="F901" s="1" t="inlineStr">
+        <is>
+          <t>../https:/gogo.mn</t>
+        </is>
+      </c>
+      <c r="G901" t="inlineStr"/>
+      <c r="H901" t="inlineStr">
+        <is>
+          <t>C:\Users\tuguldur.kh\Downloads\adscraper-full-code\banner_screenshots\gogo.mn\2025-09-19\gogo_boost_1758251707_268792eef2.webp</t>
+        </is>
+      </c>
+      <c r="I901" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="902">
+      <c r="A902" t="inlineStr">
+        <is>
+          <t>gogo.mn</t>
+        </is>
+      </c>
+      <c r="B902" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="C902" t="inlineStr">
+        <is>
+          <t>https://gogo.mn/</t>
+        </is>
+      </c>
+      <c r="D902" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E902" t="inlineStr">
+        <is>
+          <t>https://edge.boost.mn/67e3d390bbe407d318e482f1/creative_converted/0d02ea74-8043-46ce-83f6-1ee77c5ff921/68b80376f067562fb0b6a3f7_compressed.webp</t>
+        </is>
+      </c>
+      <c r="F902" s="1" t="inlineStr">
+        <is>
+          <t>../https:/gogo.mn</t>
+        </is>
+      </c>
+      <c r="G902" t="inlineStr"/>
+      <c r="H902" t="inlineStr"/>
+      <c r="I902" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="903">
+      <c r="A903" t="inlineStr">
+        <is>
+          <t>gogo.mn</t>
+        </is>
+      </c>
+      <c r="B903" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="C903" t="inlineStr">
+        <is>
+          <t>https://gogo.mn/</t>
+        </is>
+      </c>
+      <c r="D903" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E903" t="inlineStr">
+        <is>
+          <t>https://edge.boost.mn/67e3d390bbe407d318e482f1/creative_converted/473b116a-bce4-49c2-aea6-04a24444bba2/68ba4e1bf067562fb0b6a413_compressed.webp</t>
+        </is>
+      </c>
+      <c r="F903" s="1" t="inlineStr">
+        <is>
+          <t>../https:/gogo.mn</t>
+        </is>
+      </c>
+      <c r="G903" t="inlineStr"/>
+      <c r="H903" t="inlineStr"/>
+      <c r="I903" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="904">
+      <c r="A904" t="inlineStr">
+        <is>
+          <t>gogo.mn</t>
+        </is>
+      </c>
+      <c r="B904" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="C904" t="inlineStr">
+        <is>
+          <t>https://gogo.mn/</t>
+        </is>
+      </c>
+      <c r="D904" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E904" t="inlineStr">
+        <is>
+          <t>https://edge.boost.mn/67e3d390bbe407d318e482f1/creative_converted/603f66e1-d2f6-4a58-8a28-ed8d1a943f8a/68ba3d43f067562fb0b6a410_compressed.webp</t>
+        </is>
+      </c>
+      <c r="F904" s="1" t="inlineStr">
+        <is>
+          <t>../https:/gogo.mn</t>
+        </is>
+      </c>
+      <c r="G904" t="inlineStr"/>
+      <c r="H904" t="inlineStr"/>
+      <c r="I904" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="905">
+      <c r="A905" t="inlineStr">
+        <is>
+          <t>gogo.mn</t>
+        </is>
+      </c>
+      <c r="B905" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="C905" t="inlineStr">
+        <is>
+          <t>https://gogo.mn/</t>
+        </is>
+      </c>
+      <c r="D905" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E905" t="inlineStr">
+        <is>
+          <t>https://edge.boost.mn/67e3d390bbe407d318e482f1/creative_converted/7424e65a-4a2f-421b-b0af-234409514d5a/68ba3ae4f067562fb0b6a40a_compressed.webp</t>
+        </is>
+      </c>
+      <c r="F905" s="1" t="inlineStr">
+        <is>
+          <t>../https:/gogo.mn</t>
+        </is>
+      </c>
+      <c r="G905" t="inlineStr"/>
+      <c r="H905" t="inlineStr"/>
+      <c r="I905" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="906">
+      <c r="A906" t="inlineStr">
+        <is>
+          <t>gogo.mn</t>
+        </is>
+      </c>
+      <c r="B906" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="C906" t="inlineStr">
+        <is>
+          <t>https://gogo.mn/</t>
+        </is>
+      </c>
+      <c r="D906" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E906" t="inlineStr">
+        <is>
+          <t>https://edge.boost.mn/67e3d390bbe407d318e482f1/creative_converted/8b6ef511-34d8-467f-b7c3-b0580f52b569/68ca72a75354a679a0e1430a_compressed.webp</t>
+        </is>
+      </c>
+      <c r="F906" s="1" t="inlineStr">
+        <is>
+          <t>../https:/gogo.mn</t>
+        </is>
+      </c>
+      <c r="G906" t="inlineStr"/>
+      <c r="H906" t="inlineStr"/>
+      <c r="I906" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="907">
+      <c r="A907" t="inlineStr">
+        <is>
+          <t>gogo.mn</t>
+        </is>
+      </c>
+      <c r="B907" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="C907" t="inlineStr">
+        <is>
+          <t>https://gogo.mn/</t>
+        </is>
+      </c>
+      <c r="D907" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E907" t="inlineStr">
+        <is>
+          <t>https://edge.boost.mn/67e3d390bbe407d318e482f1/creative_converted/ac979e6a-9179-4f49-9f66-e1b3128a9c21/68c0d96eed515da17275eb24_compressed.webp</t>
+        </is>
+      </c>
+      <c r="F907" s="1" t="inlineStr">
+        <is>
+          <t>../https:/gogo.mn</t>
+        </is>
+      </c>
+      <c r="G907" t="inlineStr"/>
+      <c r="H907" t="inlineStr"/>
+      <c r="I907" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="908">
+      <c r="A908" t="inlineStr">
+        <is>
+          <t>gogo.mn</t>
+        </is>
+      </c>
+      <c r="B908" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="C908" t="inlineStr">
+        <is>
+          <t>https://gogo.mn/</t>
+        </is>
+      </c>
+      <c r="D908" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E908" t="inlineStr">
+        <is>
+          <t>https://edge.boost.mn/67e3d390bbe407d318e482f1/creative_converted/c8c21448-8561-4525-88c4-16e7251f6373/68ba3a9bf067562fb0b6a409_compressed.webp</t>
+        </is>
+      </c>
+      <c r="F908" s="1" t="inlineStr">
+        <is>
+          <t>../https:/gogo.mn</t>
+        </is>
+      </c>
+      <c r="G908" t="inlineStr"/>
+      <c r="H908" t="inlineStr"/>
+      <c r="I908" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="909">
+      <c r="A909" t="inlineStr">
+        <is>
+          <t>gogo.mn</t>
+        </is>
+      </c>
+      <c r="B909" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="C909" t="inlineStr">
+        <is>
+          <t>https://gogo.mn/</t>
+        </is>
+      </c>
+      <c r="D909" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E909" t="inlineStr">
+        <is>
+          <t>https://edge.boost.mn/67e3d390bbe407d318e482f1/creative_converted/e2d7598a-66ee-41db-8095-7e15370d44fd/68c8abca5354a679a0e142fa_compressed.webp</t>
+        </is>
+      </c>
+      <c r="F909" s="1" t="inlineStr">
+        <is>
+          <t>../https:/gogo.mn</t>
+        </is>
+      </c>
+      <c r="G909" t="inlineStr"/>
+      <c r="H909" t="inlineStr"/>
+      <c r="I909" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="910">
+      <c r="A910" t="inlineStr">
+        <is>
+          <t>gogo.mn</t>
+        </is>
+      </c>
+      <c r="B910" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="C910" t="inlineStr">
+        <is>
+          <t>https://gogo.mn/</t>
+        </is>
+      </c>
+      <c r="D910" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E910" t="inlineStr">
+        <is>
+          <t>https://edge.boost.mn/67e3d390bbe407d318e482f1/creative_converted/e7c0b9b8-c1d9-4b8c-8870-0237e279f6c2/68c3a8c8861dec86a871e6fe_compressed.webp</t>
+        </is>
+      </c>
+      <c r="F910" s="1" t="inlineStr">
+        <is>
+          <t>../https:/gogo.mn</t>
+        </is>
+      </c>
+      <c r="G910" t="inlineStr"/>
+      <c r="H910" t="inlineStr"/>
+      <c r="I910" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="911">
+      <c r="A911" t="inlineStr">
+        <is>
+          <t>news.mn</t>
+        </is>
+      </c>
+      <c r="B911" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="C911" t="inlineStr">
+        <is>
+          <t>https://news.mn/</t>
+        </is>
+      </c>
+      <c r="D911" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E911" t="inlineStr">
+        <is>
+          <t>https://news.mn/wp-content/uploads/2025/09/dyson-1-scaled.jpg</t>
+        </is>
+      </c>
+      <c r="F911" s="1" t="inlineStr">
+        <is>
+          <t>../https:/www.facebook.com/PCMallOfficial/posts/pfbid02n94s7a1HLmeM1u97NELbdxW28wEC5cJ3VV4VtdxAPqsgfYRmyBMJyAeKe6P2H6iel</t>
+        </is>
+      </c>
+      <c r="G911" t="inlineStr">
+        <is>
+          <t>C:\Users\tuguldur.kh\Downloads\adscraper-full-code\banner_screenshots\news.mn\2025-09-19\news_banner_1758251747_182a52c8df.jpg</t>
+        </is>
+      </c>
+      <c r="H911" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I911" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="912">
+      <c r="A912" t="inlineStr">
+        <is>
+          <t>news.mn</t>
+        </is>
+      </c>
+      <c r="B912" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="C912" t="inlineStr">
+        <is>
+          <t>https://news.mn/</t>
+        </is>
+      </c>
+      <c r="D912" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E912" t="inlineStr">
+        <is>
+          <t>https://news.mn/wp-content/uploads/2025/09/Promotion-BANNER-SEP-scaled.jpg</t>
+        </is>
+      </c>
+      <c r="F912" s="1" t="inlineStr">
+        <is>
+          <t>../https:/www.koreanair.com/contents/promotion/list/2025/ULN250901EN?pageNum=1</t>
+        </is>
+      </c>
+      <c r="G912" t="inlineStr">
+        <is>
+          <t>C:\Users\tuguldur.kh\Downloads\adscraper-full-code\banner_screenshots\news.mn\2025-09-19\news_banner_1758251747_30033c76a9.jpg</t>
+        </is>
+      </c>
+      <c r="H912" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I912" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="913">
+      <c r="A913" t="inlineStr">
+        <is>
+          <t>news.mn</t>
+        </is>
+      </c>
+      <c r="B913" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="C913" t="inlineStr">
+        <is>
+          <t>https://news.mn/</t>
+        </is>
+      </c>
+      <c r="D913" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E913" t="inlineStr">
+        <is>
+          <t>https://news.mn/wp-content/uploads/2025/08/news-1-scaled.jpg</t>
+        </is>
+      </c>
+      <c r="F913" s="1" t="inlineStr">
+        <is>
+          <t>../https:/www.khanbank.com/personal/news/intelligence/7647</t>
+        </is>
+      </c>
+      <c r="G913" t="inlineStr">
+        <is>
+          <t>C:\Users\tuguldur.kh\Downloads\adscraper-full-code\banner_screenshots\news.mn\2025-09-19\news_banner_1758251747_8bb4eaa01d.jpg</t>
+        </is>
+      </c>
+      <c r="H913" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I913" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="914">
+      <c r="A914" t="inlineStr">
+        <is>
+          <t>news.mn</t>
+        </is>
+      </c>
+      <c r="B914" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="C914" t="inlineStr">
+        <is>
+          <t>https://news.mn/</t>
+        </is>
+      </c>
+      <c r="D914" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E914" t="inlineStr">
+        <is>
+          <t>https://news.mn/wp-content/uploads/2025/09/2.-News-copy.jpg</t>
+        </is>
+      </c>
+      <c r="F914" s="1" t="inlineStr">
+        <is>
+          <t>../https:/www.khanbank.com/personal/news/intelligence/7657</t>
+        </is>
+      </c>
+      <c r="G914" t="inlineStr">
+        <is>
+          <t>C:\Users\tuguldur.kh\Downloads\adscraper-full-code\banner_screenshots\news.mn\2025-09-19\news_banner_1758251747_219001ac25.jpg</t>
+        </is>
+      </c>
+      <c r="H914" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I914" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="915">
+      <c r="A915" t="inlineStr">
+        <is>
+          <t>news.mn</t>
+        </is>
+      </c>
+      <c r="B915" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="C915" t="inlineStr">
+        <is>
+          <t>https://news.mn/</t>
+        </is>
+      </c>
+      <c r="D915" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E915" t="inlineStr">
+        <is>
+          <t>https://news.mn/wp-content/uploads/2025/09/britto-News.mn-300x245-1.jpg</t>
+        </is>
+      </c>
+      <c r="F915" s="1" t="inlineStr">
+        <is>
+          <t>../https:/www.tdbm.mn/mn/news/brittobeleg</t>
+        </is>
+      </c>
+      <c r="G915" t="inlineStr">
+        <is>
+          <t>C:\Users\tuguldur.kh\Downloads\adscraper-full-code\banner_screenshots\news.mn\2025-09-19\news_banner_1758251747_d92e731fb1.jpg</t>
+        </is>
+      </c>
+      <c r="H915" t="inlineStr">
+        <is>
+          <t>300</t>
+        </is>
+      </c>
+      <c r="I915" t="inlineStr">
+        <is>
+          <t>245</t>
+        </is>
+      </c>
+    </row>
+    <row r="916">
+      <c r="A916" t="inlineStr">
+        <is>
+          <t>news.mn</t>
+        </is>
+      </c>
+      <c r="B916" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="C916" t="inlineStr">
+        <is>
+          <t>https://news.mn/</t>
+        </is>
+      </c>
+      <c r="D916" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E916" t="inlineStr">
+        <is>
+          <t>https://news.mn/wp-content/uploads/2025/09/news.mn-300x250-1.png</t>
+        </is>
+      </c>
+      <c r="F916" s="1" t="inlineStr">
+        <is>
+          <t>../https:/www.golomtbank.com/news/49942</t>
+        </is>
+      </c>
+      <c r="G916" t="inlineStr">
+        <is>
+          <t>C:\Users\tuguldur.kh\Downloads\adscraper-full-code\banner_screenshots\news.mn\2025-09-19\news_banner_1758251747_05f2ffa0ec.png</t>
+        </is>
+      </c>
+      <c r="H916" t="inlineStr">
+        <is>
+          <t>300</t>
+        </is>
+      </c>
+      <c r="I916" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+    </row>
+    <row r="917">
+      <c r="A917" t="inlineStr">
+        <is>
+          <t>news.mn</t>
+        </is>
+      </c>
+      <c r="B917" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="C917" t="inlineStr">
+        <is>
+          <t>https://news.mn/</t>
+        </is>
+      </c>
+      <c r="D917" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E917" t="inlineStr">
+        <is>
+          <t>https://news.mn/wp-content/uploads/2025/09/dyson-1-scaled.jpg</t>
+        </is>
+      </c>
+      <c r="F917" s="1" t="inlineStr">
+        <is>
+          <t>../https:/www.facebook.com/PCMallOfficial/posts/pfbid02n94s7a1HLmeM1u97NELbdxW28wEC5cJ3VV4VtdxAPqsgfYRmyBMJyAeKe6P2H6iel</t>
+        </is>
+      </c>
+      <c r="G917" t="inlineStr"/>
+      <c r="H917" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I917" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="918">
+      <c r="A918" t="inlineStr">
+        <is>
+          <t>news.mn</t>
+        </is>
+      </c>
+      <c r="B918" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="C918" t="inlineStr">
+        <is>
+          <t>https://news.mn/</t>
+        </is>
+      </c>
+      <c r="D918" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E918" t="inlineStr">
+        <is>
+          <t>https://news.mn/wp-content/uploads/2025/09/Promotion-BANNER-SEP-scaled.jpg</t>
+        </is>
+      </c>
+      <c r="F918" s="1" t="inlineStr">
+        <is>
+          <t>../https:/www.koreanair.com/contents/promotion/list/2025/ULN250901EN?pageNum=1</t>
+        </is>
+      </c>
+      <c r="G918" t="inlineStr"/>
+      <c r="H918" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I918" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="919">
+      <c r="A919" t="inlineStr">
+        <is>
+          <t>news.mn</t>
+        </is>
+      </c>
+      <c r="B919" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="C919" t="inlineStr">
+        <is>
+          <t>https://news.mn/</t>
+        </is>
+      </c>
+      <c r="D919" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E919" t="inlineStr">
+        <is>
+          <t>https://news.mn/wp-content/uploads/2025/08/news-1-scaled.jpg</t>
+        </is>
+      </c>
+      <c r="F919" s="1" t="inlineStr">
+        <is>
+          <t>../https:/www.khanbank.com/personal/news/intelligence/7647</t>
+        </is>
+      </c>
+      <c r="G919" t="inlineStr"/>
+      <c r="H919" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I919" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="920">
+      <c r="A920" t="inlineStr">
+        <is>
+          <t>news.mn</t>
+        </is>
+      </c>
+      <c r="B920" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="C920" t="inlineStr">
+        <is>
+          <t>https://news.mn/</t>
+        </is>
+      </c>
+      <c r="D920" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E920" t="inlineStr">
+        <is>
+          <t>https://news.mn/wp-content/uploads/2025/09/2.-News-copy.jpg</t>
+        </is>
+      </c>
+      <c r="F920" s="1" t="inlineStr">
+        <is>
+          <t>../https:/www.khanbank.com/personal/news/intelligence/7657</t>
+        </is>
+      </c>
+      <c r="G920" t="inlineStr"/>
+      <c r="H920" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I920" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="921">
+      <c r="A921" t="inlineStr">
+        <is>
+          <t>news.mn</t>
+        </is>
+      </c>
+      <c r="B921" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="C921" t="inlineStr">
+        <is>
+          <t>https://news.mn/</t>
+        </is>
+      </c>
+      <c r="D921" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E921" t="inlineStr">
+        <is>
+          <t>https://news.mn/wp-content/uploads/2025/09/britto-News.mn-300x245-1.jpg</t>
+        </is>
+      </c>
+      <c r="F921" s="1" t="inlineStr">
+        <is>
+          <t>../https:/www.tdbm.mn/mn/news/brittobeleg</t>
+        </is>
+      </c>
+      <c r="G921" t="inlineStr"/>
+      <c r="H921" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I921" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="922">
+      <c r="A922" t="inlineStr">
+        <is>
+          <t>news.mn</t>
+        </is>
+      </c>
+      <c r="B922" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="C922" t="inlineStr">
+        <is>
+          <t>https://news.mn/</t>
+        </is>
+      </c>
+      <c r="D922" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E922" t="inlineStr">
+        <is>
+          <t>https://news.mn/wp-content/uploads/2025/09/news.mn-300x250-1.png</t>
+        </is>
+      </c>
+      <c r="F922" s="1" t="inlineStr">
+        <is>
+          <t>../https:/www.golomtbank.com/news/49942</t>
+        </is>
+      </c>
+      <c r="G922" t="inlineStr"/>
+      <c r="H922" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I922" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="923">
+      <c r="A923" t="inlineStr">
+        <is>
+          <t>news.mn</t>
+        </is>
+      </c>
+      <c r="B923" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="C923" t="inlineStr">
+        <is>
+          <t>https://news.mn/</t>
+        </is>
+      </c>
+      <c r="D923" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E923" t="inlineStr">
+        <is>
+          <t>https://news.mn/wp-content/uploads/2025/09/dyson-1-scaled.jpg</t>
+        </is>
+      </c>
+      <c r="F923" s="1" t="inlineStr">
+        <is>
+          <t>../https:/www.facebook.com/PCMallOfficial/posts/pfbid02n94s7a1HLmeM1u97NELbdxW28wEC5cJ3VV4VtdxAPqsgfYRmyBMJyAeKe6P2H6iel</t>
+        </is>
+      </c>
+      <c r="G923" t="inlineStr"/>
+      <c r="H923" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I923" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="924">
+      <c r="A924" t="inlineStr">
+        <is>
+          <t>news.mn</t>
+        </is>
+      </c>
+      <c r="B924" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="C924" t="inlineStr">
+        <is>
+          <t>https://news.mn/</t>
+        </is>
+      </c>
+      <c r="D924" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E924" t="inlineStr">
+        <is>
+          <t>https://news.mn/wp-content/uploads/2025/09/Promotion-BANNER-SEP-scaled.jpg</t>
+        </is>
+      </c>
+      <c r="F924" s="1" t="inlineStr">
+        <is>
+          <t>../https:/www.koreanair.com/contents/promotion/list/2025/ULN250901EN?pageNum=1</t>
+        </is>
+      </c>
+      <c r="G924" t="inlineStr"/>
+      <c r="H924" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I924" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="925">
+      <c r="A925" t="inlineStr">
+        <is>
+          <t>news.mn</t>
+        </is>
+      </c>
+      <c r="B925" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="C925" t="inlineStr">
+        <is>
+          <t>https://news.mn/</t>
+        </is>
+      </c>
+      <c r="D925" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E925" t="inlineStr">
+        <is>
+          <t>https://news.mn/wp-content/uploads/2025/08/news-1-scaled.jpg</t>
+        </is>
+      </c>
+      <c r="F925" s="1" t="inlineStr">
+        <is>
+          <t>../https:/www.khanbank.com/personal/news/intelligence/7647</t>
+        </is>
+      </c>
+      <c r="G925" t="inlineStr"/>
+      <c r="H925" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I925" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="926">
+      <c r="A926" t="inlineStr">
+        <is>
+          <t>news.mn</t>
+        </is>
+      </c>
+      <c r="B926" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="C926" t="inlineStr">
+        <is>
+          <t>https://news.mn/</t>
+        </is>
+      </c>
+      <c r="D926" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E926" t="inlineStr">
+        <is>
+          <t>https://news.mn/wp-content/uploads/2025/09/2.-News-copy.jpg</t>
+        </is>
+      </c>
+      <c r="F926" s="1" t="inlineStr">
+        <is>
+          <t>../https:/www.khanbank.com/personal/news/intelligence/7657</t>
+        </is>
+      </c>
+      <c r="G926" t="inlineStr"/>
+      <c r="H926" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I926" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="927">
+      <c r="A927" t="inlineStr">
+        <is>
+          <t>news.mn</t>
+        </is>
+      </c>
+      <c r="B927" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="C927" t="inlineStr">
+        <is>
+          <t>https://news.mn/</t>
+        </is>
+      </c>
+      <c r="D927" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E927" t="inlineStr">
+        <is>
+          <t>https://news.mn/wp-content/uploads/2025/09/britto-News.mn-300x245-1.jpg</t>
+        </is>
+      </c>
+      <c r="F927" s="1" t="inlineStr">
+        <is>
+          <t>../https:/www.tdbm.mn/mn/news/brittobeleg</t>
+        </is>
+      </c>
+      <c r="G927" t="inlineStr"/>
+      <c r="H927" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I927" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="928">
+      <c r="A928" t="inlineStr">
+        <is>
+          <t>news.mn</t>
+        </is>
+      </c>
+      <c r="B928" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="C928" t="inlineStr">
+        <is>
+          <t>https://news.mn/</t>
+        </is>
+      </c>
+      <c r="D928" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E928" t="inlineStr">
+        <is>
+          <t>https://news.mn/wp-content/uploads/2025/09/news.mn-300x250-1.png</t>
+        </is>
+      </c>
+      <c r="F928" s="1" t="inlineStr">
+        <is>
+          <t>../https:/www.golomtbank.com/news/49942</t>
+        </is>
+      </c>
+      <c r="G928" t="inlineStr"/>
+      <c r="H928" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I928" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="929">
+      <c r="A929" t="inlineStr">
+        <is>
+          <t>news.mn</t>
+        </is>
+      </c>
+      <c r="B929" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="C929" t="inlineStr">
+        <is>
+          <t>https://news.mn/</t>
+        </is>
+      </c>
+      <c r="D929" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E929" t="inlineStr">
+        <is>
+          <t>https://news.mn/wp-content/uploads/2025/09/dyson-1-scaled.jpg</t>
+        </is>
+      </c>
+      <c r="F929" s="1" t="inlineStr">
+        <is>
+          <t>../https:/www.facebook.com/PCMallOfficial/posts/pfbid02n94s7a1HLmeM1u97NELbdxW28wEC5cJ3VV4VtdxAPqsgfYRmyBMJyAeKe6P2H6iel</t>
+        </is>
+      </c>
+      <c r="G929" t="inlineStr"/>
+      <c r="H929" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I929" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="930">
+      <c r="A930" t="inlineStr">
+        <is>
+          <t>news.mn</t>
+        </is>
+      </c>
+      <c r="B930" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="C930" t="inlineStr">
+        <is>
+          <t>https://news.mn/</t>
+        </is>
+      </c>
+      <c r="D930" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E930" t="inlineStr">
+        <is>
+          <t>https://news.mn/wp-content/uploads/2025/09/Promotion-BANNER-SEP-scaled.jpg</t>
+        </is>
+      </c>
+      <c r="F930" s="1" t="inlineStr">
+        <is>
+          <t>../https:/www.koreanair.com/contents/promotion/list/2025/ULN250901EN?pageNum=1</t>
+        </is>
+      </c>
+      <c r="G930" t="inlineStr"/>
+      <c r="H930" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I930" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="931">
+      <c r="A931" t="inlineStr">
+        <is>
+          <t>news.mn</t>
+        </is>
+      </c>
+      <c r="B931" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="C931" t="inlineStr">
+        <is>
+          <t>https://news.mn/</t>
+        </is>
+      </c>
+      <c r="D931" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E931" t="inlineStr">
+        <is>
+          <t>https://news.mn/wp-content/uploads/2025/08/news-1-scaled.jpg</t>
+        </is>
+      </c>
+      <c r="F931" s="1" t="inlineStr">
+        <is>
+          <t>../https:/www.khanbank.com/personal/news/intelligence/7647</t>
+        </is>
+      </c>
+      <c r="G931" t="inlineStr"/>
+      <c r="H931" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I931" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="932">
+      <c r="A932" t="inlineStr">
+        <is>
+          <t>news.mn</t>
+        </is>
+      </c>
+      <c r="B932" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="C932" t="inlineStr">
+        <is>
+          <t>https://news.mn/</t>
+        </is>
+      </c>
+      <c r="D932" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E932" t="inlineStr">
+        <is>
+          <t>https://news.mn/wp-content/uploads/2025/09/2.-News-copy.jpg</t>
+        </is>
+      </c>
+      <c r="F932" s="1" t="inlineStr">
+        <is>
+          <t>../https:/www.khanbank.com/personal/news/intelligence/7657</t>
+        </is>
+      </c>
+      <c r="G932" t="inlineStr"/>
+      <c r="H932" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I932" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="933">
+      <c r="A933" t="inlineStr">
+        <is>
+          <t>news.mn</t>
+        </is>
+      </c>
+      <c r="B933" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="C933" t="inlineStr">
+        <is>
+          <t>https://news.mn/</t>
+        </is>
+      </c>
+      <c r="D933" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E933" t="inlineStr">
+        <is>
+          <t>https://news.mn/wp-content/uploads/2025/09/britto-News.mn-300x245-1.jpg</t>
+        </is>
+      </c>
+      <c r="F933" s="1" t="inlineStr">
+        <is>
+          <t>../https:/www.tdbm.mn/mn/news/brittobeleg</t>
+        </is>
+      </c>
+      <c r="G933" t="inlineStr"/>
+      <c r="H933" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I933" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="934">
+      <c r="A934" t="inlineStr">
+        <is>
+          <t>news.mn</t>
+        </is>
+      </c>
+      <c r="B934" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="C934" t="inlineStr">
+        <is>
+          <t>https://news.mn/</t>
+        </is>
+      </c>
+      <c r="D934" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E934" t="inlineStr">
+        <is>
+          <t>https://news.mn/wp-content/uploads/2025/09/news.mn-300x250-1.png</t>
+        </is>
+      </c>
+      <c r="F934" s="1" t="inlineStr">
+        <is>
+          <t>../https:/www.golomtbank.com/news/49942</t>
+        </is>
+      </c>
+      <c r="G934" t="inlineStr"/>
+      <c r="H934" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I934" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="935">
+      <c r="A935" t="inlineStr">
+        <is>
+          <t>news.mn</t>
+        </is>
+      </c>
+      <c r="B935" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="C935" t="inlineStr">
+        <is>
+          <t>https://news.mn/</t>
+        </is>
+      </c>
+      <c r="D935" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E935" t="inlineStr">
+        <is>
+          <t>https://news.mn/wp-content/uploads/2025/09/dyson-1-scaled.jpg</t>
+        </is>
+      </c>
+      <c r="F935" s="1" t="inlineStr">
+        <is>
+          <t>../https:/www.facebook.com/PCMallOfficial/posts/pfbid02n94s7a1HLmeM1u97NELbdxW28wEC5cJ3VV4VtdxAPqsgfYRmyBMJyAeKe6P2H6iel</t>
+        </is>
+      </c>
+      <c r="G935" t="inlineStr"/>
+      <c r="H935" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I935" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="936">
+      <c r="A936" t="inlineStr">
+        <is>
+          <t>news.mn</t>
+        </is>
+      </c>
+      <c r="B936" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="C936" t="inlineStr">
+        <is>
+          <t>https://news.mn/</t>
+        </is>
+      </c>
+      <c r="D936" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E936" t="inlineStr">
+        <is>
+          <t>https://news.mn/wp-content/uploads/2025/09/Promotion-BANNER-SEP-scaled.jpg</t>
+        </is>
+      </c>
+      <c r="F936" s="1" t="inlineStr">
+        <is>
+          <t>../https:/www.koreanair.com/contents/promotion/list/2025/ULN250901EN?pageNum=1</t>
+        </is>
+      </c>
+      <c r="G936" t="inlineStr"/>
+      <c r="H936" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I936" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="937">
+      <c r="A937" t="inlineStr">
+        <is>
+          <t>news.mn</t>
+        </is>
+      </c>
+      <c r="B937" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="C937" t="inlineStr">
+        <is>
+          <t>https://news.mn/</t>
+        </is>
+      </c>
+      <c r="D937" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E937" t="inlineStr">
+        <is>
+          <t>https://news.mn/wp-content/uploads/2025/08/news-1-scaled.jpg</t>
+        </is>
+      </c>
+      <c r="F937" s="1" t="inlineStr">
+        <is>
+          <t>../https:/www.khanbank.com/personal/news/intelligence/7647</t>
+        </is>
+      </c>
+      <c r="G937" t="inlineStr"/>
+      <c r="H937" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I937" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="938">
+      <c r="A938" t="inlineStr">
+        <is>
+          <t>news.mn</t>
+        </is>
+      </c>
+      <c r="B938" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="C938" t="inlineStr">
+        <is>
+          <t>https://news.mn/</t>
+        </is>
+      </c>
+      <c r="D938" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E938" t="inlineStr">
+        <is>
+          <t>https://news.mn/wp-content/uploads/2025/09/2.-News-copy.jpg</t>
+        </is>
+      </c>
+      <c r="F938" s="1" t="inlineStr">
+        <is>
+          <t>../https:/www.khanbank.com/personal/news/intelligence/7657</t>
+        </is>
+      </c>
+      <c r="G938" t="inlineStr"/>
+      <c r="H938" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I938" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="939">
+      <c r="A939" t="inlineStr">
+        <is>
+          <t>news.mn</t>
+        </is>
+      </c>
+      <c r="B939" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="C939" t="inlineStr">
+        <is>
+          <t>https://news.mn/</t>
+        </is>
+      </c>
+      <c r="D939" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E939" t="inlineStr">
+        <is>
+          <t>https://news.mn/wp-content/uploads/2025/09/britto-News.mn-300x245-1.jpg</t>
+        </is>
+      </c>
+      <c r="F939" s="1" t="inlineStr">
+        <is>
+          <t>../https:/www.tdbm.mn/mn/news/brittobeleg</t>
+        </is>
+      </c>
+      <c r="G939" t="inlineStr"/>
+      <c r="H939" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I939" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="940">
+      <c r="A940" t="inlineStr">
+        <is>
+          <t>news.mn</t>
+        </is>
+      </c>
+      <c r="B940" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="C940" t="inlineStr">
+        <is>
+          <t>https://news.mn/</t>
+        </is>
+      </c>
+      <c r="D940" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E940" t="inlineStr">
+        <is>
+          <t>https://news.mn/wp-content/uploads/2025/09/news.mn-300x250-1.png</t>
+        </is>
+      </c>
+      <c r="F940" s="1" t="inlineStr">
+        <is>
+          <t>../https:/www.golomtbank.com/news/49942</t>
+        </is>
+      </c>
+      <c r="G940" t="inlineStr"/>
+      <c r="H940" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I940" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="941">
+      <c r="A941" t="inlineStr">
+        <is>
+          <t>news.mn</t>
+        </is>
+      </c>
+      <c r="B941" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="C941" t="inlineStr">
+        <is>
+          <t>https://news.mn/</t>
+        </is>
+      </c>
+      <c r="D941" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E941" t="inlineStr">
+        <is>
+          <t>https://news.mn/wp-content/uploads/2025/09/dyson-1-scaled.jpg</t>
+        </is>
+      </c>
+      <c r="F941" s="1" t="inlineStr">
+        <is>
+          <t>../https:/www.facebook.com/PCMallOfficial/posts/pfbid02n94s7a1HLmeM1u97NELbdxW28wEC5cJ3VV4VtdxAPqsgfYRmyBMJyAeKe6P2H6iel</t>
+        </is>
+      </c>
+      <c r="G941" t="inlineStr"/>
+      <c r="H941" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I941" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="942">
+      <c r="A942" t="inlineStr">
+        <is>
+          <t>news.mn</t>
+        </is>
+      </c>
+      <c r="B942" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="C942" t="inlineStr">
+        <is>
+          <t>https://news.mn/</t>
+        </is>
+      </c>
+      <c r="D942" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E942" t="inlineStr">
+        <is>
+          <t>https://news.mn/wp-content/uploads/2025/09/Promotion-BANNER-SEP-scaled.jpg</t>
+        </is>
+      </c>
+      <c r="F942" s="1" t="inlineStr">
+        <is>
+          <t>../https:/www.koreanair.com/contents/promotion/list/2025/ULN250901EN?pageNum=1</t>
+        </is>
+      </c>
+      <c r="G942" t="inlineStr"/>
+      <c r="H942" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I942" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="943">
+      <c r="A943" t="inlineStr">
+        <is>
+          <t>news.mn</t>
+        </is>
+      </c>
+      <c r="B943" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="C943" t="inlineStr">
+        <is>
+          <t>https://news.mn/</t>
+        </is>
+      </c>
+      <c r="D943" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E943" t="inlineStr">
+        <is>
+          <t>https://news.mn/wp-content/uploads/2025/08/news-1-scaled.jpg</t>
+        </is>
+      </c>
+      <c r="F943" s="1" t="inlineStr">
+        <is>
+          <t>../https:/www.khanbank.com/personal/news/intelligence/7647</t>
+        </is>
+      </c>
+      <c r="G943" t="inlineStr"/>
+      <c r="H943" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I943" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="944">
+      <c r="A944" t="inlineStr">
+        <is>
+          <t>news.mn</t>
+        </is>
+      </c>
+      <c r="B944" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="C944" t="inlineStr">
+        <is>
+          <t>https://news.mn/</t>
+        </is>
+      </c>
+      <c r="D944" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E944" t="inlineStr">
+        <is>
+          <t>https://news.mn/wp-content/uploads/2025/09/2.-News-copy.jpg</t>
+        </is>
+      </c>
+      <c r="F944" s="1" t="inlineStr">
+        <is>
+          <t>../https:/www.khanbank.com/personal/news/intelligence/7657</t>
+        </is>
+      </c>
+      <c r="G944" t="inlineStr"/>
+      <c r="H944" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I944" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="945">
+      <c r="A945" t="inlineStr">
+        <is>
+          <t>news.mn</t>
+        </is>
+      </c>
+      <c r="B945" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="C945" t="inlineStr">
+        <is>
+          <t>https://news.mn/</t>
+        </is>
+      </c>
+      <c r="D945" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E945" t="inlineStr">
+        <is>
+          <t>https://news.mn/wp-content/uploads/2025/09/britto-News.mn-300x245-1.jpg</t>
+        </is>
+      </c>
+      <c r="F945" s="1" t="inlineStr">
+        <is>
+          <t>../https:/www.tdbm.mn/mn/news/brittobeleg</t>
+        </is>
+      </c>
+      <c r="G945" t="inlineStr"/>
+      <c r="H945" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I945" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="946">
+      <c r="A946" t="inlineStr">
+        <is>
+          <t>news.mn</t>
+        </is>
+      </c>
+      <c r="B946" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="C946" t="inlineStr">
+        <is>
+          <t>https://news.mn/</t>
+        </is>
+      </c>
+      <c r="D946" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E946" t="inlineStr">
+        <is>
+          <t>https://news.mn/wp-content/uploads/2025/09/news.mn-300x250-1.png</t>
+        </is>
+      </c>
+      <c r="F946" s="1" t="inlineStr">
+        <is>
+          <t>../https:/www.golomtbank.com/news/49942</t>
+        </is>
+      </c>
+      <c r="G946" t="inlineStr"/>
+      <c r="H946" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I946" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="947">
+      <c r="A947" t="inlineStr">
+        <is>
+          <t>news.mn</t>
+        </is>
+      </c>
+      <c r="B947" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="C947" t="inlineStr">
+        <is>
+          <t>https://news.mn/</t>
+        </is>
+      </c>
+      <c r="D947" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E947" t="inlineStr">
+        <is>
+          <t>https://news.mn/wp-content/uploads/2025/09/dyson-1-scaled.jpg</t>
+        </is>
+      </c>
+      <c r="F947" s="1" t="inlineStr">
+        <is>
+          <t>../https:/www.facebook.com/PCMallOfficial/posts/pfbid02n94s7a1HLmeM1u97NELbdxW28wEC5cJ3VV4VtdxAPqsgfYRmyBMJyAeKe6P2H6iel</t>
+        </is>
+      </c>
+      <c r="G947" t="inlineStr"/>
+      <c r="H947" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I947" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="948">
+      <c r="A948" t="inlineStr">
+        <is>
+          <t>news.mn</t>
+        </is>
+      </c>
+      <c r="B948" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="C948" t="inlineStr">
+        <is>
+          <t>https://news.mn/</t>
+        </is>
+      </c>
+      <c r="D948" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E948" t="inlineStr">
+        <is>
+          <t>https://news.mn/wp-content/uploads/2025/09/Promotion-BANNER-SEP-scaled.jpg</t>
+        </is>
+      </c>
+      <c r="F948" s="1" t="inlineStr">
+        <is>
+          <t>../https:/www.koreanair.com/contents/promotion/list/2025/ULN250901EN?pageNum=1</t>
+        </is>
+      </c>
+      <c r="G948" t="inlineStr"/>
+      <c r="H948" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I948" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="949">
+      <c r="A949" t="inlineStr">
+        <is>
+          <t>news.mn</t>
+        </is>
+      </c>
+      <c r="B949" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="C949" t="inlineStr">
+        <is>
+          <t>https://news.mn/</t>
+        </is>
+      </c>
+      <c r="D949" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E949" t="inlineStr">
+        <is>
+          <t>https://news.mn/wp-content/uploads/2025/08/news-1-scaled.jpg</t>
+        </is>
+      </c>
+      <c r="F949" s="1" t="inlineStr">
+        <is>
+          <t>../https:/www.khanbank.com/personal/news/intelligence/7647</t>
+        </is>
+      </c>
+      <c r="G949" t="inlineStr"/>
+      <c r="H949" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I949" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="950">
+      <c r="A950" t="inlineStr">
+        <is>
+          <t>news.mn</t>
+        </is>
+      </c>
+      <c r="B950" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="C950" t="inlineStr">
+        <is>
+          <t>https://news.mn/</t>
+        </is>
+      </c>
+      <c r="D950" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E950" t="inlineStr">
+        <is>
+          <t>https://news.mn/wp-content/uploads/2025/09/2.-News-copy.jpg</t>
+        </is>
+      </c>
+      <c r="F950" s="1" t="inlineStr">
+        <is>
+          <t>../https:/www.khanbank.com/personal/news/intelligence/7657</t>
+        </is>
+      </c>
+      <c r="G950" t="inlineStr"/>
+      <c r="H950" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I950" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="951">
+      <c r="A951" t="inlineStr">
+        <is>
+          <t>news.mn</t>
+        </is>
+      </c>
+      <c r="B951" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="C951" t="inlineStr">
+        <is>
+          <t>https://news.mn/</t>
+        </is>
+      </c>
+      <c r="D951" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E951" t="inlineStr">
+        <is>
+          <t>https://news.mn/wp-content/uploads/2025/09/britto-News.mn-300x245-1.jpg</t>
+        </is>
+      </c>
+      <c r="F951" s="1" t="inlineStr">
+        <is>
+          <t>../https:/www.tdbm.mn/mn/news/brittobeleg</t>
+        </is>
+      </c>
+      <c r="G951" t="inlineStr"/>
+      <c r="H951" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I951" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="952">
+      <c r="A952" t="inlineStr">
+        <is>
+          <t>news.mn</t>
+        </is>
+      </c>
+      <c r="B952" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="C952" t="inlineStr">
+        <is>
+          <t>https://news.mn/</t>
+        </is>
+      </c>
+      <c r="D952" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E952" t="inlineStr">
+        <is>
+          <t>https://news.mn/wp-content/uploads/2025/09/news.mn-300x250-1.png</t>
+        </is>
+      </c>
+      <c r="F952" s="1" t="inlineStr">
+        <is>
+          <t>../https:/www.golomtbank.com/news/49942</t>
+        </is>
+      </c>
+      <c r="G952" t="inlineStr"/>
+      <c r="H952" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I952" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="953">
+      <c r="A953" t="inlineStr">
+        <is>
+          <t>news.mn</t>
+        </is>
+      </c>
+      <c r="B953" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="C953" t="inlineStr">
+        <is>
+          <t>https://news.mn/</t>
+        </is>
+      </c>
+      <c r="D953" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E953" t="inlineStr">
+        <is>
+          <t>https://news.mn/wp-content/uploads/2025/09/dyson-1-scaled.jpg</t>
+        </is>
+      </c>
+      <c r="F953" s="1" t="inlineStr">
+        <is>
+          <t>../https:/www.facebook.com/PCMallOfficial/posts/pfbid02n94s7a1HLmeM1u97NELbdxW28wEC5cJ3VV4VtdxAPqsgfYRmyBMJyAeKe6P2H6iel</t>
+        </is>
+      </c>
+      <c r="G953" t="inlineStr"/>
+      <c r="H953" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I953" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="954">
+      <c r="A954" t="inlineStr">
+        <is>
+          <t>news.mn</t>
+        </is>
+      </c>
+      <c r="B954" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="C954" t="inlineStr">
+        <is>
+          <t>https://news.mn/</t>
+        </is>
+      </c>
+      <c r="D954" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E954" t="inlineStr">
+        <is>
+          <t>https://news.mn/wp-content/uploads/2025/09/Promotion-BANNER-SEP-scaled.jpg</t>
+        </is>
+      </c>
+      <c r="F954" s="1" t="inlineStr">
+        <is>
+          <t>../https:/www.koreanair.com/contents/promotion/list/2025/ULN250901EN?pageNum=1</t>
+        </is>
+      </c>
+      <c r="G954" t="inlineStr"/>
+      <c r="H954" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I954" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="955">
+      <c r="A955" t="inlineStr">
+        <is>
+          <t>news.mn</t>
+        </is>
+      </c>
+      <c r="B955" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="C955" t="inlineStr">
+        <is>
+          <t>https://news.mn/</t>
+        </is>
+      </c>
+      <c r="D955" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E955" t="inlineStr">
+        <is>
+          <t>https://news.mn/wp-content/uploads/2025/08/news-1-scaled.jpg</t>
+        </is>
+      </c>
+      <c r="F955" s="1" t="inlineStr">
+        <is>
+          <t>../https:/www.khanbank.com/personal/news/intelligence/7647</t>
+        </is>
+      </c>
+      <c r="G955" t="inlineStr"/>
+      <c r="H955" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I955" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="956">
+      <c r="A956" t="inlineStr">
+        <is>
+          <t>news.mn</t>
+        </is>
+      </c>
+      <c r="B956" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="C956" t="inlineStr">
+        <is>
+          <t>https://news.mn/</t>
+        </is>
+      </c>
+      <c r="D956" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E956" t="inlineStr">
+        <is>
+          <t>https://news.mn/wp-content/uploads/2025/09/2.-News-copy.jpg</t>
+        </is>
+      </c>
+      <c r="F956" s="1" t="inlineStr">
+        <is>
+          <t>../https:/www.khanbank.com/personal/news/intelligence/7657</t>
+        </is>
+      </c>
+      <c r="G956" t="inlineStr"/>
+      <c r="H956" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I956" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="957">
+      <c r="A957" t="inlineStr">
+        <is>
+          <t>news.mn</t>
+        </is>
+      </c>
+      <c r="B957" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="C957" t="inlineStr">
+        <is>
+          <t>https://news.mn/</t>
+        </is>
+      </c>
+      <c r="D957" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E957" t="inlineStr">
+        <is>
+          <t>https://news.mn/wp-content/uploads/2025/09/britto-News.mn-300x245-1.jpg</t>
+        </is>
+      </c>
+      <c r="F957" s="1" t="inlineStr">
+        <is>
+          <t>../https:/www.tdbm.mn/mn/news/brittobeleg</t>
+        </is>
+      </c>
+      <c r="G957" t="inlineStr"/>
+      <c r="H957" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I957" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="958">
+      <c r="A958" t="inlineStr">
+        <is>
+          <t>news.mn</t>
+        </is>
+      </c>
+      <c r="B958" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="C958" t="inlineStr">
+        <is>
+          <t>https://news.mn/</t>
+        </is>
+      </c>
+      <c r="D958" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E958" t="inlineStr">
+        <is>
+          <t>https://news.mn/wp-content/uploads/2025/09/news.mn-300x250-1.png</t>
+        </is>
+      </c>
+      <c r="F958" s="1" t="inlineStr">
+        <is>
+          <t>../https:/www.golomtbank.com/news/49942</t>
+        </is>
+      </c>
+      <c r="G958" t="inlineStr"/>
+      <c r="H958" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I958" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="959">
+      <c r="A959" t="inlineStr">
+        <is>
+          <t>news.mn</t>
+        </is>
+      </c>
+      <c r="B959" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="C959" t="inlineStr">
+        <is>
+          <t>https://news.mn/</t>
+        </is>
+      </c>
+      <c r="D959" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E959" t="inlineStr">
+        <is>
+          <t>https://news.mn/wp-content/uploads/2025/09/dyson-1-scaled.jpg</t>
+        </is>
+      </c>
+      <c r="F959" s="1" t="inlineStr">
+        <is>
+          <t>../https:/www.facebook.com/PCMallOfficial/posts/pfbid02n94s7a1HLmeM1u97NELbdxW28wEC5cJ3VV4VtdxAPqsgfYRmyBMJyAeKe6P2H6iel</t>
+        </is>
+      </c>
+      <c r="G959" t="inlineStr"/>
+      <c r="H959" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I959" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="960">
+      <c r="A960" t="inlineStr">
+        <is>
+          <t>news.mn</t>
+        </is>
+      </c>
+      <c r="B960" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="C960" t="inlineStr">
+        <is>
+          <t>https://news.mn/</t>
+        </is>
+      </c>
+      <c r="D960" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E960" t="inlineStr">
+        <is>
+          <t>https://news.mn/wp-content/uploads/2025/09/Promotion-BANNER-SEP-scaled.jpg</t>
+        </is>
+      </c>
+      <c r="F960" s="1" t="inlineStr">
+        <is>
+          <t>../https:/www.koreanair.com/contents/promotion/list/2025/ULN250901EN?pageNum=1</t>
+        </is>
+      </c>
+      <c r="G960" t="inlineStr"/>
+      <c r="H960" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I960" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="961">
+      <c r="A961" t="inlineStr">
+        <is>
+          <t>news.mn</t>
+        </is>
+      </c>
+      <c r="B961" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="C961" t="inlineStr">
+        <is>
+          <t>https://news.mn/</t>
+        </is>
+      </c>
+      <c r="D961" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E961" t="inlineStr">
+        <is>
+          <t>https://news.mn/wp-content/uploads/2025/08/news-1-scaled.jpg</t>
+        </is>
+      </c>
+      <c r="F961" s="1" t="inlineStr">
+        <is>
+          <t>../https:/www.khanbank.com/personal/news/intelligence/7647</t>
+        </is>
+      </c>
+      <c r="G961" t="inlineStr"/>
+      <c r="H961" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I961" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="962">
+      <c r="A962" t="inlineStr">
+        <is>
+          <t>news.mn</t>
+        </is>
+      </c>
+      <c r="B962" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="C962" t="inlineStr">
+        <is>
+          <t>https://news.mn/</t>
+        </is>
+      </c>
+      <c r="D962" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E962" t="inlineStr">
+        <is>
+          <t>https://news.mn/wp-content/uploads/2025/09/2.-News-copy.jpg</t>
+        </is>
+      </c>
+      <c r="F962" s="1" t="inlineStr">
+        <is>
+          <t>../https:/www.khanbank.com/personal/news/intelligence/7657</t>
+        </is>
+      </c>
+      <c r="G962" t="inlineStr"/>
+      <c r="H962" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I962" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="963">
+      <c r="A963" t="inlineStr">
+        <is>
+          <t>news.mn</t>
+        </is>
+      </c>
+      <c r="B963" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="C963" t="inlineStr">
+        <is>
+          <t>https://news.mn/</t>
+        </is>
+      </c>
+      <c r="D963" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E963" t="inlineStr">
+        <is>
+          <t>https://news.mn/wp-content/uploads/2025/09/britto-News.mn-300x245-1.jpg</t>
+        </is>
+      </c>
+      <c r="F963" s="1" t="inlineStr">
+        <is>
+          <t>../https:/www.tdbm.mn/mn/news/brittobeleg</t>
+        </is>
+      </c>
+      <c r="G963" t="inlineStr"/>
+      <c r="H963" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I963" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="964">
+      <c r="A964" t="inlineStr">
+        <is>
+          <t>news.mn</t>
+        </is>
+      </c>
+      <c r="B964" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="C964" t="inlineStr">
+        <is>
+          <t>https://news.mn/</t>
+        </is>
+      </c>
+      <c r="D964" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E964" t="inlineStr">
+        <is>
+          <t>https://news.mn/wp-content/uploads/2025/09/news.mn-300x250-1.png</t>
+        </is>
+      </c>
+      <c r="F964" s="1" t="inlineStr">
+        <is>
+          <t>../https:/www.golomtbank.com/news/49942</t>
+        </is>
+      </c>
+      <c r="G964" t="inlineStr"/>
+      <c r="H964" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I964" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="965">
+      <c r="A965" t="inlineStr">
+        <is>
+          <t>news.mn</t>
+        </is>
+      </c>
+      <c r="B965" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="C965" t="inlineStr">
+        <is>
+          <t>https://news.mn/</t>
+        </is>
+      </c>
+      <c r="D965" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E965" t="inlineStr">
+        <is>
+          <t>https://news.mn/wp-content/uploads/2025/09/dyson-1-scaled.jpg</t>
+        </is>
+      </c>
+      <c r="F965" s="1" t="inlineStr">
+        <is>
+          <t>../https:/www.facebook.com/PCMallOfficial/posts/pfbid02n94s7a1HLmeM1u97NELbdxW28wEC5cJ3VV4VtdxAPqsgfYRmyBMJyAeKe6P2H6iel</t>
+        </is>
+      </c>
+      <c r="G965" t="inlineStr"/>
+      <c r="H965" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I965" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="966">
+      <c r="A966" t="inlineStr">
+        <is>
+          <t>news.mn</t>
+        </is>
+      </c>
+      <c r="B966" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="C966" t="inlineStr">
+        <is>
+          <t>https://news.mn/</t>
+        </is>
+      </c>
+      <c r="D966" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E966" t="inlineStr">
+        <is>
+          <t>https://news.mn/wp-content/uploads/2025/09/Promotion-BANNER-SEP-scaled.jpg</t>
+        </is>
+      </c>
+      <c r="F966" s="1" t="inlineStr">
+        <is>
+          <t>../https:/www.koreanair.com/contents/promotion/list/2025/ULN250901EN?pageNum=1</t>
+        </is>
+      </c>
+      <c r="G966" t="inlineStr"/>
+      <c r="H966" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I966" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="967">
+      <c r="A967" t="inlineStr">
+        <is>
+          <t>news.mn</t>
+        </is>
+      </c>
+      <c r="B967" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="C967" t="inlineStr">
+        <is>
+          <t>https://news.mn/</t>
+        </is>
+      </c>
+      <c r="D967" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E967" t="inlineStr">
+        <is>
+          <t>https://news.mn/wp-content/uploads/2025/08/news-1-scaled.jpg</t>
+        </is>
+      </c>
+      <c r="F967" s="1" t="inlineStr">
+        <is>
+          <t>../https:/www.khanbank.com/personal/news/intelligence/7647</t>
+        </is>
+      </c>
+      <c r="G967" t="inlineStr"/>
+      <c r="H967" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I967" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="968">
+      <c r="A968" t="inlineStr">
+        <is>
+          <t>news.mn</t>
+        </is>
+      </c>
+      <c r="B968" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="C968" t="inlineStr">
+        <is>
+          <t>https://news.mn/</t>
+        </is>
+      </c>
+      <c r="D968" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E968" t="inlineStr">
+        <is>
+          <t>https://news.mn/wp-content/uploads/2025/09/2.-News-copy.jpg</t>
+        </is>
+      </c>
+      <c r="F968" s="1" t="inlineStr">
+        <is>
+          <t>../https:/www.khanbank.com/personal/news/intelligence/7657</t>
+        </is>
+      </c>
+      <c r="G968" t="inlineStr"/>
+      <c r="H968" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I968" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="969">
+      <c r="A969" t="inlineStr">
+        <is>
+          <t>news.mn</t>
+        </is>
+      </c>
+      <c r="B969" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="C969" t="inlineStr">
+        <is>
+          <t>https://news.mn/</t>
+        </is>
+      </c>
+      <c r="D969" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E969" t="inlineStr">
+        <is>
+          <t>https://news.mn/wp-content/uploads/2025/09/britto-News.mn-300x245-1.jpg</t>
+        </is>
+      </c>
+      <c r="F969" s="1" t="inlineStr">
+        <is>
+          <t>../https:/www.tdbm.mn/mn/news/brittobeleg</t>
+        </is>
+      </c>
+      <c r="G969" t="inlineStr"/>
+      <c r="H969" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I969" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="970">
+      <c r="A970" t="inlineStr">
+        <is>
+          <t>news.mn</t>
+        </is>
+      </c>
+      <c r="B970" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="C970" t="inlineStr">
+        <is>
+          <t>https://news.mn/</t>
+        </is>
+      </c>
+      <c r="D970" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E970" t="inlineStr">
+        <is>
+          <t>https://news.mn/wp-content/uploads/2025/09/news.mn-300x250-1.png</t>
+        </is>
+      </c>
+      <c r="F970" s="1" t="inlineStr">
+        <is>
+          <t>../https:/www.golomtbank.com/news/49942</t>
+        </is>
+      </c>
+      <c r="G970" t="inlineStr"/>
+      <c r="H970" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I970" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="971">
+      <c r="A971" t="inlineStr">
+        <is>
+          <t>news.mn</t>
+        </is>
+      </c>
+      <c r="B971" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="C971" t="inlineStr">
+        <is>
+          <t>https://news.mn/</t>
+        </is>
+      </c>
+      <c r="D971" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E971" t="inlineStr">
+        <is>
+          <t>https://news.mn/wp-content/uploads/2025/09/dyson-1-scaled.jpg</t>
+        </is>
+      </c>
+      <c r="F971" s="1" t="inlineStr">
+        <is>
+          <t>../https:/www.facebook.com/PCMallOfficial/posts/pfbid02n94s7a1HLmeM1u97NELbdxW28wEC5cJ3VV4VtdxAPqsgfYRmyBMJyAeKe6P2H6iel</t>
+        </is>
+      </c>
+      <c r="G971" t="inlineStr"/>
+      <c r="H971" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I971" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="972">
+      <c r="A972" t="inlineStr">
+        <is>
+          <t>news.mn</t>
+        </is>
+      </c>
+      <c r="B972" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="C972" t="inlineStr">
+        <is>
+          <t>https://news.mn/</t>
+        </is>
+      </c>
+      <c r="D972" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E972" t="inlineStr">
+        <is>
+          <t>https://news.mn/wp-content/uploads/2025/09/Promotion-BANNER-SEP-scaled.jpg</t>
+        </is>
+      </c>
+      <c r="F972" s="1" t="inlineStr">
+        <is>
+          <t>../https:/www.koreanair.com/contents/promotion/list/2025/ULN250901EN?pageNum=1</t>
+        </is>
+      </c>
+      <c r="G972" t="inlineStr"/>
+      <c r="H972" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I972" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="973">
+      <c r="A973" t="inlineStr">
+        <is>
+          <t>news.mn</t>
+        </is>
+      </c>
+      <c r="B973" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="C973" t="inlineStr">
+        <is>
+          <t>https://news.mn/</t>
+        </is>
+      </c>
+      <c r="D973" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E973" t="inlineStr">
+        <is>
+          <t>https://news.mn/wp-content/uploads/2025/08/news-1-scaled.jpg</t>
+        </is>
+      </c>
+      <c r="F973" s="1" t="inlineStr">
+        <is>
+          <t>../https:/www.khanbank.com/personal/news/intelligence/7647</t>
+        </is>
+      </c>
+      <c r="G973" t="inlineStr"/>
+      <c r="H973" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I973" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="974">
+      <c r="A974" t="inlineStr">
+        <is>
+          <t>news.mn</t>
+        </is>
+      </c>
+      <c r="B974" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="C974" t="inlineStr">
+        <is>
+          <t>https://news.mn/</t>
+        </is>
+      </c>
+      <c r="D974" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E974" t="inlineStr">
+        <is>
+          <t>https://news.mn/wp-content/uploads/2025/09/2.-News-copy.jpg</t>
+        </is>
+      </c>
+      <c r="F974" s="1" t="inlineStr">
+        <is>
+          <t>../https:/www.khanbank.com/personal/news/intelligence/7657</t>
+        </is>
+      </c>
+      <c r="G974" t="inlineStr"/>
+      <c r="H974" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I974" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="975">
+      <c r="A975" t="inlineStr">
+        <is>
+          <t>news.mn</t>
+        </is>
+      </c>
+      <c r="B975" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="C975" t="inlineStr">
+        <is>
+          <t>https://news.mn/</t>
+        </is>
+      </c>
+      <c r="D975" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E975" t="inlineStr">
+        <is>
+          <t>https://news.mn/wp-content/uploads/2025/09/britto-News.mn-300x245-1.jpg</t>
+        </is>
+      </c>
+      <c r="F975" s="1" t="inlineStr">
+        <is>
+          <t>../https:/www.tdbm.mn/mn/news/brittobeleg</t>
+        </is>
+      </c>
+      <c r="G975" t="inlineStr"/>
+      <c r="H975" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I975" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="976">
+      <c r="A976" t="inlineStr">
+        <is>
+          <t>news.mn</t>
+        </is>
+      </c>
+      <c r="B976" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="C976" t="inlineStr">
+        <is>
+          <t>https://news.mn/</t>
+        </is>
+      </c>
+      <c r="D976" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E976" t="inlineStr">
+        <is>
+          <t>https://news.mn/wp-content/uploads/2025/09/news.mn-300x250-1.png</t>
+        </is>
+      </c>
+      <c r="F976" s="1" t="inlineStr">
+        <is>
+          <t>../https:/www.golomtbank.com/news/49942</t>
+        </is>
+      </c>
+      <c r="G976" t="inlineStr"/>
+      <c r="H976" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I976" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="977">
+      <c r="A977" t="inlineStr">
+        <is>
+          <t>news.mn</t>
+        </is>
+      </c>
+      <c r="B977" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="C977" t="inlineStr">
+        <is>
+          <t>https://news.mn/</t>
+        </is>
+      </c>
+      <c r="D977" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E977" t="inlineStr">
+        <is>
+          <t>https://news.mn/wp-content/uploads/2025/09/dyson-1-scaled.jpg</t>
+        </is>
+      </c>
+      <c r="F977" s="1" t="inlineStr">
+        <is>
+          <t>../https:/www.facebook.com/PCMallOfficial/posts/pfbid02n94s7a1HLmeM1u97NELbdxW28wEC5cJ3VV4VtdxAPqsgfYRmyBMJyAeKe6P2H6iel</t>
+        </is>
+      </c>
+      <c r="G977" t="inlineStr"/>
+      <c r="H977" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I977" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="978">
+      <c r="A978" t="inlineStr">
+        <is>
+          <t>news.mn</t>
+        </is>
+      </c>
+      <c r="B978" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="C978" t="inlineStr">
+        <is>
+          <t>https://news.mn/</t>
+        </is>
+      </c>
+      <c r="D978" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E978" t="inlineStr">
+        <is>
+          <t>https://news.mn/wp-content/uploads/2025/09/Promotion-BANNER-SEP-scaled.jpg</t>
+        </is>
+      </c>
+      <c r="F978" s="1" t="inlineStr">
+        <is>
+          <t>../https:/www.koreanair.com/contents/promotion/list/2025/ULN250901EN?pageNum=1</t>
+        </is>
+      </c>
+      <c r="G978" t="inlineStr"/>
+      <c r="H978" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I978" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="979">
+      <c r="A979" t="inlineStr">
+        <is>
+          <t>news.mn</t>
+        </is>
+      </c>
+      <c r="B979" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="C979" t="inlineStr">
+        <is>
+          <t>https://news.mn/</t>
+        </is>
+      </c>
+      <c r="D979" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E979" t="inlineStr">
+        <is>
+          <t>https://news.mn/wp-content/uploads/2025/08/news-1-scaled.jpg</t>
+        </is>
+      </c>
+      <c r="F979" s="1" t="inlineStr">
+        <is>
+          <t>../https:/www.khanbank.com/personal/news/intelligence/7647</t>
+        </is>
+      </c>
+      <c r="G979" t="inlineStr"/>
+      <c r="H979" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I979" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="980">
+      <c r="A980" t="inlineStr">
+        <is>
+          <t>news.mn</t>
+        </is>
+      </c>
+      <c r="B980" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="C980" t="inlineStr">
+        <is>
+          <t>https://news.mn/</t>
+        </is>
+      </c>
+      <c r="D980" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E980" t="inlineStr">
+        <is>
+          <t>https://news.mn/wp-content/uploads/2025/09/2.-News-copy.jpg</t>
+        </is>
+      </c>
+      <c r="F980" s="1" t="inlineStr">
+        <is>
+          <t>../https:/www.khanbank.com/personal/news/intelligence/7657</t>
+        </is>
+      </c>
+      <c r="G980" t="inlineStr"/>
+      <c r="H980" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I980" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="981">
+      <c r="A981" t="inlineStr">
+        <is>
+          <t>news.mn</t>
+        </is>
+      </c>
+      <c r="B981" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="C981" t="inlineStr">
+        <is>
+          <t>https://news.mn/</t>
+        </is>
+      </c>
+      <c r="D981" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E981" t="inlineStr">
+        <is>
+          <t>https://news.mn/wp-content/uploads/2025/09/britto-News.mn-300x245-1.jpg</t>
+        </is>
+      </c>
+      <c r="F981" s="1" t="inlineStr">
+        <is>
+          <t>../https:/www.tdbm.mn/mn/news/brittobeleg</t>
+        </is>
+      </c>
+      <c r="G981" t="inlineStr"/>
+      <c r="H981" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I981" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="982">
+      <c r="A982" t="inlineStr">
+        <is>
+          <t>news.mn</t>
+        </is>
+      </c>
+      <c r="B982" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="C982" t="inlineStr">
+        <is>
+          <t>https://news.mn/</t>
+        </is>
+      </c>
+      <c r="D982" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E982" t="inlineStr">
+        <is>
+          <t>https://news.mn/wp-content/uploads/2025/09/news.mn-300x250-1.png</t>
+        </is>
+      </c>
+      <c r="F982" s="1" t="inlineStr">
+        <is>
+          <t>../https:/www.golomtbank.com/news/49942</t>
+        </is>
+      </c>
+      <c r="G982" t="inlineStr"/>
+      <c r="H982" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I982" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="983">
+      <c r="A983" t="inlineStr">
+        <is>
+          <t>news.mn</t>
+        </is>
+      </c>
+      <c r="B983" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="C983" t="inlineStr">
+        <is>
+          <t>https://news.mn/</t>
+        </is>
+      </c>
+      <c r="D983" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E983" t="inlineStr">
+        <is>
+          <t>https://news.mn/wp-content/uploads/2025/09/dyson-1-scaled.jpg</t>
+        </is>
+      </c>
+      <c r="F983" s="1" t="inlineStr">
+        <is>
+          <t>../https:/www.facebook.com/PCMallOfficial/posts/pfbid02n94s7a1HLmeM1u97NELbdxW28wEC5cJ3VV4VtdxAPqsgfYRmyBMJyAeKe6P2H6iel</t>
+        </is>
+      </c>
+      <c r="G983" t="inlineStr"/>
+      <c r="H983" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I983" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="984">
+      <c r="A984" t="inlineStr">
+        <is>
+          <t>news.mn</t>
+        </is>
+      </c>
+      <c r="B984" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="C984" t="inlineStr">
+        <is>
+          <t>https://news.mn/</t>
+        </is>
+      </c>
+      <c r="D984" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E984" t="inlineStr">
+        <is>
+          <t>https://news.mn/wp-content/uploads/2025/09/Promotion-BANNER-SEP-scaled.jpg</t>
+        </is>
+      </c>
+      <c r="F984" s="1" t="inlineStr">
+        <is>
+          <t>../https:/www.koreanair.com/contents/promotion/list/2025/ULN250901EN?pageNum=1</t>
+        </is>
+      </c>
+      <c r="G984" t="inlineStr"/>
+      <c r="H984" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I984" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="985">
+      <c r="A985" t="inlineStr">
+        <is>
+          <t>news.mn</t>
+        </is>
+      </c>
+      <c r="B985" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="C985" t="inlineStr">
+        <is>
+          <t>https://news.mn/</t>
+        </is>
+      </c>
+      <c r="D985" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E985" t="inlineStr">
+        <is>
+          <t>https://news.mn/wp-content/uploads/2025/08/news-1-scaled.jpg</t>
+        </is>
+      </c>
+      <c r="F985" s="1" t="inlineStr">
+        <is>
+          <t>../https:/www.khanbank.com/personal/news/intelligence/7647</t>
+        </is>
+      </c>
+      <c r="G985" t="inlineStr"/>
+      <c r="H985" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I985" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="986">
+      <c r="A986" t="inlineStr">
+        <is>
+          <t>news.mn</t>
+        </is>
+      </c>
+      <c r="B986" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="C986" t="inlineStr">
+        <is>
+          <t>https://news.mn/</t>
+        </is>
+      </c>
+      <c r="D986" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E986" t="inlineStr">
+        <is>
+          <t>https://news.mn/wp-content/uploads/2025/09/2.-News-copy.jpg</t>
+        </is>
+      </c>
+      <c r="F986" s="1" t="inlineStr">
+        <is>
+          <t>../https:/www.khanbank.com/personal/news/intelligence/7657</t>
+        </is>
+      </c>
+      <c r="G986" t="inlineStr"/>
+      <c r="H986" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I986" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="987">
+      <c r="A987" t="inlineStr">
+        <is>
+          <t>news.mn</t>
+        </is>
+      </c>
+      <c r="B987" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="C987" t="inlineStr">
+        <is>
+          <t>https://news.mn/</t>
+        </is>
+      </c>
+      <c r="D987" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E987" t="inlineStr">
+        <is>
+          <t>https://news.mn/wp-content/uploads/2025/09/britto-News.mn-300x245-1.jpg</t>
+        </is>
+      </c>
+      <c r="F987" s="1" t="inlineStr">
+        <is>
+          <t>../https:/www.tdbm.mn/mn/news/brittobeleg</t>
+        </is>
+      </c>
+      <c r="G987" t="inlineStr"/>
+      <c r="H987" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I987" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="988">
+      <c r="A988" t="inlineStr">
+        <is>
+          <t>news.mn</t>
+        </is>
+      </c>
+      <c r="B988" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="C988" t="inlineStr">
+        <is>
+          <t>https://news.mn/</t>
+        </is>
+      </c>
+      <c r="D988" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E988" t="inlineStr">
+        <is>
+          <t>https://news.mn/wp-content/uploads/2025/09/news.mn-300x250-1.png</t>
+        </is>
+      </c>
+      <c r="F988" s="1" t="inlineStr">
+        <is>
+          <t>../https:/www.golomtbank.com/news/49942</t>
+        </is>
+      </c>
+      <c r="G988" t="inlineStr"/>
+      <c r="H988" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I988" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="989">
+      <c r="A989" t="inlineStr">
+        <is>
+          <t>news.mn</t>
+        </is>
+      </c>
+      <c r="B989" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="C989" t="inlineStr">
+        <is>
+          <t>https://news.mn/</t>
+        </is>
+      </c>
+      <c r="D989" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E989" t="inlineStr">
+        <is>
+          <t>https://news.mn/wp-content/uploads/2025/09/dyson-1-scaled.jpg</t>
+        </is>
+      </c>
+      <c r="F989" s="1" t="inlineStr">
+        <is>
+          <t>../https:/www.facebook.com/PCMallOfficial/posts/pfbid02n94s7a1HLmeM1u97NELbdxW28wEC5cJ3VV4VtdxAPqsgfYRmyBMJyAeKe6P2H6iel</t>
+        </is>
+      </c>
+      <c r="G989" t="inlineStr"/>
+      <c r="H989" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I989" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="990">
+      <c r="A990" t="inlineStr">
+        <is>
+          <t>news.mn</t>
+        </is>
+      </c>
+      <c r="B990" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="C990" t="inlineStr">
+        <is>
+          <t>https://news.mn/</t>
+        </is>
+      </c>
+      <c r="D990" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E990" t="inlineStr">
+        <is>
+          <t>https://news.mn/wp-content/uploads/2025/09/Promotion-BANNER-SEP-scaled.jpg</t>
+        </is>
+      </c>
+      <c r="F990" s="1" t="inlineStr">
+        <is>
+          <t>../https:/www.koreanair.com/contents/promotion/list/2025/ULN250901EN?pageNum=1</t>
+        </is>
+      </c>
+      <c r="G990" t="inlineStr"/>
+      <c r="H990" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I990" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="991">
+      <c r="A991" t="inlineStr">
+        <is>
+          <t>news.mn</t>
+        </is>
+      </c>
+      <c r="B991" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="C991" t="inlineStr">
+        <is>
+          <t>https://news.mn/</t>
+        </is>
+      </c>
+      <c r="D991" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E991" t="inlineStr">
+        <is>
+          <t>https://news.mn/wp-content/uploads/2025/08/news-1-scaled.jpg</t>
+        </is>
+      </c>
+      <c r="F991" s="1" t="inlineStr">
+        <is>
+          <t>../https:/www.khanbank.com/personal/news/intelligence/7647</t>
+        </is>
+      </c>
+      <c r="G991" t="inlineStr"/>
+      <c r="H991" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I991" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="992">
+      <c r="A992" t="inlineStr">
+        <is>
+          <t>news.mn</t>
+        </is>
+      </c>
+      <c r="B992" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="C992" t="inlineStr">
+        <is>
+          <t>https://news.mn/</t>
+        </is>
+      </c>
+      <c r="D992" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E992" t="inlineStr">
+        <is>
+          <t>https://news.mn/wp-content/uploads/2025/09/2.-News-copy.jpg</t>
+        </is>
+      </c>
+      <c r="F992" s="1" t="inlineStr">
+        <is>
+          <t>../https:/www.khanbank.com/personal/news/intelligence/7657</t>
+        </is>
+      </c>
+      <c r="G992" t="inlineStr"/>
+      <c r="H992" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I992" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="993">
+      <c r="A993" t="inlineStr">
+        <is>
+          <t>news.mn</t>
+        </is>
+      </c>
+      <c r="B993" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="C993" t="inlineStr">
+        <is>
+          <t>https://news.mn/</t>
+        </is>
+      </c>
+      <c r="D993" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E993" t="inlineStr">
+        <is>
+          <t>https://news.mn/wp-content/uploads/2025/09/britto-News.mn-300x245-1.jpg</t>
+        </is>
+      </c>
+      <c r="F993" s="1" t="inlineStr">
+        <is>
+          <t>../https:/www.tdbm.mn/mn/news/brittobeleg</t>
+        </is>
+      </c>
+      <c r="G993" t="inlineStr"/>
+      <c r="H993" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I993" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="994">
+      <c r="A994" t="inlineStr">
+        <is>
+          <t>news.mn</t>
+        </is>
+      </c>
+      <c r="B994" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="C994" t="inlineStr">
+        <is>
+          <t>https://news.mn/</t>
+        </is>
+      </c>
+      <c r="D994" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E994" t="inlineStr">
+        <is>
+          <t>https://news.mn/wp-content/uploads/2025/09/news.mn-300x250-1.png</t>
+        </is>
+      </c>
+      <c r="F994" s="1" t="inlineStr">
+        <is>
+          <t>../https:/www.golomtbank.com/news/49942</t>
+        </is>
+      </c>
+      <c r="G994" t="inlineStr"/>
+      <c r="H994" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I994" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="995">
+      <c r="A995" t="inlineStr">
+        <is>
+          <t>news.mn</t>
+        </is>
+      </c>
+      <c r="B995" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="C995" t="inlineStr">
+        <is>
+          <t>https://news.mn/</t>
+        </is>
+      </c>
+      <c r="D995" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E995" t="inlineStr">
+        <is>
+          <t>https://news.mn/wp-content/uploads/2025/09/dyson-1-scaled.jpg</t>
+        </is>
+      </c>
+      <c r="F995" s="1" t="inlineStr">
+        <is>
+          <t>../https:/www.facebook.com/PCMallOfficial/posts/pfbid02n94s7a1HLmeM1u97NELbdxW28wEC5cJ3VV4VtdxAPqsgfYRmyBMJyAeKe6P2H6iel</t>
+        </is>
+      </c>
+      <c r="G995" t="inlineStr"/>
+      <c r="H995" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I995" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="996">
+      <c r="A996" t="inlineStr">
+        <is>
+          <t>news.mn</t>
+        </is>
+      </c>
+      <c r="B996" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="C996" t="inlineStr">
+        <is>
+          <t>https://news.mn/</t>
+        </is>
+      </c>
+      <c r="D996" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E996" t="inlineStr">
+        <is>
+          <t>https://news.mn/wp-content/uploads/2025/09/Promotion-BANNER-SEP-scaled.jpg</t>
+        </is>
+      </c>
+      <c r="F996" s="1" t="inlineStr">
+        <is>
+          <t>../https:/www.koreanair.com/contents/promotion/list/2025/ULN250901EN?pageNum=1</t>
+        </is>
+      </c>
+      <c r="G996" t="inlineStr"/>
+      <c r="H996" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I996" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="997">
+      <c r="A997" t="inlineStr">
+        <is>
+          <t>news.mn</t>
+        </is>
+      </c>
+      <c r="B997" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="C997" t="inlineStr">
+        <is>
+          <t>https://news.mn/</t>
+        </is>
+      </c>
+      <c r="D997" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E997" t="inlineStr">
+        <is>
+          <t>https://news.mn/wp-content/uploads/2025/08/news-1-scaled.jpg</t>
+        </is>
+      </c>
+      <c r="F997" s="1" t="inlineStr">
+        <is>
+          <t>../https:/www.khanbank.com/personal/news/intelligence/7647</t>
+        </is>
+      </c>
+      <c r="G997" t="inlineStr"/>
+      <c r="H997" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I997" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="998">
+      <c r="A998" t="inlineStr">
+        <is>
+          <t>news.mn</t>
+        </is>
+      </c>
+      <c r="B998" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="C998" t="inlineStr">
+        <is>
+          <t>https://news.mn/</t>
+        </is>
+      </c>
+      <c r="D998" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E998" t="inlineStr">
+        <is>
+          <t>https://news.mn/wp-content/uploads/2025/09/2.-News-copy.jpg</t>
+        </is>
+      </c>
+      <c r="F998" s="1" t="inlineStr">
+        <is>
+          <t>../https:/www.khanbank.com/personal/news/intelligence/7657</t>
+        </is>
+      </c>
+      <c r="G998" t="inlineStr"/>
+      <c r="H998" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I998" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="999">
+      <c r="A999" t="inlineStr">
+        <is>
+          <t>news.mn</t>
+        </is>
+      </c>
+      <c r="B999" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="C999" t="inlineStr">
+        <is>
+          <t>https://news.mn/</t>
+        </is>
+      </c>
+      <c r="D999" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E999" t="inlineStr">
+        <is>
+          <t>https://news.mn/wp-content/uploads/2025/09/britto-News.mn-300x245-1.jpg</t>
+        </is>
+      </c>
+      <c r="F999" s="1" t="inlineStr">
+        <is>
+          <t>../https:/www.tdbm.mn/mn/news/brittobeleg</t>
+        </is>
+      </c>
+      <c r="G999" t="inlineStr"/>
+      <c r="H999" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I999" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="1000">
+      <c r="A1000" t="inlineStr">
+        <is>
+          <t>news.mn</t>
+        </is>
+      </c>
+      <c r="B1000" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="C1000" t="inlineStr">
+        <is>
+          <t>https://news.mn/</t>
+        </is>
+      </c>
+      <c r="D1000" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E1000" t="inlineStr">
+        <is>
+          <t>https://news.mn/wp-content/uploads/2025/09/news.mn-300x250-1.png</t>
+        </is>
+      </c>
+      <c r="F1000" s="1" t="inlineStr">
+        <is>
+          <t>../https:/www.golomtbank.com/news/49942</t>
+        </is>
+      </c>
+      <c r="G1000" t="inlineStr"/>
+      <c r="H1000" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I1000" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="1001">
+      <c r="A1001" t="inlineStr">
+        <is>
+          <t>news.mn</t>
+        </is>
+      </c>
+      <c r="B1001" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="C1001" t="inlineStr">
+        <is>
+          <t>https://news.mn/</t>
+        </is>
+      </c>
+      <c r="D1001" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E1001" t="inlineStr">
+        <is>
+          <t>https://news.mn/wp-content/uploads/2025/09/dyson-1-scaled.jpg</t>
+        </is>
+      </c>
+      <c r="F1001" s="1" t="inlineStr">
+        <is>
+          <t>../https:/www.facebook.com/PCMallOfficial/posts/pfbid02n94s7a1HLmeM1u97NELbdxW28wEC5cJ3VV4VtdxAPqsgfYRmyBMJyAeKe6P2H6iel</t>
+        </is>
+      </c>
+      <c r="G1001" t="inlineStr"/>
+      <c r="H1001" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I1001" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="1002">
+      <c r="A1002" t="inlineStr">
+        <is>
+          <t>news.mn</t>
+        </is>
+      </c>
+      <c r="B1002" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="C1002" t="inlineStr">
+        <is>
+          <t>https://news.mn/</t>
+        </is>
+      </c>
+      <c r="D1002" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E1002" t="inlineStr">
+        <is>
+          <t>https://news.mn/wp-content/uploads/2025/09/Promotion-BANNER-SEP-scaled.jpg</t>
+        </is>
+      </c>
+      <c r="F1002" s="1" t="inlineStr">
+        <is>
+          <t>../https:/www.koreanair.com/contents/promotion/list/2025/ULN250901EN?pageNum=1</t>
+        </is>
+      </c>
+      <c r="G1002" t="inlineStr"/>
+      <c r="H1002" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I1002" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="1003">
+      <c r="A1003" t="inlineStr">
+        <is>
+          <t>news.mn</t>
+        </is>
+      </c>
+      <c r="B1003" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="C1003" t="inlineStr">
+        <is>
+          <t>https://news.mn/</t>
+        </is>
+      </c>
+      <c r="D1003" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E1003" t="inlineStr">
+        <is>
+          <t>https://news.mn/wp-content/uploads/2025/08/news-1-scaled.jpg</t>
+        </is>
+      </c>
+      <c r="F1003" s="1" t="inlineStr">
+        <is>
+          <t>../https:/www.khanbank.com/personal/news/intelligence/7647</t>
+        </is>
+      </c>
+      <c r="G1003" t="inlineStr"/>
+      <c r="H1003" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I1003" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="1004">
+      <c r="A1004" t="inlineStr">
+        <is>
+          <t>news.mn</t>
+        </is>
+      </c>
+      <c r="B1004" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="C1004" t="inlineStr">
+        <is>
+          <t>https://news.mn/</t>
+        </is>
+      </c>
+      <c r="D1004" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E1004" t="inlineStr">
+        <is>
+          <t>https://news.mn/wp-content/uploads/2025/09/2.-News-copy.jpg</t>
+        </is>
+      </c>
+      <c r="F1004" s="1" t="inlineStr">
+        <is>
+          <t>../https:/www.khanbank.com/personal/news/intelligence/7657</t>
+        </is>
+      </c>
+      <c r="G1004" t="inlineStr"/>
+      <c r="H1004" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I1004" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="1005">
+      <c r="A1005" t="inlineStr">
+        <is>
+          <t>news.mn</t>
+        </is>
+      </c>
+      <c r="B1005" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="C1005" t="inlineStr">
+        <is>
+          <t>https://news.mn/</t>
+        </is>
+      </c>
+      <c r="D1005" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E1005" t="inlineStr">
+        <is>
+          <t>https://news.mn/wp-content/uploads/2025/09/britto-News.mn-300x245-1.jpg</t>
+        </is>
+      </c>
+      <c r="F1005" s="1" t="inlineStr">
+        <is>
+          <t>../https:/www.tdbm.mn/mn/news/brittobeleg</t>
+        </is>
+      </c>
+      <c r="G1005" t="inlineStr"/>
+      <c r="H1005" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I1005" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="1006">
+      <c r="A1006" t="inlineStr">
+        <is>
+          <t>news.mn</t>
+        </is>
+      </c>
+      <c r="B1006" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="C1006" t="inlineStr">
+        <is>
+          <t>https://news.mn/</t>
+        </is>
+      </c>
+      <c r="D1006" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E1006" t="inlineStr">
+        <is>
+          <t>https://news.mn/wp-content/uploads/2025/09/news.mn-300x250-1.png</t>
+        </is>
+      </c>
+      <c r="F1006" s="1" t="inlineStr">
+        <is>
+          <t>../https:/www.golomtbank.com/news/49942</t>
+        </is>
+      </c>
+      <c r="G1006" t="inlineStr"/>
+      <c r="H1006" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I1006" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="1007">
+      <c r="A1007" t="inlineStr">
+        <is>
+          <t>news.mn</t>
+        </is>
+      </c>
+      <c r="B1007" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="C1007" t="inlineStr">
+        <is>
+          <t>https://news.mn/</t>
+        </is>
+      </c>
+      <c r="D1007" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E1007" t="inlineStr">
+        <is>
+          <t>https://news.mn/wp-content/uploads/2025/09/dyson-1-scaled.jpg</t>
+        </is>
+      </c>
+      <c r="F1007" s="1" t="inlineStr">
+        <is>
+          <t>../https:/www.facebook.com/PCMallOfficial/posts/pfbid02n94s7a1HLmeM1u97NELbdxW28wEC5cJ3VV4VtdxAPqsgfYRmyBMJyAeKe6P2H6iel</t>
+        </is>
+      </c>
+      <c r="G1007" t="inlineStr"/>
+      <c r="H1007" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I1007" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="1008">
+      <c r="A1008" t="inlineStr">
+        <is>
+          <t>news.mn</t>
+        </is>
+      </c>
+      <c r="B1008" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="C1008" t="inlineStr">
+        <is>
+          <t>https://news.mn/</t>
+        </is>
+      </c>
+      <c r="D1008" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E1008" t="inlineStr">
+        <is>
+          <t>https://news.mn/wp-content/uploads/2025/09/Promotion-BANNER-SEP-scaled.jpg</t>
+        </is>
+      </c>
+      <c r="F1008" s="1" t="inlineStr">
+        <is>
+          <t>../https:/www.koreanair.com/contents/promotion/list/2025/ULN250901EN?pageNum=1</t>
+        </is>
+      </c>
+      <c r="G1008" t="inlineStr"/>
+      <c r="H1008" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I1008" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="1009">
+      <c r="A1009" t="inlineStr">
+        <is>
+          <t>news.mn</t>
+        </is>
+      </c>
+      <c r="B1009" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="C1009" t="inlineStr">
+        <is>
+          <t>https://news.mn/</t>
+        </is>
+      </c>
+      <c r="D1009" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E1009" t="inlineStr">
+        <is>
+          <t>https://news.mn/wp-content/uploads/2025/08/news-1-scaled.jpg</t>
+        </is>
+      </c>
+      <c r="F1009" s="1" t="inlineStr">
+        <is>
+          <t>../https:/www.khanbank.com/personal/news/intelligence/7647</t>
+        </is>
+      </c>
+      <c r="G1009" t="inlineStr"/>
+      <c r="H1009" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I1009" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="1010">
+      <c r="A1010" t="inlineStr">
+        <is>
+          <t>news.mn</t>
+        </is>
+      </c>
+      <c r="B1010" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="C1010" t="inlineStr">
+        <is>
+          <t>https://news.mn/</t>
+        </is>
+      </c>
+      <c r="D1010" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E1010" t="inlineStr">
+        <is>
+          <t>https://news.mn/wp-content/uploads/2025/09/2.-News-copy.jpg</t>
+        </is>
+      </c>
+      <c r="F1010" s="1" t="inlineStr">
+        <is>
+          <t>../https:/www.khanbank.com/personal/news/intelligence/7657</t>
+        </is>
+      </c>
+      <c r="G1010" t="inlineStr"/>
+      <c r="H1010" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I1010" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="1011">
+      <c r="A1011" t="inlineStr">
+        <is>
+          <t>news.mn</t>
+        </is>
+      </c>
+      <c r="B1011" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="C1011" t="inlineStr">
+        <is>
+          <t>https://news.mn/</t>
+        </is>
+      </c>
+      <c r="D1011" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E1011" t="inlineStr">
+        <is>
+          <t>https://news.mn/wp-content/uploads/2025/09/britto-News.mn-300x245-1.jpg</t>
+        </is>
+      </c>
+      <c r="F1011" s="1" t="inlineStr">
+        <is>
+          <t>../https:/www.tdbm.mn/mn/news/brittobeleg</t>
+        </is>
+      </c>
+      <c r="G1011" t="inlineStr"/>
+      <c r="H1011" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I1011" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="1012">
+      <c r="A1012" t="inlineStr">
+        <is>
+          <t>news.mn</t>
+        </is>
+      </c>
+      <c r="B1012" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="C1012" t="inlineStr">
+        <is>
+          <t>https://news.mn/</t>
+        </is>
+      </c>
+      <c r="D1012" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E1012" t="inlineStr">
+        <is>
+          <t>https://news.mn/wp-content/uploads/2025/09/news.mn-300x250-1.png</t>
+        </is>
+      </c>
+      <c r="F1012" s="1" t="inlineStr">
+        <is>
+          <t>../https:/www.golomtbank.com/news/49942</t>
+        </is>
+      </c>
+      <c r="G1012" t="inlineStr"/>
+      <c r="H1012" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I1012" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -34228,6 +42625,137 @@
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F807" r:id="rId479"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F808" r:id="rId480"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F809" r:id="rId481"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F811" r:id="rId482"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F814" r:id="rId483"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F884" r:id="rId484"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F885" r:id="rId485"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F886" r:id="rId486"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F887" r:id="rId487"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F888" r:id="rId488"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F889" r:id="rId489"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F890" r:id="rId490"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F891" r:id="rId491"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F892" r:id="rId492"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F893" r:id="rId493"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F894" r:id="rId494"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F895" r:id="rId495"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F896" r:id="rId496"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F897" r:id="rId497"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F898" r:id="rId498"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F899" r:id="rId499"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F900" r:id="rId500"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F901" r:id="rId501"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F902" r:id="rId502"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F903" r:id="rId503"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F904" r:id="rId504"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F905" r:id="rId505"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F906" r:id="rId506"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F907" r:id="rId507"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F908" r:id="rId508"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F909" r:id="rId509"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F910" r:id="rId510"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F911" r:id="rId511"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F912" r:id="rId512"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F913" r:id="rId513"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F914" r:id="rId514"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F915" r:id="rId515"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F916" r:id="rId516"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F917" r:id="rId517"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F918" r:id="rId518"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F919" r:id="rId519"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F920" r:id="rId520"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F921" r:id="rId521"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F922" r:id="rId522"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F923" r:id="rId523"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F924" r:id="rId524"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F925" r:id="rId525"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F926" r:id="rId526"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F927" r:id="rId527"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F928" r:id="rId528"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F929" r:id="rId529"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F930" r:id="rId530"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F931" r:id="rId531"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F932" r:id="rId532"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F933" r:id="rId533"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F934" r:id="rId534"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F935" r:id="rId535"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F936" r:id="rId536"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F937" r:id="rId537"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F938" r:id="rId538"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F939" r:id="rId539"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F940" r:id="rId540"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F941" r:id="rId541"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F942" r:id="rId542"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F943" r:id="rId543"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F944" r:id="rId544"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F945" r:id="rId545"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F946" r:id="rId546"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F947" r:id="rId547"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F948" r:id="rId548"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F949" r:id="rId549"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F950" r:id="rId550"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F951" r:id="rId551"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F952" r:id="rId552"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F953" r:id="rId553"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F954" r:id="rId554"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F955" r:id="rId555"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F956" r:id="rId556"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F957" r:id="rId557"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F958" r:id="rId558"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F959" r:id="rId559"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F960" r:id="rId560"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F961" r:id="rId561"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F962" r:id="rId562"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F963" r:id="rId563"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F964" r:id="rId564"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F965" r:id="rId565"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F966" r:id="rId566"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F967" r:id="rId567"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F968" r:id="rId568"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F969" r:id="rId569"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F970" r:id="rId570"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F971" r:id="rId571"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F972" r:id="rId572"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F973" r:id="rId573"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F974" r:id="rId574"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F975" r:id="rId575"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F976" r:id="rId576"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F977" r:id="rId577"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F978" r:id="rId578"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F979" r:id="rId579"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F980" r:id="rId580"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F981" r:id="rId581"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F982" r:id="rId582"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F983" r:id="rId583"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F984" r:id="rId584"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F985" r:id="rId585"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F986" r:id="rId586"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F987" r:id="rId587"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F988" r:id="rId588"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F989" r:id="rId589"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F990" r:id="rId590"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F991" r:id="rId591"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F992" r:id="rId592"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F993" r:id="rId593"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F994" r:id="rId594"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F995" r:id="rId595"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F996" r:id="rId596"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F997" r:id="rId597"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F998" r:id="rId598"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F999" r:id="rId599"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F1000" r:id="rId600"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F1001" r:id="rId601"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F1002" r:id="rId602"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F1003" r:id="rId603"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F1004" r:id="rId604"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F1005" r:id="rId605"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F1006" r:id="rId606"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F1007" r:id="rId607"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F1008" r:id="rId608"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F1009" r:id="rId609"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F1010" r:id="rId610"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F1011" r:id="rId611"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F1012" r:id="rId612"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
